--- a/result_report.xlsx
+++ b/result_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>Version</t>
   </si>
@@ -78,24 +78,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Benchmark Performance</t>
-  </si>
-  <si>
-    <t>Dhrystone</t>
-  </si>
-  <si>
     <t>Stanford</t>
   </si>
   <si>
     <t>Whetstone Benchmark</t>
-  </si>
-  <si>
-    <t>Dhrystone per Sec.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMIPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Perm</t>
@@ -190,9 +176,6 @@
     <t>Non</t>
   </si>
   <si>
-    <t>0.721</t>
-  </si>
-  <si>
     <t>Non r2</t>
   </si>
   <si>
@@ -211,35 +194,79 @@
     <t>Division</t>
   </si>
   <si>
-    <t>7.86</t>
-  </si>
-  <si>
-    <t>JPEG</t>
-  </si>
-  <si>
     <t>1st run</t>
   </si>
   <si>
     <t>2nd run</t>
   </si>
   <si>
-    <t>20.50</t>
-  </si>
-  <si>
-    <t>20.57</t>
-  </si>
-  <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>9.84</t>
+    <t>"</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>division v1</t>
+  </si>
+  <si>
+    <t>division v2</t>
+  </si>
+  <si>
+    <t>Final Evaluation</t>
+  </si>
+  <si>
+    <t>Basic Parameters</t>
+  </si>
+  <si>
+    <t>Composite Parameters</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Total Ex. Time</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>A*D</t>
+  </si>
+  <si>
+    <t>A*BS</t>
+  </si>
+  <si>
+    <t>P*D</t>
+  </si>
+  <si>
+    <t>P*BS</t>
+  </si>
+  <si>
+    <t>Benchmarks</t>
+  </si>
+  <si>
+    <t>Mibench JPEG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +305,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +352,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -501,19 +561,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -625,14 +672,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,9 +797,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,23 +832,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,25 +844,70 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,31 +916,86 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="4" builtinId="10"/>
     <cellStyle name="Titolo" xfId="1" builtinId="15"/>
     <cellStyle name="Titolo 2" xfId="2" builtinId="17"/>
   </cellStyles>
@@ -1058,949 +1296,1445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE106"/>
+  <dimension ref="A1:BL106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="40" max="40" width="13" customWidth="1"/>
-    <col min="44" max="44" width="30.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="38" max="38" width="13" customWidth="1"/>
+    <col min="43" max="43" width="10.85546875" customWidth="1"/>
+    <col min="44" max="44" width="14" customWidth="1"/>
+    <col min="45" max="45" width="10.5703125" customWidth="1"/>
+    <col min="46" max="46" width="12" customWidth="1"/>
+    <col min="47" max="47" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.28515625" customWidth="1"/>
+    <col min="49" max="49" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.5703125" customWidth="1"/>
+    <col min="51" max="51" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:64" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
       <c r="BC1" s="1"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
-    </row>
-    <row r="2" spans="1:57" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="20" t="s">
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+    </row>
+    <row r="2" spans="1:64" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO2" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP2" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ2" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
-    </row>
-    <row r="3" spans="1:57" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="19" t="s">
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+    </row>
+    <row r="3" spans="1:64" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="Q3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="R3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="S3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="T3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="U3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="V3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="W3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="X3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="Y3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="Z3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="AA3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="AB3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AC3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AD3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AE3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AF3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AG3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AH3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ3" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AI3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AL3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM3" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR3" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS3" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT3" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU3" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV3" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW3" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX3" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+    </row>
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8">
+        <v>35</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="52">
+        <v>106.36</v>
+      </c>
+      <c r="G4" s="8">
+        <v>80</v>
+      </c>
+      <c r="H4" s="8">
+        <v>9904</v>
+      </c>
+      <c r="I4" s="8">
+        <v>16889</v>
+      </c>
+      <c r="J4" s="53">
+        <v>2.4670000000000001</v>
+      </c>
+      <c r="K4" s="53">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="L4" s="53">
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="M4" s="63">
+        <f>L4/F4</f>
+        <v>2.9973674313651749E-2</v>
+      </c>
+      <c r="N4" s="29">
+        <v>100</v>
+      </c>
+      <c r="O4" s="29">
+        <v>117</v>
+      </c>
+      <c r="P4" s="29">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>100</v>
+      </c>
+      <c r="R4" s="29">
+        <v>816</v>
+      </c>
+      <c r="S4" s="29">
+        <v>717</v>
+      </c>
+      <c r="T4" s="29">
+        <v>83</v>
+      </c>
+      <c r="U4" s="29">
+        <v>150</v>
+      </c>
+      <c r="V4" s="29">
+        <v>417</v>
+      </c>
+      <c r="W4" s="29">
+        <v>1150</v>
+      </c>
+      <c r="X4" s="29">
+        <v>253</v>
+      </c>
+      <c r="Y4" s="29">
+        <v>1001</v>
+      </c>
+      <c r="Z4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="8">
-        <v>5</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="9">
-        <v>35</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="21">
-        <v>80522</v>
-      </c>
-      <c r="G4" s="9">
-        <v>80</v>
-      </c>
-      <c r="H4" s="9">
-        <v>9904</v>
-      </c>
-      <c r="I4" s="9">
-        <v>16889</v>
-      </c>
-      <c r="J4" s="21">
-        <v>2467</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="21">
-        <v>3188</v>
-      </c>
-      <c r="M4" s="22">
-        <f>L4/F4</f>
-        <v>3.9591664389856188E-2</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>117</v>
-      </c>
-      <c r="R4" s="9">
-        <v>67</v>
-      </c>
-      <c r="S4" s="9">
-        <v>100</v>
-      </c>
-      <c r="T4" s="9">
-        <v>816</v>
-      </c>
-      <c r="U4" s="9">
-        <v>717</v>
-      </c>
-      <c r="V4" s="9">
-        <v>83</v>
-      </c>
-      <c r="W4" s="9">
-        <v>150</v>
-      </c>
-      <c r="X4" s="9">
-        <v>417</v>
-      </c>
-      <c r="Y4" s="9">
-        <v>1150</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>253</v>
-      </c>
-      <c r="AA4" s="9">
-        <v>1001</v>
-      </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AD4" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AE4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH4" s="21">
-        <v>1658</v>
-      </c>
-      <c r="AI4" s="21">
-        <v>4600</v>
-      </c>
-      <c r="AJ4" s="39">
-        <v>2385</v>
-      </c>
-      <c r="AK4" s="21">
+      <c r="AF4" s="32">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="AG4" s="32">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH4" s="33">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="AI4" s="25">
         <v>801</v>
       </c>
-      <c r="AL4" s="21">
+      <c r="AJ4" s="29">
         <v>16286</v>
       </c>
-      <c r="AM4" s="21">
+      <c r="AK4" s="29">
         <v>5257</v>
       </c>
-      <c r="AN4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO4" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP4" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ4" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
+      <c r="AL4" s="25">
+        <v>7.86</v>
+      </c>
+      <c r="AM4" s="25">
+        <v>20.5</v>
+      </c>
+      <c r="AN4" s="25">
+        <v>20.57</v>
+      </c>
+      <c r="AO4" s="25">
+        <v>9.84</v>
+      </c>
+      <c r="AP4" s="25">
+        <f>3*60+29.32</f>
+        <v>209.32</v>
+      </c>
+      <c r="AQ4" s="56">
+        <f>H4+I4</f>
+        <v>26793</v>
+      </c>
+      <c r="AR4" s="57">
+        <f>1/F4</f>
+        <v>9.4020308386611514E-3</v>
+      </c>
+      <c r="AS4" s="57">
+        <f>L4</f>
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="AT4" s="57">
+        <f>AP4</f>
+        <v>209.32</v>
+      </c>
+      <c r="AU4" s="58">
+        <f>AQ4*AR4</f>
+        <v>251.90861226024822</v>
+      </c>
+      <c r="AV4" s="57">
+        <f>AQ4*AT4</f>
+        <v>5608310.7599999998</v>
+      </c>
+      <c r="AW4" s="57">
+        <f>AS4*AR4</f>
+        <v>2.9973674313651753E-2</v>
+      </c>
+      <c r="AX4" s="59">
+        <f>AS4*AT4</f>
+        <v>667.31216000000006</v>
+      </c>
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="22" t="e">
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="10">
+        <v>18</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="10">
+        <v>106.39</v>
+      </c>
+      <c r="G5" s="10">
+        <v>80</v>
+      </c>
+      <c r="H5" s="10">
+        <v>10481</v>
+      </c>
+      <c r="I5" s="10">
+        <v>17915</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2.468</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="L5" s="10">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="M5" s="64">
         <f t="shared" ref="M5:M12" si="0">L5/F5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="29"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
+        <v>3.0181408027070211E-2</v>
+      </c>
+      <c r="N5" s="30">
+        <v>100</v>
+      </c>
+      <c r="O5" s="30">
+        <v>117</v>
+      </c>
+      <c r="P5" s="30">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>100</v>
+      </c>
+      <c r="R5" s="30">
+        <v>816</v>
+      </c>
+      <c r="S5" s="30">
+        <v>717</v>
+      </c>
+      <c r="T5" s="30">
+        <v>83</v>
+      </c>
+      <c r="U5" s="30">
+        <v>150</v>
+      </c>
+      <c r="V5" s="30">
+        <v>417</v>
+      </c>
+      <c r="W5" s="30">
+        <v>1150</v>
+      </c>
+      <c r="X5" s="30">
+        <v>253</v>
+      </c>
+      <c r="Y5" s="30">
+        <v>1001</v>
+      </c>
+      <c r="Z5" s="34">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AA5" s="34">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AB5" s="34">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>0.246</v>
+      </c>
+      <c r="AD5" s="34">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AE5" s="34">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AF5" s="34">
+        <v>1.68</v>
+      </c>
+      <c r="AG5" s="34">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH5" s="34">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="AI5" s="27">
+        <v>800</v>
+      </c>
+      <c r="AJ5" s="30">
+        <v>16292</v>
+      </c>
+      <c r="AK5" s="30">
+        <v>5258</v>
+      </c>
+      <c r="AL5" s="27">
+        <v>7.86</v>
+      </c>
+      <c r="AM5" s="27">
+        <v>20.66</v>
+      </c>
+      <c r="AN5" s="27">
+        <v>20.52</v>
+      </c>
+      <c r="AO5" s="27">
+        <v>9.75</v>
+      </c>
+      <c r="AP5" s="27">
+        <f>3*60+28.7</f>
+        <v>208.7</v>
+      </c>
+      <c r="AQ5" s="56">
+        <f>H5+I5</f>
+        <v>28396</v>
+      </c>
+      <c r="AR5" s="57">
+        <f>1/F5</f>
+        <v>9.3993796409436985E-3</v>
+      </c>
+      <c r="AS5" s="57">
+        <f>L5</f>
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="AT5" s="57">
+        <f t="shared" ref="AT5:AT12" si="1">AP5</f>
+        <v>208.7</v>
+      </c>
+      <c r="AU5" s="56">
+        <f t="shared" ref="AU5:AU12" si="2">AQ5*AR5</f>
+        <v>266.90478428423728</v>
+      </c>
+      <c r="AV5" s="57">
+        <f t="shared" ref="AV5:AV12" si="3">AQ5*AT5</f>
+        <v>5926245.1999999993</v>
+      </c>
+      <c r="AW5" s="57">
+        <f t="shared" ref="AW5:AW12" si="4">AS5*AR5</f>
+        <v>3.0181408027070214E-2</v>
+      </c>
+      <c r="AX5" s="59">
+        <f t="shared" ref="AX5:AX12" si="5">AS5*AT5</f>
+        <v>670.13569999999993</v>
+      </c>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="22" t="e">
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="12">
+        <v>19</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="12">
+        <v>106.32899999999999</v>
+      </c>
+      <c r="G6" s="12">
+        <v>80</v>
+      </c>
+      <c r="H6" s="12">
+        <v>10468</v>
+      </c>
+      <c r="I6" s="12">
+        <v>17894</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2.4689999999999999</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="L6" s="12">
+        <v>3.2269999999999999</v>
+      </c>
+      <c r="M6" s="64">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
+        <v>3.0349199183665791E-2</v>
+      </c>
+      <c r="N6" s="31">
+        <v>100</v>
+      </c>
+      <c r="O6" s="31">
+        <v>117</v>
+      </c>
+      <c r="P6" s="31">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>100</v>
+      </c>
+      <c r="R6" s="31">
+        <v>816</v>
+      </c>
+      <c r="S6" s="31">
+        <v>717</v>
+      </c>
+      <c r="T6" s="31">
+        <v>83</v>
+      </c>
+      <c r="U6" s="31">
+        <v>150</v>
+      </c>
+      <c r="V6" s="31">
+        <v>434</v>
+      </c>
+      <c r="W6" s="31">
+        <v>1150</v>
+      </c>
+      <c r="X6" s="31">
+        <v>257</v>
+      </c>
+      <c r="Y6" s="31">
+        <v>1006</v>
+      </c>
+      <c r="Z6" s="33">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AA6" s="33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB6" s="33">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AC6" s="33">
+        <v>0.246</v>
+      </c>
+      <c r="AD6" s="33">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AE6" s="33">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AF6" s="33">
+        <v>1.68</v>
+      </c>
+      <c r="AG6" s="33">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH6" s="33">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="AI6" s="26">
+        <v>801</v>
+      </c>
+      <c r="AJ6" s="31">
+        <v>16286</v>
+      </c>
+      <c r="AK6" s="31">
+        <v>5257</v>
+      </c>
+      <c r="AL6" s="26">
+        <v>7.86</v>
+      </c>
+      <c r="AM6" s="26">
+        <v>20.53</v>
+      </c>
+      <c r="AN6" s="26">
+        <v>20.41</v>
+      </c>
+      <c r="AO6" s="26">
+        <v>9.85</v>
+      </c>
+      <c r="AP6" s="26">
+        <f>3*60+29.23</f>
+        <v>209.23</v>
+      </c>
+      <c r="AQ6" s="56">
+        <f>H6+I6</f>
+        <v>28362</v>
+      </c>
+      <c r="AR6" s="57">
+        <f>1/F6</f>
+        <v>9.4047719813033139E-3</v>
+      </c>
+      <c r="AS6" s="57">
+        <f>L6</f>
+        <v>3.2269999999999999</v>
+      </c>
+      <c r="AT6" s="57">
+        <f t="shared" si="1"/>
+        <v>209.23</v>
+      </c>
+      <c r="AU6" s="56">
+        <f t="shared" si="2"/>
+        <v>266.73814293372459</v>
+      </c>
+      <c r="AV6" s="57">
+        <f t="shared" si="3"/>
+        <v>5934181.2599999998</v>
+      </c>
+      <c r="AW6" s="57">
+        <f t="shared" si="4"/>
+        <v>3.0349199183665791E-2</v>
+      </c>
+      <c r="AX6" s="59">
+        <f t="shared" si="5"/>
+        <v>675.18520999999998</v>
+      </c>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="22" t="e">
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="65" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="56">
+        <f>H7+I7</f>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="57" t="e">
+        <f>1/F7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS7" s="57">
+        <f>L7</f>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU7" s="56" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV7" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="57" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX7" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="22" t="e">
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="65" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="30"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="56">
+        <f>H8+I8</f>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="57" t="e">
+        <f>1/F8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS8" s="57">
+        <f>L8</f>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="56" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV8" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="57" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX8" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY8" s="22"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="22" t="e">
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="65" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="56">
+        <f>H9+I9</f>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="57" t="e">
+        <f>1/F9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS9" s="57">
+        <f>L9</f>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="56" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV9" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="57" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX9" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="22" t="e">
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="65" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="56">
+        <f>H10+I10</f>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="57" t="e">
+        <f>1/F10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS10" s="57">
+        <f>L10</f>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="56" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV10" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW10" s="57" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX10" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="22" t="e">
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="65" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="23"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="56">
+        <f>H11+I11</f>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="57" t="e">
+        <f>1/F11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS11" s="57">
+        <f>L11</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="56" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV11" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="57" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX11" s="59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
-    </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="26" t="e">
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="66" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="60">
+        <f>H12+I12</f>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="61" t="e">
+        <f>1/F12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS12" s="61">
+        <f>L12</f>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="60" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV12" s="61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="61" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX12" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="23"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
-    </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2048,18 +2782,25 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
       <c r="AU13" s="3"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
-    </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2107,18 +2848,25 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
-    </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2166,18 +2914,25 @@
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2225,18 +2980,25 @@
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2284,18 +3046,25 @@
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
       <c r="BC17" s="1"/>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2343,18 +3112,25 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+      <c r="BI18" s="1"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2402,18 +3178,25 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
       <c r="BC19" s="1"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2461,18 +3244,25 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
-      <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
-      <c r="AX20" s="1"/>
-      <c r="AY20" s="1"/>
-      <c r="AZ20" s="1"/>
-      <c r="BA20" s="1"/>
-      <c r="BB20" s="1"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2520,18 +3310,25 @@
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
-      <c r="AX21" s="1"/>
-      <c r="AY21" s="1"/>
-      <c r="AZ21" s="1"/>
-      <c r="BA21" s="1"/>
-      <c r="BB21" s="1"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
-    </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2579,18 +3376,25 @@
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
-      <c r="AZ22" s="1"/>
-      <c r="BA22" s="1"/>
-      <c r="BB22" s="1"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
-    </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2638,18 +3442,25 @@
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
-    </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2697,18 +3508,25 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
-    </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2756,18 +3574,25 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
       <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
-    </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2815,18 +3640,25 @@
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
-      <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
-      <c r="AX26" s="1"/>
-      <c r="AY26" s="1"/>
-      <c r="AZ26" s="1"/>
-      <c r="BA26" s="1"/>
-      <c r="BB26" s="1"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2874,18 +3706,25 @@
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
-      <c r="AV27" s="1"/>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
-      <c r="AZ27" s="1"/>
-      <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
-    </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2933,18 +3772,25 @@
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
-      <c r="AV28" s="1"/>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="1"/>
-      <c r="AY28" s="1"/>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
-    </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2992,18 +3838,25 @@
       <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
-      <c r="AV29" s="1"/>
-      <c r="AW29" s="1"/>
-      <c r="AX29" s="1"/>
-      <c r="AY29" s="1"/>
-      <c r="AZ29" s="1"/>
-      <c r="BA29" s="1"/>
-      <c r="BB29" s="1"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
-    </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3051,18 +3904,25 @@
       <c r="AS30" s="3"/>
       <c r="AT30" s="3"/>
       <c r="AU30" s="3"/>
-      <c r="AV30" s="1"/>
-      <c r="AW30" s="1"/>
-      <c r="AX30" s="1"/>
-      <c r="AY30" s="1"/>
-      <c r="AZ30" s="1"/>
-      <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
-    </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3110,18 +3970,25 @@
       <c r="AS31" s="3"/>
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
-    </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3169,18 +4036,25 @@
       <c r="AS32" s="3"/>
       <c r="AT32" s="3"/>
       <c r="AU32" s="3"/>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BA32" s="3"/>
+      <c r="BB32" s="3"/>
       <c r="BC32" s="1"/>
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
-    </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3228,18 +4102,25 @@
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
       <c r="AU33" s="3"/>
-      <c r="AV33" s="1"/>
-      <c r="AW33" s="1"/>
-      <c r="AX33" s="1"/>
-      <c r="AY33" s="1"/>
-      <c r="AZ33" s="1"/>
-      <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
       <c r="BC33" s="1"/>
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
-    </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3287,18 +4168,25 @@
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
-      <c r="AV34" s="1"/>
-      <c r="AW34" s="1"/>
-      <c r="AX34" s="1"/>
-      <c r="AY34" s="1"/>
-      <c r="AZ34" s="1"/>
-      <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
-    </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3346,18 +4234,25 @@
       <c r="AS35" s="3"/>
       <c r="AT35" s="3"/>
       <c r="AU35" s="3"/>
-      <c r="AV35" s="1"/>
-      <c r="AW35" s="1"/>
-      <c r="AX35" s="1"/>
-      <c r="AY35" s="1"/>
-      <c r="AZ35" s="1"/>
-      <c r="BA35" s="1"/>
-      <c r="BB35" s="1"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
-    </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3405,18 +4300,25 @@
       <c r="AS36" s="3"/>
       <c r="AT36" s="3"/>
       <c r="AU36" s="3"/>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
-    </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3464,18 +4366,25 @@
       <c r="AS37" s="3"/>
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
-      <c r="AV37" s="1"/>
-      <c r="AW37" s="1"/>
-      <c r="AX37" s="1"/>
-      <c r="AY37" s="1"/>
-      <c r="AZ37" s="1"/>
-      <c r="BA37" s="1"/>
-      <c r="BB37" s="1"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
-    </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3523,18 +4432,25 @@
       <c r="AS38" s="3"/>
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
-      <c r="AV38" s="1"/>
-      <c r="AW38" s="1"/>
-      <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
-      <c r="AZ38" s="1"/>
-      <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
-    </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3582,18 +4498,25 @@
       <c r="AS39" s="3"/>
       <c r="AT39" s="3"/>
       <c r="AU39" s="3"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
-      <c r="AZ39" s="1"/>
-      <c r="BA39" s="1"/>
-      <c r="BB39" s="1"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
       <c r="BC39" s="1"/>
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
-    </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+    </row>
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3641,18 +4564,25 @@
       <c r="AS40" s="3"/>
       <c r="AT40" s="3"/>
       <c r="AU40" s="3"/>
-      <c r="AV40" s="1"/>
-      <c r="AW40" s="1"/>
-      <c r="AX40" s="1"/>
-      <c r="AY40" s="1"/>
-      <c r="AZ40" s="1"/>
-      <c r="BA40" s="1"/>
-      <c r="BB40" s="1"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
       <c r="BC40" s="1"/>
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
-    </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3700,18 +4630,25 @@
       <c r="AS41" s="3"/>
       <c r="AT41" s="3"/>
       <c r="AU41" s="3"/>
-      <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="1"/>
-      <c r="AZ41" s="1"/>
-      <c r="BA41" s="1"/>
-      <c r="BB41" s="1"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
       <c r="BC41" s="1"/>
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
-    </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3759,18 +4696,25 @@
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
       <c r="AU42" s="3"/>
-      <c r="AV42" s="1"/>
-      <c r="AW42" s="1"/>
-      <c r="AX42" s="1"/>
-      <c r="AY42" s="1"/>
-      <c r="AZ42" s="1"/>
-      <c r="BA42" s="1"/>
-      <c r="BB42" s="1"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
       <c r="BC42" s="1"/>
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
-    </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="1"/>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3818,18 +4762,25 @@
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
       <c r="BC43" s="1"/>
       <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
-    </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3877,18 +4828,25 @@
       <c r="AS44" s="3"/>
       <c r="AT44" s="3"/>
       <c r="AU44" s="3"/>
-      <c r="AV44" s="1"/>
-      <c r="AW44" s="1"/>
-      <c r="AX44" s="1"/>
-      <c r="AY44" s="1"/>
-      <c r="AZ44" s="1"/>
-      <c r="BA44" s="1"/>
-      <c r="BB44" s="1"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
       <c r="BC44" s="1"/>
       <c r="BD44" s="1"/>
       <c r="BE44" s="1"/>
-    </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3936,18 +4894,25 @@
       <c r="AS45" s="3"/>
       <c r="AT45" s="3"/>
       <c r="AU45" s="3"/>
-      <c r="AV45" s="1"/>
-      <c r="AW45" s="1"/>
-      <c r="AX45" s="1"/>
-      <c r="AY45" s="1"/>
-      <c r="AZ45" s="1"/>
-      <c r="BA45" s="1"/>
-      <c r="BB45" s="1"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="3"/>
+      <c r="AZ45" s="3"/>
+      <c r="BA45" s="3"/>
+      <c r="BB45" s="3"/>
       <c r="BC45" s="1"/>
       <c r="BD45" s="1"/>
       <c r="BE45" s="1"/>
-    </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+    </row>
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3995,18 +4960,25 @@
       <c r="AS46" s="3"/>
       <c r="AT46" s="3"/>
       <c r="AU46" s="3"/>
-      <c r="AV46" s="1"/>
-      <c r="AW46" s="1"/>
-      <c r="AX46" s="1"/>
-      <c r="AY46" s="1"/>
-      <c r="AZ46" s="1"/>
-      <c r="BA46" s="1"/>
-      <c r="BB46" s="1"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="3"/>
+      <c r="AZ46" s="3"/>
+      <c r="BA46" s="3"/>
+      <c r="BB46" s="3"/>
       <c r="BC46" s="1"/>
       <c r="BD46" s="1"/>
       <c r="BE46" s="1"/>
-    </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="1"/>
+    </row>
+    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4054,18 +5026,25 @@
       <c r="AS47" s="3"/>
       <c r="AT47" s="3"/>
       <c r="AU47" s="3"/>
-      <c r="AV47" s="1"/>
-      <c r="AW47" s="1"/>
-      <c r="AX47" s="1"/>
-      <c r="AY47" s="1"/>
-      <c r="AZ47" s="1"/>
-      <c r="BA47" s="1"/>
-      <c r="BB47" s="1"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
       <c r="BC47" s="1"/>
       <c r="BD47" s="1"/>
       <c r="BE47" s="1"/>
-    </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="1"/>
+      <c r="BK47" s="1"/>
+      <c r="BL47" s="1"/>
+    </row>
+    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4113,18 +5092,25 @@
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
-      <c r="AV48" s="1"/>
-      <c r="AW48" s="1"/>
-      <c r="AX48" s="1"/>
-      <c r="AY48" s="1"/>
-      <c r="AZ48" s="1"/>
-      <c r="BA48" s="1"/>
-      <c r="BB48" s="1"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
       <c r="BC48" s="1"/>
       <c r="BD48" s="1"/>
       <c r="BE48" s="1"/>
-    </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
+      <c r="BH48" s="1"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="1"/>
+      <c r="BK48" s="1"/>
+      <c r="BL48" s="1"/>
+    </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4172,18 +5158,25 @@
       <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
-      <c r="AV49" s="1"/>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1"/>
-      <c r="AY49" s="1"/>
-      <c r="AZ49" s="1"/>
-      <c r="BA49" s="1"/>
-      <c r="BB49" s="1"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
       <c r="BC49" s="1"/>
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
-    </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+    </row>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4231,18 +5224,25 @@
       <c r="AS50" s="3"/>
       <c r="AT50" s="3"/>
       <c r="AU50" s="3"/>
-      <c r="AV50" s="1"/>
-      <c r="AW50" s="1"/>
-      <c r="AX50" s="1"/>
-      <c r="AY50" s="1"/>
-      <c r="AZ50" s="1"/>
-      <c r="BA50" s="1"/>
-      <c r="BB50" s="1"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="3"/>
+      <c r="AY50" s="3"/>
+      <c r="AZ50" s="3"/>
+      <c r="BA50" s="3"/>
+      <c r="BB50" s="3"/>
       <c r="BC50" s="1"/>
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
-    </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="1"/>
+    </row>
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4290,18 +5290,25 @@
       <c r="AS51" s="3"/>
       <c r="AT51" s="3"/>
       <c r="AU51" s="3"/>
-      <c r="AV51" s="1"/>
-      <c r="AW51" s="1"/>
-      <c r="AX51" s="1"/>
-      <c r="AY51" s="1"/>
-      <c r="AZ51" s="1"/>
-      <c r="BA51" s="1"/>
-      <c r="BB51" s="1"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="3"/>
+      <c r="AX51" s="3"/>
+      <c r="AY51" s="3"/>
+      <c r="AZ51" s="3"/>
+      <c r="BA51" s="3"/>
+      <c r="BB51" s="3"/>
       <c r="BC51" s="1"/>
       <c r="BD51" s="1"/>
       <c r="BE51" s="1"/>
-    </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+    </row>
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4349,18 +5356,25 @@
       <c r="AS52" s="3"/>
       <c r="AT52" s="3"/>
       <c r="AU52" s="3"/>
-      <c r="AV52" s="1"/>
-      <c r="AW52" s="1"/>
-      <c r="AX52" s="1"/>
-      <c r="AY52" s="1"/>
-      <c r="AZ52" s="1"/>
-      <c r="BA52" s="1"/>
-      <c r="BB52" s="1"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="3"/>
+      <c r="AY52" s="3"/>
+      <c r="AZ52" s="3"/>
+      <c r="BA52" s="3"/>
+      <c r="BB52" s="3"/>
       <c r="BC52" s="1"/>
       <c r="BD52" s="1"/>
       <c r="BE52" s="1"/>
-    </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+    </row>
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4408,18 +5422,25 @@
       <c r="AS53" s="3"/>
       <c r="AT53" s="3"/>
       <c r="AU53" s="3"/>
-      <c r="AV53" s="1"/>
-      <c r="AW53" s="1"/>
-      <c r="AX53" s="1"/>
-      <c r="AY53" s="1"/>
-      <c r="AZ53" s="1"/>
-      <c r="BA53" s="1"/>
-      <c r="BB53" s="1"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
+      <c r="AY53" s="3"/>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
       <c r="BC53" s="1"/>
       <c r="BD53" s="1"/>
       <c r="BE53" s="1"/>
-    </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="1"/>
+      <c r="BH53" s="1"/>
+      <c r="BI53" s="1"/>
+      <c r="BJ53" s="1"/>
+      <c r="BK53" s="1"/>
+      <c r="BL53" s="1"/>
+    </row>
+    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4467,18 +5488,25 @@
       <c r="AS54" s="3"/>
       <c r="AT54" s="3"/>
       <c r="AU54" s="3"/>
-      <c r="AV54" s="1"/>
-      <c r="AW54" s="1"/>
-      <c r="AX54" s="1"/>
-      <c r="AY54" s="1"/>
-      <c r="AZ54" s="1"/>
-      <c r="BA54" s="1"/>
-      <c r="BB54" s="1"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3"/>
+      <c r="AX54" s="3"/>
+      <c r="AY54" s="3"/>
+      <c r="AZ54" s="3"/>
+      <c r="BA54" s="3"/>
+      <c r="BB54" s="3"/>
       <c r="BC54" s="1"/>
       <c r="BD54" s="1"/>
       <c r="BE54" s="1"/>
-    </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF54" s="1"/>
+      <c r="BG54" s="1"/>
+      <c r="BH54" s="1"/>
+      <c r="BI54" s="1"/>
+      <c r="BJ54" s="1"/>
+      <c r="BK54" s="1"/>
+      <c r="BL54" s="1"/>
+    </row>
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4526,18 +5554,25 @@
       <c r="AS55" s="3"/>
       <c r="AT55" s="3"/>
       <c r="AU55" s="3"/>
-      <c r="AV55" s="1"/>
-      <c r="AW55" s="1"/>
-      <c r="AX55" s="1"/>
-      <c r="AY55" s="1"/>
-      <c r="AZ55" s="1"/>
-      <c r="BA55" s="1"/>
-      <c r="BB55" s="1"/>
+      <c r="AV55" s="3"/>
+      <c r="AW55" s="3"/>
+      <c r="AX55" s="3"/>
+      <c r="AY55" s="3"/>
+      <c r="AZ55" s="3"/>
+      <c r="BA55" s="3"/>
+      <c r="BB55" s="3"/>
       <c r="BC55" s="1"/>
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
-    </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+    </row>
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4585,18 +5620,25 @@
       <c r="AS56" s="3"/>
       <c r="AT56" s="3"/>
       <c r="AU56" s="3"/>
-      <c r="AV56" s="1"/>
-      <c r="AW56" s="1"/>
-      <c r="AX56" s="1"/>
-      <c r="AY56" s="1"/>
-      <c r="AZ56" s="1"/>
-      <c r="BA56" s="1"/>
-      <c r="BB56" s="1"/>
+      <c r="AV56" s="3"/>
+      <c r="AW56" s="3"/>
+      <c r="AX56" s="3"/>
+      <c r="AY56" s="3"/>
+      <c r="AZ56" s="3"/>
+      <c r="BA56" s="3"/>
+      <c r="BB56" s="3"/>
       <c r="BC56" s="1"/>
       <c r="BD56" s="1"/>
       <c r="BE56" s="1"/>
-    </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF56" s="1"/>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="1"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="1"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="1"/>
+    </row>
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4644,18 +5686,25 @@
       <c r="AS57" s="3"/>
       <c r="AT57" s="3"/>
       <c r="AU57" s="3"/>
-      <c r="AV57" s="1"/>
-      <c r="AW57" s="1"/>
-      <c r="AX57" s="1"/>
-      <c r="AY57" s="1"/>
-      <c r="AZ57" s="1"/>
-      <c r="BA57" s="1"/>
-      <c r="BB57" s="1"/>
+      <c r="AV57" s="3"/>
+      <c r="AW57" s="3"/>
+      <c r="AX57" s="3"/>
+      <c r="AY57" s="3"/>
+      <c r="AZ57" s="3"/>
+      <c r="BA57" s="3"/>
+      <c r="BB57" s="3"/>
       <c r="BC57" s="1"/>
       <c r="BD57" s="1"/>
       <c r="BE57" s="1"/>
-    </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF57" s="1"/>
+      <c r="BG57" s="1"/>
+      <c r="BH57" s="1"/>
+      <c r="BI57" s="1"/>
+      <c r="BJ57" s="1"/>
+      <c r="BK57" s="1"/>
+      <c r="BL57" s="1"/>
+    </row>
+    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4703,18 +5752,25 @@
       <c r="AS58" s="3"/>
       <c r="AT58" s="3"/>
       <c r="AU58" s="3"/>
-      <c r="AV58" s="1"/>
-      <c r="AW58" s="1"/>
-      <c r="AX58" s="1"/>
-      <c r="AY58" s="1"/>
-      <c r="AZ58" s="1"/>
-      <c r="BA58" s="1"/>
-      <c r="BB58" s="1"/>
+      <c r="AV58" s="3"/>
+      <c r="AW58" s="3"/>
+      <c r="AX58" s="3"/>
+      <c r="AY58" s="3"/>
+      <c r="AZ58" s="3"/>
+      <c r="BA58" s="3"/>
+      <c r="BB58" s="3"/>
       <c r="BC58" s="1"/>
       <c r="BD58" s="1"/>
       <c r="BE58" s="1"/>
-    </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF58" s="1"/>
+      <c r="BG58" s="1"/>
+      <c r="BH58" s="1"/>
+      <c r="BI58" s="1"/>
+      <c r="BJ58" s="1"/>
+      <c r="BK58" s="1"/>
+      <c r="BL58" s="1"/>
+    </row>
+    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4762,18 +5818,25 @@
       <c r="AS59" s="3"/>
       <c r="AT59" s="3"/>
       <c r="AU59" s="3"/>
-      <c r="AV59" s="1"/>
-      <c r="AW59" s="1"/>
-      <c r="AX59" s="1"/>
-      <c r="AY59" s="1"/>
-      <c r="AZ59" s="1"/>
-      <c r="BA59" s="1"/>
-      <c r="BB59" s="1"/>
+      <c r="AV59" s="3"/>
+      <c r="AW59" s="3"/>
+      <c r="AX59" s="3"/>
+      <c r="AY59" s="3"/>
+      <c r="AZ59" s="3"/>
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
       <c r="BC59" s="1"/>
       <c r="BD59" s="1"/>
       <c r="BE59" s="1"/>
-    </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
+      <c r="BH59" s="1"/>
+      <c r="BI59" s="1"/>
+      <c r="BJ59" s="1"/>
+      <c r="BK59" s="1"/>
+      <c r="BL59" s="1"/>
+    </row>
+    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4821,18 +5884,25 @@
       <c r="AS60" s="3"/>
       <c r="AT60" s="3"/>
       <c r="AU60" s="3"/>
-      <c r="AV60" s="1"/>
-      <c r="AW60" s="1"/>
-      <c r="AX60" s="1"/>
-      <c r="AY60" s="1"/>
-      <c r="AZ60" s="1"/>
-      <c r="BA60" s="1"/>
-      <c r="BB60" s="1"/>
+      <c r="AV60" s="3"/>
+      <c r="AW60" s="3"/>
+      <c r="AX60" s="3"/>
+      <c r="AY60" s="3"/>
+      <c r="AZ60" s="3"/>
+      <c r="BA60" s="3"/>
+      <c r="BB60" s="3"/>
       <c r="BC60" s="1"/>
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
-    </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
+      <c r="BH60" s="1"/>
+      <c r="BI60" s="1"/>
+      <c r="BJ60" s="1"/>
+      <c r="BK60" s="1"/>
+      <c r="BL60" s="1"/>
+    </row>
+    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4880,18 +5950,25 @@
       <c r="AS61" s="3"/>
       <c r="AT61" s="3"/>
       <c r="AU61" s="3"/>
-      <c r="AV61" s="1"/>
-      <c r="AW61" s="1"/>
-      <c r="AX61" s="1"/>
-      <c r="AY61" s="1"/>
-      <c r="AZ61" s="1"/>
-      <c r="BA61" s="1"/>
-      <c r="BB61" s="1"/>
+      <c r="AV61" s="3"/>
+      <c r="AW61" s="3"/>
+      <c r="AX61" s="3"/>
+      <c r="AY61" s="3"/>
+      <c r="AZ61" s="3"/>
+      <c r="BA61" s="3"/>
+      <c r="BB61" s="3"/>
       <c r="BC61" s="1"/>
       <c r="BD61" s="1"/>
       <c r="BE61" s="1"/>
-    </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="1"/>
+      <c r="BH61" s="1"/>
+      <c r="BI61" s="1"/>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="1"/>
+    </row>
+    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4939,18 +6016,25 @@
       <c r="AS62" s="3"/>
       <c r="AT62" s="3"/>
       <c r="AU62" s="3"/>
-      <c r="AV62" s="1"/>
-      <c r="AW62" s="1"/>
-      <c r="AX62" s="1"/>
-      <c r="AY62" s="1"/>
-      <c r="AZ62" s="1"/>
-      <c r="BA62" s="1"/>
-      <c r="BB62" s="1"/>
+      <c r="AV62" s="3"/>
+      <c r="AW62" s="3"/>
+      <c r="AX62" s="3"/>
+      <c r="AY62" s="3"/>
+      <c r="AZ62" s="3"/>
+      <c r="BA62" s="3"/>
+      <c r="BB62" s="3"/>
       <c r="BC62" s="1"/>
       <c r="BD62" s="1"/>
       <c r="BE62" s="1"/>
-    </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF62" s="1"/>
+      <c r="BG62" s="1"/>
+      <c r="BH62" s="1"/>
+      <c r="BI62" s="1"/>
+      <c r="BJ62" s="1"/>
+      <c r="BK62" s="1"/>
+      <c r="BL62" s="1"/>
+    </row>
+    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4998,18 +6082,25 @@
       <c r="AS63" s="3"/>
       <c r="AT63" s="3"/>
       <c r="AU63" s="3"/>
-      <c r="AV63" s="1"/>
-      <c r="AW63" s="1"/>
-      <c r="AX63" s="1"/>
-      <c r="AY63" s="1"/>
-      <c r="AZ63" s="1"/>
-      <c r="BA63" s="1"/>
-      <c r="BB63" s="1"/>
+      <c r="AV63" s="3"/>
+      <c r="AW63" s="3"/>
+      <c r="AX63" s="3"/>
+      <c r="AY63" s="3"/>
+      <c r="AZ63" s="3"/>
+      <c r="BA63" s="3"/>
+      <c r="BB63" s="3"/>
       <c r="BC63" s="1"/>
       <c r="BD63" s="1"/>
       <c r="BE63" s="1"/>
-    </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+    </row>
+    <row r="64" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5057,18 +6148,25 @@
       <c r="AS64" s="3"/>
       <c r="AT64" s="3"/>
       <c r="AU64" s="3"/>
-      <c r="AV64" s="1"/>
-      <c r="AW64" s="1"/>
-      <c r="AX64" s="1"/>
-      <c r="AY64" s="1"/>
-      <c r="AZ64" s="1"/>
-      <c r="BA64" s="1"/>
-      <c r="BB64" s="1"/>
+      <c r="AV64" s="3"/>
+      <c r="AW64" s="3"/>
+      <c r="AX64" s="3"/>
+      <c r="AY64" s="3"/>
+      <c r="AZ64" s="3"/>
+      <c r="BA64" s="3"/>
+      <c r="BB64" s="3"/>
       <c r="BC64" s="1"/>
       <c r="BD64" s="1"/>
       <c r="BE64" s="1"/>
-    </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="1"/>
+      <c r="BH64" s="1"/>
+      <c r="BI64" s="1"/>
+      <c r="BJ64" s="1"/>
+      <c r="BK64" s="1"/>
+      <c r="BL64" s="1"/>
+    </row>
+    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5116,18 +6214,25 @@
       <c r="AS65" s="3"/>
       <c r="AT65" s="3"/>
       <c r="AU65" s="3"/>
-      <c r="AV65" s="1"/>
-      <c r="AW65" s="1"/>
-      <c r="AX65" s="1"/>
-      <c r="AY65" s="1"/>
-      <c r="AZ65" s="1"/>
-      <c r="BA65" s="1"/>
-      <c r="BB65" s="1"/>
+      <c r="AV65" s="3"/>
+      <c r="AW65" s="3"/>
+      <c r="AX65" s="3"/>
+      <c r="AY65" s="3"/>
+      <c r="AZ65" s="3"/>
+      <c r="BA65" s="3"/>
+      <c r="BB65" s="3"/>
       <c r="BC65" s="1"/>
       <c r="BD65" s="1"/>
       <c r="BE65" s="1"/>
-    </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF65" s="1"/>
+      <c r="BG65" s="1"/>
+      <c r="BH65" s="1"/>
+      <c r="BI65" s="1"/>
+      <c r="BJ65" s="1"/>
+      <c r="BK65" s="1"/>
+      <c r="BL65" s="1"/>
+    </row>
+    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -5175,18 +6280,25 @@
       <c r="AS66" s="3"/>
       <c r="AT66" s="3"/>
       <c r="AU66" s="3"/>
-      <c r="AV66" s="1"/>
-      <c r="AW66" s="1"/>
-      <c r="AX66" s="1"/>
-      <c r="AY66" s="1"/>
-      <c r="AZ66" s="1"/>
-      <c r="BA66" s="1"/>
-      <c r="BB66" s="1"/>
+      <c r="AV66" s="3"/>
+      <c r="AW66" s="3"/>
+      <c r="AX66" s="3"/>
+      <c r="AY66" s="3"/>
+      <c r="AZ66" s="3"/>
+      <c r="BA66" s="3"/>
+      <c r="BB66" s="3"/>
       <c r="BC66" s="1"/>
       <c r="BD66" s="1"/>
       <c r="BE66" s="1"/>
-    </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF66" s="1"/>
+      <c r="BG66" s="1"/>
+      <c r="BH66" s="1"/>
+      <c r="BI66" s="1"/>
+      <c r="BJ66" s="1"/>
+      <c r="BK66" s="1"/>
+      <c r="BL66" s="1"/>
+    </row>
+    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5234,18 +6346,25 @@
       <c r="AS67" s="3"/>
       <c r="AT67" s="3"/>
       <c r="AU67" s="3"/>
-      <c r="AV67" s="1"/>
-      <c r="AW67" s="1"/>
-      <c r="AX67" s="1"/>
-      <c r="AY67" s="1"/>
-      <c r="AZ67" s="1"/>
-      <c r="BA67" s="1"/>
-      <c r="BB67" s="1"/>
+      <c r="AV67" s="3"/>
+      <c r="AW67" s="3"/>
+      <c r="AX67" s="3"/>
+      <c r="AY67" s="3"/>
+      <c r="AZ67" s="3"/>
+      <c r="BA67" s="3"/>
+      <c r="BB67" s="3"/>
       <c r="BC67" s="1"/>
       <c r="BD67" s="1"/>
       <c r="BE67" s="1"/>
-    </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="1"/>
+      <c r="BH67" s="1"/>
+      <c r="BI67" s="1"/>
+      <c r="BJ67" s="1"/>
+      <c r="BK67" s="1"/>
+      <c r="BL67" s="1"/>
+    </row>
+    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5293,18 +6412,25 @@
       <c r="AS68" s="3"/>
       <c r="AT68" s="3"/>
       <c r="AU68" s="3"/>
-      <c r="AV68" s="1"/>
-      <c r="AW68" s="1"/>
-      <c r="AX68" s="1"/>
-      <c r="AY68" s="1"/>
-      <c r="AZ68" s="1"/>
-      <c r="BA68" s="1"/>
-      <c r="BB68" s="1"/>
+      <c r="AV68" s="3"/>
+      <c r="AW68" s="3"/>
+      <c r="AX68" s="3"/>
+      <c r="AY68" s="3"/>
+      <c r="AZ68" s="3"/>
+      <c r="BA68" s="3"/>
+      <c r="BB68" s="3"/>
       <c r="BC68" s="1"/>
       <c r="BD68" s="1"/>
       <c r="BE68" s="1"/>
-    </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="1"/>
+      <c r="BH68" s="1"/>
+      <c r="BI68" s="1"/>
+      <c r="BJ68" s="1"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="1"/>
+    </row>
+    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5352,18 +6478,25 @@
       <c r="AS69" s="3"/>
       <c r="AT69" s="3"/>
       <c r="AU69" s="3"/>
-      <c r="AV69" s="1"/>
-      <c r="AW69" s="1"/>
-      <c r="AX69" s="1"/>
-      <c r="AY69" s="1"/>
-      <c r="AZ69" s="1"/>
-      <c r="BA69" s="1"/>
-      <c r="BB69" s="1"/>
+      <c r="AV69" s="3"/>
+      <c r="AW69" s="3"/>
+      <c r="AX69" s="3"/>
+      <c r="AY69" s="3"/>
+      <c r="AZ69" s="3"/>
+      <c r="BA69" s="3"/>
+      <c r="BB69" s="3"/>
       <c r="BC69" s="1"/>
       <c r="BD69" s="1"/>
       <c r="BE69" s="1"/>
-    </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+    </row>
+    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -5411,18 +6544,25 @@
       <c r="AS70" s="3"/>
       <c r="AT70" s="3"/>
       <c r="AU70" s="3"/>
-      <c r="AV70" s="1"/>
-      <c r="AW70" s="1"/>
-      <c r="AX70" s="1"/>
-      <c r="AY70" s="1"/>
-      <c r="AZ70" s="1"/>
-      <c r="BA70" s="1"/>
-      <c r="BB70" s="1"/>
+      <c r="AV70" s="3"/>
+      <c r="AW70" s="3"/>
+      <c r="AX70" s="3"/>
+      <c r="AY70" s="3"/>
+      <c r="AZ70" s="3"/>
+      <c r="BA70" s="3"/>
+      <c r="BB70" s="3"/>
       <c r="BC70" s="1"/>
       <c r="BD70" s="1"/>
       <c r="BE70" s="1"/>
-    </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF70" s="1"/>
+      <c r="BG70" s="1"/>
+      <c r="BH70" s="1"/>
+      <c r="BI70" s="1"/>
+      <c r="BJ70" s="1"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="1"/>
+    </row>
+    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5470,18 +6610,25 @@
       <c r="AS71" s="3"/>
       <c r="AT71" s="3"/>
       <c r="AU71" s="3"/>
-      <c r="AV71" s="1"/>
-      <c r="AW71" s="1"/>
-      <c r="AX71" s="1"/>
-      <c r="AY71" s="1"/>
-      <c r="AZ71" s="1"/>
-      <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
+      <c r="AV71" s="3"/>
+      <c r="AW71" s="3"/>
+      <c r="AX71" s="3"/>
+      <c r="AY71" s="3"/>
+      <c r="AZ71" s="3"/>
+      <c r="BA71" s="3"/>
+      <c r="BB71" s="3"/>
       <c r="BC71" s="1"/>
       <c r="BD71" s="1"/>
       <c r="BE71" s="1"/>
-    </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+    </row>
+    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5529,18 +6676,25 @@
       <c r="AS72" s="3"/>
       <c r="AT72" s="3"/>
       <c r="AU72" s="3"/>
-      <c r="AV72" s="1"/>
-      <c r="AW72" s="1"/>
-      <c r="AX72" s="1"/>
-      <c r="AY72" s="1"/>
-      <c r="AZ72" s="1"/>
-      <c r="BA72" s="1"/>
-      <c r="BB72" s="1"/>
+      <c r="AV72" s="3"/>
+      <c r="AW72" s="3"/>
+      <c r="AX72" s="3"/>
+      <c r="AY72" s="3"/>
+      <c r="AZ72" s="3"/>
+      <c r="BA72" s="3"/>
+      <c r="BB72" s="3"/>
       <c r="BC72" s="1"/>
       <c r="BD72" s="1"/>
       <c r="BE72" s="1"/>
-    </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF72" s="1"/>
+      <c r="BG72" s="1"/>
+      <c r="BH72" s="1"/>
+      <c r="BI72" s="1"/>
+      <c r="BJ72" s="1"/>
+      <c r="BK72" s="1"/>
+      <c r="BL72" s="1"/>
+    </row>
+    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5588,18 +6742,25 @@
       <c r="AS73" s="3"/>
       <c r="AT73" s="3"/>
       <c r="AU73" s="3"/>
-      <c r="AV73" s="1"/>
-      <c r="AW73" s="1"/>
-      <c r="AX73" s="1"/>
-      <c r="AY73" s="1"/>
-      <c r="AZ73" s="1"/>
-      <c r="BA73" s="1"/>
-      <c r="BB73" s="1"/>
+      <c r="AV73" s="3"/>
+      <c r="AW73" s="3"/>
+      <c r="AX73" s="3"/>
+      <c r="AY73" s="3"/>
+      <c r="AZ73" s="3"/>
+      <c r="BA73" s="3"/>
+      <c r="BB73" s="3"/>
       <c r="BC73" s="1"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
-    </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF73" s="1"/>
+      <c r="BG73" s="1"/>
+      <c r="BH73" s="1"/>
+      <c r="BI73" s="1"/>
+      <c r="BJ73" s="1"/>
+      <c r="BK73" s="1"/>
+      <c r="BL73" s="1"/>
+    </row>
+    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5647,18 +6808,25 @@
       <c r="AS74" s="3"/>
       <c r="AT74" s="3"/>
       <c r="AU74" s="3"/>
-      <c r="AV74" s="1"/>
-      <c r="AW74" s="1"/>
-      <c r="AX74" s="1"/>
-      <c r="AY74" s="1"/>
-      <c r="AZ74" s="1"/>
-      <c r="BA74" s="1"/>
-      <c r="BB74" s="1"/>
+      <c r="AV74" s="3"/>
+      <c r="AW74" s="3"/>
+      <c r="AX74" s="3"/>
+      <c r="AY74" s="3"/>
+      <c r="AZ74" s="3"/>
+      <c r="BA74" s="3"/>
+      <c r="BB74" s="3"/>
       <c r="BC74" s="1"/>
       <c r="BD74" s="1"/>
       <c r="BE74" s="1"/>
-    </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF74" s="1"/>
+      <c r="BG74" s="1"/>
+      <c r="BH74" s="1"/>
+      <c r="BI74" s="1"/>
+      <c r="BJ74" s="1"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1"/>
+    </row>
+    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5706,18 +6874,25 @@
       <c r="AS75" s="3"/>
       <c r="AT75" s="3"/>
       <c r="AU75" s="3"/>
-      <c r="AV75" s="1"/>
-      <c r="AW75" s="1"/>
-      <c r="AX75" s="1"/>
-      <c r="AY75" s="1"/>
-      <c r="AZ75" s="1"/>
-      <c r="BA75" s="1"/>
-      <c r="BB75" s="1"/>
+      <c r="AV75" s="3"/>
+      <c r="AW75" s="3"/>
+      <c r="AX75" s="3"/>
+      <c r="AY75" s="3"/>
+      <c r="AZ75" s="3"/>
+      <c r="BA75" s="3"/>
+      <c r="BB75" s="3"/>
       <c r="BC75" s="1"/>
       <c r="BD75" s="1"/>
       <c r="BE75" s="1"/>
-    </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF75" s="1"/>
+      <c r="BG75" s="1"/>
+      <c r="BH75" s="1"/>
+      <c r="BI75" s="1"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
+    </row>
+    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5765,18 +6940,25 @@
       <c r="AS76" s="3"/>
       <c r="AT76" s="3"/>
       <c r="AU76" s="3"/>
-      <c r="AV76" s="1"/>
-      <c r="AW76" s="1"/>
-      <c r="AX76" s="1"/>
-      <c r="AY76" s="1"/>
-      <c r="AZ76" s="1"/>
-      <c r="BA76" s="1"/>
-      <c r="BB76" s="1"/>
+      <c r="AV76" s="3"/>
+      <c r="AW76" s="3"/>
+      <c r="AX76" s="3"/>
+      <c r="AY76" s="3"/>
+      <c r="AZ76" s="3"/>
+      <c r="BA76" s="3"/>
+      <c r="BB76" s="3"/>
       <c r="BC76" s="1"/>
       <c r="BD76" s="1"/>
       <c r="BE76" s="1"/>
-    </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF76" s="1"/>
+      <c r="BG76" s="1"/>
+      <c r="BH76" s="1"/>
+      <c r="BI76" s="1"/>
+      <c r="BJ76" s="1"/>
+      <c r="BK76" s="1"/>
+      <c r="BL76" s="1"/>
+    </row>
+    <row r="77" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5824,18 +7006,25 @@
       <c r="AS77" s="3"/>
       <c r="AT77" s="3"/>
       <c r="AU77" s="3"/>
-      <c r="AV77" s="1"/>
-      <c r="AW77" s="1"/>
-      <c r="AX77" s="1"/>
-      <c r="AY77" s="1"/>
-      <c r="AZ77" s="1"/>
-      <c r="BA77" s="1"/>
-      <c r="BB77" s="1"/>
+      <c r="AV77" s="3"/>
+      <c r="AW77" s="3"/>
+      <c r="AX77" s="3"/>
+      <c r="AY77" s="3"/>
+      <c r="AZ77" s="3"/>
+      <c r="BA77" s="3"/>
+      <c r="BB77" s="3"/>
       <c r="BC77" s="1"/>
       <c r="BD77" s="1"/>
       <c r="BE77" s="1"/>
-    </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF77" s="1"/>
+      <c r="BG77" s="1"/>
+      <c r="BH77" s="1"/>
+      <c r="BI77" s="1"/>
+      <c r="BJ77" s="1"/>
+      <c r="BK77" s="1"/>
+      <c r="BL77" s="1"/>
+    </row>
+    <row r="78" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5883,18 +7072,25 @@
       <c r="AS78" s="3"/>
       <c r="AT78" s="3"/>
       <c r="AU78" s="3"/>
-      <c r="AV78" s="1"/>
-      <c r="AW78" s="1"/>
-      <c r="AX78" s="1"/>
-      <c r="AY78" s="1"/>
-      <c r="AZ78" s="1"/>
-      <c r="BA78" s="1"/>
-      <c r="BB78" s="1"/>
+      <c r="AV78" s="3"/>
+      <c r="AW78" s="3"/>
+      <c r="AX78" s="3"/>
+      <c r="AY78" s="3"/>
+      <c r="AZ78" s="3"/>
+      <c r="BA78" s="3"/>
+      <c r="BB78" s="3"/>
       <c r="BC78" s="1"/>
       <c r="BD78" s="1"/>
       <c r="BE78" s="1"/>
-    </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF78" s="1"/>
+      <c r="BG78" s="1"/>
+      <c r="BH78" s="1"/>
+      <c r="BI78" s="1"/>
+      <c r="BJ78" s="1"/>
+      <c r="BK78" s="1"/>
+      <c r="BL78" s="1"/>
+    </row>
+    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5942,18 +7138,25 @@
       <c r="AS79" s="3"/>
       <c r="AT79" s="3"/>
       <c r="AU79" s="3"/>
-      <c r="AV79" s="1"/>
-      <c r="AW79" s="1"/>
-      <c r="AX79" s="1"/>
-      <c r="AY79" s="1"/>
-      <c r="AZ79" s="1"/>
-      <c r="BA79" s="1"/>
-      <c r="BB79" s="1"/>
+      <c r="AV79" s="3"/>
+      <c r="AW79" s="3"/>
+      <c r="AX79" s="3"/>
+      <c r="AY79" s="3"/>
+      <c r="AZ79" s="3"/>
+      <c r="BA79" s="3"/>
+      <c r="BB79" s="3"/>
       <c r="BC79" s="1"/>
       <c r="BD79" s="1"/>
       <c r="BE79" s="1"/>
-    </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF79" s="1"/>
+      <c r="BG79" s="1"/>
+      <c r="BH79" s="1"/>
+      <c r="BI79" s="1"/>
+      <c r="BJ79" s="1"/>
+      <c r="BK79" s="1"/>
+      <c r="BL79" s="1"/>
+    </row>
+    <row r="80" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6001,18 +7204,25 @@
       <c r="AS80" s="3"/>
       <c r="AT80" s="3"/>
       <c r="AU80" s="3"/>
-      <c r="AV80" s="1"/>
-      <c r="AW80" s="1"/>
-      <c r="AX80" s="1"/>
-      <c r="AY80" s="1"/>
-      <c r="AZ80" s="1"/>
-      <c r="BA80" s="1"/>
-      <c r="BB80" s="1"/>
+      <c r="AV80" s="3"/>
+      <c r="AW80" s="3"/>
+      <c r="AX80" s="3"/>
+      <c r="AY80" s="3"/>
+      <c r="AZ80" s="3"/>
+      <c r="BA80" s="3"/>
+      <c r="BB80" s="3"/>
       <c r="BC80" s="1"/>
       <c r="BD80" s="1"/>
       <c r="BE80" s="1"/>
-    </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="1"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="1"/>
+    </row>
+    <row r="81" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6060,18 +7270,25 @@
       <c r="AS81" s="3"/>
       <c r="AT81" s="3"/>
       <c r="AU81" s="3"/>
-      <c r="AV81" s="1"/>
-      <c r="AW81" s="1"/>
-      <c r="AX81" s="1"/>
-      <c r="AY81" s="1"/>
-      <c r="AZ81" s="1"/>
-      <c r="BA81" s="1"/>
-      <c r="BB81" s="1"/>
+      <c r="AV81" s="3"/>
+      <c r="AW81" s="3"/>
+      <c r="AX81" s="3"/>
+      <c r="AY81" s="3"/>
+      <c r="AZ81" s="3"/>
+      <c r="BA81" s="3"/>
+      <c r="BB81" s="3"/>
       <c r="BC81" s="1"/>
       <c r="BD81" s="1"/>
       <c r="BE81" s="1"/>
-    </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF81" s="1"/>
+      <c r="BG81" s="1"/>
+      <c r="BH81" s="1"/>
+      <c r="BI81" s="1"/>
+      <c r="BJ81" s="1"/>
+      <c r="BK81" s="1"/>
+      <c r="BL81" s="1"/>
+    </row>
+    <row r="82" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6119,18 +7336,25 @@
       <c r="AS82" s="3"/>
       <c r="AT82" s="3"/>
       <c r="AU82" s="3"/>
-      <c r="AV82" s="1"/>
-      <c r="AW82" s="1"/>
-      <c r="AX82" s="1"/>
-      <c r="AY82" s="1"/>
-      <c r="AZ82" s="1"/>
-      <c r="BA82" s="1"/>
-      <c r="BB82" s="1"/>
+      <c r="AV82" s="3"/>
+      <c r="AW82" s="3"/>
+      <c r="AX82" s="3"/>
+      <c r="AY82" s="3"/>
+      <c r="AZ82" s="3"/>
+      <c r="BA82" s="3"/>
+      <c r="BB82" s="3"/>
       <c r="BC82" s="1"/>
       <c r="BD82" s="1"/>
       <c r="BE82" s="1"/>
-    </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="1"/>
+      <c r="BI82" s="1"/>
+      <c r="BJ82" s="1"/>
+      <c r="BK82" s="1"/>
+      <c r="BL82" s="1"/>
+    </row>
+    <row r="83" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6178,18 +7402,25 @@
       <c r="AS83" s="3"/>
       <c r="AT83" s="3"/>
       <c r="AU83" s="3"/>
-      <c r="AV83" s="1"/>
-      <c r="AW83" s="1"/>
-      <c r="AX83" s="1"/>
-      <c r="AY83" s="1"/>
-      <c r="AZ83" s="1"/>
-      <c r="BA83" s="1"/>
-      <c r="BB83" s="1"/>
+      <c r="AV83" s="3"/>
+      <c r="AW83" s="3"/>
+      <c r="AX83" s="3"/>
+      <c r="AY83" s="3"/>
+      <c r="AZ83" s="3"/>
+      <c r="BA83" s="3"/>
+      <c r="BB83" s="3"/>
       <c r="BC83" s="1"/>
       <c r="BD83" s="1"/>
       <c r="BE83" s="1"/>
-    </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="1"/>
+      <c r="BL83" s="1"/>
+    </row>
+    <row r="84" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -6237,18 +7468,25 @@
       <c r="AS84" s="3"/>
       <c r="AT84" s="3"/>
       <c r="AU84" s="3"/>
-      <c r="AV84" s="1"/>
-      <c r="AW84" s="1"/>
-      <c r="AX84" s="1"/>
-      <c r="AY84" s="1"/>
-      <c r="AZ84" s="1"/>
-      <c r="BA84" s="1"/>
-      <c r="BB84" s="1"/>
+      <c r="AV84" s="3"/>
+      <c r="AW84" s="3"/>
+      <c r="AX84" s="3"/>
+      <c r="AY84" s="3"/>
+      <c r="AZ84" s="3"/>
+      <c r="BA84" s="3"/>
+      <c r="BB84" s="3"/>
       <c r="BC84" s="1"/>
       <c r="BD84" s="1"/>
       <c r="BE84" s="1"/>
-    </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF84" s="1"/>
+      <c r="BG84" s="1"/>
+      <c r="BH84" s="1"/>
+      <c r="BI84" s="1"/>
+      <c r="BJ84" s="1"/>
+      <c r="BK84" s="1"/>
+      <c r="BL84" s="1"/>
+    </row>
+    <row r="85" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6296,18 +7534,25 @@
       <c r="AS85" s="3"/>
       <c r="AT85" s="3"/>
       <c r="AU85" s="3"/>
-      <c r="AV85" s="1"/>
-      <c r="AW85" s="1"/>
-      <c r="AX85" s="1"/>
-      <c r="AY85" s="1"/>
-      <c r="AZ85" s="1"/>
-      <c r="BA85" s="1"/>
-      <c r="BB85" s="1"/>
+      <c r="AV85" s="3"/>
+      <c r="AW85" s="3"/>
+      <c r="AX85" s="3"/>
+      <c r="AY85" s="3"/>
+      <c r="AZ85" s="3"/>
+      <c r="BA85" s="3"/>
+      <c r="BB85" s="3"/>
       <c r="BC85" s="1"/>
       <c r="BD85" s="1"/>
       <c r="BE85" s="1"/>
-    </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1"/>
+      <c r="BL85" s="1"/>
+    </row>
+    <row r="86" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -6355,18 +7600,25 @@
       <c r="AS86" s="3"/>
       <c r="AT86" s="3"/>
       <c r="AU86" s="3"/>
-      <c r="AV86" s="1"/>
-      <c r="AW86" s="1"/>
-      <c r="AX86" s="1"/>
-      <c r="AY86" s="1"/>
-      <c r="AZ86" s="1"/>
-      <c r="BA86" s="1"/>
-      <c r="BB86" s="1"/>
+      <c r="AV86" s="3"/>
+      <c r="AW86" s="3"/>
+      <c r="AX86" s="3"/>
+      <c r="AY86" s="3"/>
+      <c r="AZ86" s="3"/>
+      <c r="BA86" s="3"/>
+      <c r="BB86" s="3"/>
       <c r="BC86" s="1"/>
       <c r="BD86" s="1"/>
       <c r="BE86" s="1"/>
-    </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="1"/>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1"/>
+      <c r="BL86" s="1"/>
+    </row>
+    <row r="87" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6414,18 +7666,25 @@
       <c r="AS87" s="3"/>
       <c r="AT87" s="3"/>
       <c r="AU87" s="3"/>
-      <c r="AV87" s="1"/>
-      <c r="AW87" s="1"/>
-      <c r="AX87" s="1"/>
-      <c r="AY87" s="1"/>
-      <c r="AZ87" s="1"/>
-      <c r="BA87" s="1"/>
-      <c r="BB87" s="1"/>
+      <c r="AV87" s="3"/>
+      <c r="AW87" s="3"/>
+      <c r="AX87" s="3"/>
+      <c r="AY87" s="3"/>
+      <c r="AZ87" s="3"/>
+      <c r="BA87" s="3"/>
+      <c r="BB87" s="3"/>
       <c r="BC87" s="1"/>
       <c r="BD87" s="1"/>
       <c r="BE87" s="1"/>
-    </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="1"/>
+      <c r="BH87" s="1"/>
+      <c r="BI87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+      <c r="BL87" s="1"/>
+    </row>
+    <row r="88" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6473,18 +7732,25 @@
       <c r="AS88" s="3"/>
       <c r="AT88" s="3"/>
       <c r="AU88" s="3"/>
-      <c r="AV88" s="1"/>
-      <c r="AW88" s="1"/>
-      <c r="AX88" s="1"/>
-      <c r="AY88" s="1"/>
-      <c r="AZ88" s="1"/>
-      <c r="BA88" s="1"/>
-      <c r="BB88" s="1"/>
+      <c r="AV88" s="3"/>
+      <c r="AW88" s="3"/>
+      <c r="AX88" s="3"/>
+      <c r="AY88" s="3"/>
+      <c r="AZ88" s="3"/>
+      <c r="BA88" s="3"/>
+      <c r="BB88" s="3"/>
       <c r="BC88" s="1"/>
       <c r="BD88" s="1"/>
       <c r="BE88" s="1"/>
-    </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF88" s="1"/>
+      <c r="BG88" s="1"/>
+      <c r="BH88" s="1"/>
+      <c r="BI88" s="1"/>
+      <c r="BJ88" s="1"/>
+      <c r="BK88" s="1"/>
+      <c r="BL88" s="1"/>
+    </row>
+    <row r="89" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6532,18 +7798,25 @@
       <c r="AS89" s="3"/>
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
-      <c r="AV89" s="1"/>
-      <c r="AW89" s="1"/>
-      <c r="AX89" s="1"/>
-      <c r="AY89" s="1"/>
-      <c r="AZ89" s="1"/>
-      <c r="BA89" s="1"/>
-      <c r="BB89" s="1"/>
+      <c r="AV89" s="3"/>
+      <c r="AW89" s="3"/>
+      <c r="AX89" s="3"/>
+      <c r="AY89" s="3"/>
+      <c r="AZ89" s="3"/>
+      <c r="BA89" s="3"/>
+      <c r="BB89" s="3"/>
       <c r="BC89" s="1"/>
       <c r="BD89" s="1"/>
       <c r="BE89" s="1"/>
-    </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF89" s="1"/>
+      <c r="BG89" s="1"/>
+      <c r="BH89" s="1"/>
+      <c r="BI89" s="1"/>
+      <c r="BJ89" s="1"/>
+      <c r="BK89" s="1"/>
+      <c r="BL89" s="1"/>
+    </row>
+    <row r="90" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6591,18 +7864,25 @@
       <c r="AS90" s="3"/>
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
-      <c r="AV90" s="1"/>
-      <c r="AW90" s="1"/>
-      <c r="AX90" s="1"/>
-      <c r="AY90" s="1"/>
-      <c r="AZ90" s="1"/>
-      <c r="BA90" s="1"/>
-      <c r="BB90" s="1"/>
+      <c r="AV90" s="3"/>
+      <c r="AW90" s="3"/>
+      <c r="AX90" s="3"/>
+      <c r="AY90" s="3"/>
+      <c r="AZ90" s="3"/>
+      <c r="BA90" s="3"/>
+      <c r="BB90" s="3"/>
       <c r="BC90" s="1"/>
       <c r="BD90" s="1"/>
       <c r="BE90" s="1"/>
-    </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+      <c r="BL90" s="1"/>
+    </row>
+    <row r="91" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6650,18 +7930,25 @@
       <c r="AS91" s="3"/>
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
-      <c r="AV91" s="1"/>
-      <c r="AW91" s="1"/>
-      <c r="AX91" s="1"/>
-      <c r="AY91" s="1"/>
-      <c r="AZ91" s="1"/>
-      <c r="BA91" s="1"/>
-      <c r="BB91" s="1"/>
+      <c r="AV91" s="3"/>
+      <c r="AW91" s="3"/>
+      <c r="AX91" s="3"/>
+      <c r="AY91" s="3"/>
+      <c r="AZ91" s="3"/>
+      <c r="BA91" s="3"/>
+      <c r="BB91" s="3"/>
       <c r="BC91" s="1"/>
       <c r="BD91" s="1"/>
       <c r="BE91" s="1"/>
-    </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF91" s="1"/>
+      <c r="BG91" s="1"/>
+      <c r="BH91" s="1"/>
+      <c r="BI91" s="1"/>
+      <c r="BJ91" s="1"/>
+      <c r="BK91" s="1"/>
+      <c r="BL91" s="1"/>
+    </row>
+    <row r="92" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6709,18 +7996,25 @@
       <c r="AS92" s="3"/>
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
-      <c r="AV92" s="1"/>
-      <c r="AW92" s="1"/>
-      <c r="AX92" s="1"/>
-      <c r="AY92" s="1"/>
-      <c r="AZ92" s="1"/>
-      <c r="BA92" s="1"/>
-      <c r="BB92" s="1"/>
+      <c r="AV92" s="3"/>
+      <c r="AW92" s="3"/>
+      <c r="AX92" s="3"/>
+      <c r="AY92" s="3"/>
+      <c r="AZ92" s="3"/>
+      <c r="BA92" s="3"/>
+      <c r="BB92" s="3"/>
       <c r="BC92" s="1"/>
       <c r="BD92" s="1"/>
       <c r="BE92" s="1"/>
-    </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF92" s="1"/>
+      <c r="BG92" s="1"/>
+      <c r="BH92" s="1"/>
+      <c r="BI92" s="1"/>
+      <c r="BJ92" s="1"/>
+      <c r="BK92" s="1"/>
+      <c r="BL92" s="1"/>
+    </row>
+    <row r="93" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6768,18 +8062,25 @@
       <c r="AS93" s="3"/>
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
-      <c r="AV93" s="1"/>
-      <c r="AW93" s="1"/>
-      <c r="AX93" s="1"/>
-      <c r="AY93" s="1"/>
-      <c r="AZ93" s="1"/>
-      <c r="BA93" s="1"/>
-      <c r="BB93" s="1"/>
+      <c r="AV93" s="3"/>
+      <c r="AW93" s="3"/>
+      <c r="AX93" s="3"/>
+      <c r="AY93" s="3"/>
+      <c r="AZ93" s="3"/>
+      <c r="BA93" s="3"/>
+      <c r="BB93" s="3"/>
       <c r="BC93" s="1"/>
       <c r="BD93" s="1"/>
       <c r="BE93" s="1"/>
-    </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="1"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+    </row>
+    <row r="94" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6827,18 +8128,25 @@
       <c r="AS94" s="3"/>
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
-      <c r="AV94" s="1"/>
-      <c r="AW94" s="1"/>
-      <c r="AX94" s="1"/>
-      <c r="AY94" s="1"/>
-      <c r="AZ94" s="1"/>
-      <c r="BA94" s="1"/>
-      <c r="BB94" s="1"/>
+      <c r="AV94" s="3"/>
+      <c r="AW94" s="3"/>
+      <c r="AX94" s="3"/>
+      <c r="AY94" s="3"/>
+      <c r="AZ94" s="3"/>
+      <c r="BA94" s="3"/>
+      <c r="BB94" s="3"/>
       <c r="BC94" s="1"/>
       <c r="BD94" s="1"/>
       <c r="BE94" s="1"/>
-    </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="1"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+    </row>
+    <row r="95" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6886,18 +8194,25 @@
       <c r="AS95" s="3"/>
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
-      <c r="AV95" s="1"/>
-      <c r="AW95" s="1"/>
-      <c r="AX95" s="1"/>
-      <c r="AY95" s="1"/>
-      <c r="AZ95" s="1"/>
-      <c r="BA95" s="1"/>
-      <c r="BB95" s="1"/>
+      <c r="AV95" s="3"/>
+      <c r="AW95" s="3"/>
+      <c r="AX95" s="3"/>
+      <c r="AY95" s="3"/>
+      <c r="AZ95" s="3"/>
+      <c r="BA95" s="3"/>
+      <c r="BB95" s="3"/>
       <c r="BC95" s="1"/>
       <c r="BD95" s="1"/>
       <c r="BE95" s="1"/>
-    </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BF95" s="1"/>
+      <c r="BG95" s="1"/>
+      <c r="BH95" s="1"/>
+      <c r="BI95" s="1"/>
+      <c r="BJ95" s="1"/>
+      <c r="BK95" s="1"/>
+      <c r="BL95" s="1"/>
+    </row>
+    <row r="96" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6945,8 +8260,15 @@
       <c r="AS96" s="2"/>
       <c r="AT96" s="2"/>
       <c r="AU96" s="2"/>
-    </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV96" s="2"/>
+      <c r="AW96" s="2"/>
+      <c r="AX96" s="2"/>
+      <c r="AY96" s="2"/>
+      <c r="AZ96" s="2"/>
+      <c r="BA96" s="2"/>
+      <c r="BB96" s="2"/>
+    </row>
+    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6994,8 +8316,15 @@
       <c r="AS97" s="2"/>
       <c r="AT97" s="2"/>
       <c r="AU97" s="2"/>
-    </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV97" s="2"/>
+      <c r="AW97" s="2"/>
+      <c r="AX97" s="2"/>
+      <c r="AY97" s="2"/>
+      <c r="AZ97" s="2"/>
+      <c r="BA97" s="2"/>
+      <c r="BB97" s="2"/>
+    </row>
+    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7043,8 +8372,15 @@
       <c r="AS98" s="2"/>
       <c r="AT98" s="2"/>
       <c r="AU98" s="2"/>
-    </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV98" s="2"/>
+      <c r="AW98" s="2"/>
+      <c r="AX98" s="2"/>
+      <c r="AY98" s="2"/>
+      <c r="AZ98" s="2"/>
+      <c r="BA98" s="2"/>
+      <c r="BB98" s="2"/>
+    </row>
+    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7092,8 +8428,15 @@
       <c r="AS99" s="2"/>
       <c r="AT99" s="2"/>
       <c r="AU99" s="2"/>
-    </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV99" s="2"/>
+      <c r="AW99" s="2"/>
+      <c r="AX99" s="2"/>
+      <c r="AY99" s="2"/>
+      <c r="AZ99" s="2"/>
+      <c r="BA99" s="2"/>
+      <c r="BB99" s="2"/>
+    </row>
+    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7141,8 +8484,15 @@
       <c r="AS100" s="2"/>
       <c r="AT100" s="2"/>
       <c r="AU100" s="2"/>
-    </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV100" s="2"/>
+      <c r="AW100" s="2"/>
+      <c r="AX100" s="2"/>
+      <c r="AY100" s="2"/>
+      <c r="AZ100" s="2"/>
+      <c r="BA100" s="2"/>
+      <c r="BB100" s="2"/>
+    </row>
+    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7190,8 +8540,15 @@
       <c r="AS101" s="2"/>
       <c r="AT101" s="2"/>
       <c r="AU101" s="2"/>
-    </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV101" s="2"/>
+      <c r="AW101" s="2"/>
+      <c r="AX101" s="2"/>
+      <c r="AY101" s="2"/>
+      <c r="AZ101" s="2"/>
+      <c r="BA101" s="2"/>
+      <c r="BB101" s="2"/>
+    </row>
+    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7239,8 +8596,15 @@
       <c r="AS102" s="2"/>
       <c r="AT102" s="2"/>
       <c r="AU102" s="2"/>
-    </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV102" s="2"/>
+      <c r="AW102" s="2"/>
+      <c r="AX102" s="2"/>
+      <c r="AY102" s="2"/>
+      <c r="AZ102" s="2"/>
+      <c r="BA102" s="2"/>
+      <c r="BB102" s="2"/>
+    </row>
+    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7288,8 +8652,15 @@
       <c r="AS103" s="2"/>
       <c r="AT103" s="2"/>
       <c r="AU103" s="2"/>
-    </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV103" s="2"/>
+      <c r="AW103" s="2"/>
+      <c r="AX103" s="2"/>
+      <c r="AY103" s="2"/>
+      <c r="AZ103" s="2"/>
+      <c r="BA103" s="2"/>
+      <c r="BB103" s="2"/>
+    </row>
+    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7337,8 +8708,15 @@
       <c r="AS104" s="2"/>
       <c r="AT104" s="2"/>
       <c r="AU104" s="2"/>
-    </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV104" s="2"/>
+      <c r="AW104" s="2"/>
+      <c r="AX104" s="2"/>
+      <c r="AY104" s="2"/>
+      <c r="AZ104" s="2"/>
+      <c r="BA104" s="2"/>
+      <c r="BB104" s="2"/>
+    </row>
+    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -7386,8 +8764,15 @@
       <c r="AS105" s="2"/>
       <c r="AT105" s="2"/>
       <c r="AU105" s="2"/>
-    </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV105" s="2"/>
+      <c r="AW105" s="2"/>
+      <c r="AX105" s="2"/>
+      <c r="AY105" s="2"/>
+      <c r="AZ105" s="2"/>
+      <c r="BA105" s="2"/>
+      <c r="BB105" s="2"/>
+    </row>
+    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -7435,18 +8820,16 @@
       <c r="AS106" s="2"/>
       <c r="AT106" s="2"/>
       <c r="AU106" s="2"/>
+      <c r="AV106" s="2"/>
+      <c r="AW106" s="2"/>
+      <c r="AX106" s="2"/>
+      <c r="AY106" s="2"/>
+      <c r="AZ106" s="2"/>
+      <c r="BA106" s="2"/>
+      <c r="BB106" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="N1:AQ1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:AA2"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="AB2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AP2"/>
+  <mergeCells count="20">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B2:C2"/>
@@ -7455,8 +8838,21 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Y2"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="Z2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="N1:AP1"/>
+    <mergeCell ref="AQ1:AX1"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AO2:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/result_report.xlsx
+++ b/result_report.xlsx
@@ -263,8 +263,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -752,31 +752,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,7 +784,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -892,67 +888,16 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,19 +921,67 @@
     <xf numFmtId="11" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1296,96 +1289,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL106"/>
+  <dimension ref="A1:BM106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AT14" sqref="AT14"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="43" max="43" width="10.85546875" customWidth="1"/>
-    <col min="44" max="44" width="14" customWidth="1"/>
-    <col min="45" max="45" width="10.5703125" customWidth="1"/>
-    <col min="46" max="46" width="12" customWidth="1"/>
-    <col min="47" max="47" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.28515625" customWidth="1"/>
-    <col min="49" max="49" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.5703125" customWidth="1"/>
-    <col min="51" max="51" width="63.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="39" max="39" width="13" customWidth="1"/>
+    <col min="44" max="44" width="10.85546875" customWidth="1"/>
+    <col min="45" max="45" width="14" customWidth="1"/>
+    <col min="46" max="46" width="10.5703125" customWidth="1"/>
+    <col min="47" max="47" width="12" customWidth="1"/>
+    <col min="48" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.28515625" customWidth="1"/>
+    <col min="50" max="50" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.5703125" customWidth="1"/>
+    <col min="52" max="52" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:65" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="47" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="67" t="s">
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="40" t="s">
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="3"/>
       <c r="BA1" s="3"/>
       <c r="BB1" s="3"/>
-      <c r="BC1" s="1"/>
+      <c r="BC1" s="3"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
@@ -1395,91 +1388,92 @@
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
-    </row>
-    <row r="2" spans="1:64" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="38" t="s">
+      <c r="BM1" s="1"/>
+    </row>
+    <row r="2" spans="1:65" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="41" t="s">
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="41" t="s">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="44" t="s">
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="AM2" s="54" t="s">
+      <c r="AN2" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="35" t="s">
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="AP2" s="49" t="s">
+      <c r="AQ2" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AQ2" s="41" t="s">
+      <c r="AR2" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="41" t="s">
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="3"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="56"/>
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
-      <c r="BC2" s="1"/>
+      <c r="BC2" s="3"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
@@ -1489,9 +1483,10 @@
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
-    </row>
-    <row r="3" spans="1:64" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="BM2" s="1"/>
+    </row>
+    <row r="3" spans="1:65" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
       <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
@@ -1504,140 +1499,140 @@
       <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="X3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="Y3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Z3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="AA3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AB3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AC3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AD3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AE3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AF3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AG3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AG3" s="15" t="s">
+      <c r="AH3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="24" t="s">
+      <c r="AI3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AJ3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AJ3" s="15" t="s">
+      <c r="AK3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="AL3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="15" t="s">
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AN3" s="15" t="s">
+      <c r="AO3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="48" t="s">
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="AR3" s="48" t="s">
+      <c r="AS3" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AS3" s="48" t="s">
+      <c r="AT3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="AT3" s="48" t="s">
+      <c r="AU3" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="AU3" s="48" t="s">
+      <c r="AV3" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="AV3" s="48" t="s">
+      <c r="AW3" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="AW3" s="48" t="s">
+      <c r="AX3" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="AX3" s="51" t="s">
+      <c r="AY3" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="3"/>
+      <c r="AZ3" s="56"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
-      <c r="BC3" s="1"/>
+      <c r="BC3" s="3"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
@@ -1647,8 +1642,9 @@
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1"/>
       <c r="BL3" s="1"/>
-    </row>
-    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BM3" s="1"/>
+    </row>
+    <row r="4" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -1664,156 +1660,158 @@
       <c r="E4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="52">
-        <v>106.36</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="32">
+        <v>80.522000000000006</v>
+      </c>
+      <c r="G4" s="32">
+        <v>106.298</v>
+      </c>
+      <c r="H4" s="8">
         <v>80</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>9904</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>16889</v>
       </c>
-      <c r="J4" s="53">
+      <c r="K4" s="38">
         <v>2.4670000000000001</v>
       </c>
-      <c r="K4" s="53">
+      <c r="L4" s="38">
         <v>0.72099999999999997</v>
       </c>
-      <c r="L4" s="53">
+      <c r="M4" s="38">
         <v>3.1880000000000002</v>
       </c>
-      <c r="M4" s="63">
-        <f>L4/F4</f>
-        <v>2.9973674313651749E-2</v>
-      </c>
-      <c r="N4" s="29">
+      <c r="N4" s="46">
+        <f>M4/F4</f>
+        <v>3.9591664389856188E-2</v>
+      </c>
+      <c r="O4" s="29">
         <v>100</v>
       </c>
-      <c r="O4" s="29">
+      <c r="P4" s="29">
         <v>117</v>
       </c>
-      <c r="P4" s="29">
+      <c r="Q4" s="29">
         <v>67</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="R4" s="29">
         <v>100</v>
       </c>
-      <c r="R4" s="29">
+      <c r="S4" s="29">
         <v>816</v>
       </c>
-      <c r="S4" s="29">
+      <c r="T4" s="29">
         <v>717</v>
       </c>
-      <c r="T4" s="29">
+      <c r="U4" s="29">
         <v>83</v>
       </c>
-      <c r="U4" s="29">
+      <c r="V4" s="29">
         <v>150</v>
       </c>
-      <c r="V4" s="29">
+      <c r="W4" s="29">
         <v>417</v>
       </c>
-      <c r="W4" s="29">
+      <c r="X4" s="29">
         <v>1150</v>
       </c>
-      <c r="X4" s="29">
+      <c r="Y4" s="29">
         <v>253</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Z4" s="29">
         <v>1001</v>
       </c>
-      <c r="Z4" s="32" t="s">
+      <c r="AA4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AA4" s="32" t="s">
+      <c r="AB4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="32" t="s">
+      <c r="AC4" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="32" t="s">
+      <c r="AD4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AD4" s="32" t="s">
+      <c r="AE4" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AE4" s="32" t="s">
+      <c r="AF4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AF4" s="32">
+      <c r="AG4" s="32">
         <v>1.6579999999999999</v>
       </c>
-      <c r="AG4" s="32">
+      <c r="AH4" s="32">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AH4" s="33">
+      <c r="AI4" s="33">
         <v>2.3849999999999998</v>
       </c>
-      <c r="AI4" s="25">
+      <c r="AJ4" s="25">
         <v>801</v>
       </c>
-      <c r="AJ4" s="29">
+      <c r="AK4" s="29">
         <v>16286</v>
       </c>
-      <c r="AK4" s="29">
+      <c r="AL4" s="29">
         <v>5257</v>
       </c>
-      <c r="AL4" s="25">
+      <c r="AM4" s="25">
         <v>7.86</v>
       </c>
-      <c r="AM4" s="25">
+      <c r="AN4" s="25">
         <v>20.5</v>
       </c>
-      <c r="AN4" s="25">
+      <c r="AO4" s="25">
         <v>20.57</v>
       </c>
-      <c r="AO4" s="25">
+      <c r="AP4" s="25">
         <v>9.84</v>
       </c>
-      <c r="AP4" s="25">
+      <c r="AQ4" s="25">
         <f>3*60+29.32</f>
         <v>209.32</v>
       </c>
-      <c r="AQ4" s="56">
-        <f>H4+I4</f>
+      <c r="AR4" s="39">
+        <f t="shared" ref="AR4:AR12" si="0">I4+J4</f>
         <v>26793</v>
       </c>
-      <c r="AR4" s="57">
+      <c r="AS4" s="40">
         <f>1/F4</f>
-        <v>9.4020308386611514E-3</v>
-      </c>
-      <c r="AS4" s="57">
-        <f>L4</f>
+        <v>1.2418966245249744E-2</v>
+      </c>
+      <c r="AT4" s="40">
+        <f t="shared" ref="AT4:AT12" si="1">M4</f>
         <v>3.1880000000000002</v>
       </c>
-      <c r="AT4" s="57">
-        <f>AP4</f>
+      <c r="AU4" s="40">
+        <f>AQ4</f>
         <v>209.32</v>
       </c>
-      <c r="AU4" s="58">
-        <f>AQ4*AR4</f>
-        <v>251.90861226024822</v>
-      </c>
-      <c r="AV4" s="57">
-        <f>AQ4*AT4</f>
+      <c r="AV4" s="41">
+        <f>AR4*AS4</f>
+        <v>332.74136260897637</v>
+      </c>
+      <c r="AW4" s="40">
+        <f>AR4*AU4</f>
         <v>5608310.7599999998</v>
       </c>
-      <c r="AW4" s="57">
-        <f>AS4*AR4</f>
-        <v>2.9973674313651753E-2</v>
-      </c>
-      <c r="AX4" s="59">
-        <f>AS4*AT4</f>
+      <c r="AX4" s="40">
+        <f>AT4*AS4</f>
+        <v>3.9591664389856188E-2</v>
+      </c>
+      <c r="AY4" s="42">
+        <f>AT4*AU4</f>
         <v>667.31216000000006</v>
       </c>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="3"/>
+      <c r="AZ4" s="20"/>
       <c r="BA4" s="3"/>
       <c r="BB4" s="3"/>
-      <c r="BC4" s="1"/>
+      <c r="BC4" s="3"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
@@ -1823,8 +1821,9 @@
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM4" s="1"/>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
@@ -1840,156 +1839,158 @@
       <c r="E5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="34">
+        <v>80.379000000000005</v>
+      </c>
+      <c r="G5" s="34">
         <v>106.39</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>80</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <v>10481</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <v>17915</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>2.468</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>0.74299999999999999</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>3.2109999999999999</v>
       </c>
-      <c r="M5" s="64">
-        <f t="shared" ref="M5:M12" si="0">L5/F5</f>
-        <v>3.0181408027070211E-2</v>
-      </c>
-      <c r="N5" s="30">
+      <c r="N5" s="46">
+        <f t="shared" ref="N5:N12" si="2">M5/F5</f>
+        <v>3.9948245188419856E-2</v>
+      </c>
+      <c r="O5" s="30">
         <v>100</v>
       </c>
-      <c r="O5" s="30">
+      <c r="P5" s="30">
         <v>117</v>
       </c>
-      <c r="P5" s="30">
+      <c r="Q5" s="30">
         <v>67</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="R5" s="30">
         <v>100</v>
       </c>
-      <c r="R5" s="30">
+      <c r="S5" s="30">
         <v>816</v>
       </c>
-      <c r="S5" s="30">
+      <c r="T5" s="30">
         <v>717</v>
       </c>
-      <c r="T5" s="30">
+      <c r="U5" s="30">
         <v>83</v>
       </c>
-      <c r="U5" s="30">
+      <c r="V5" s="30">
         <v>150</v>
       </c>
-      <c r="V5" s="30">
+      <c r="W5" s="30">
         <v>417</v>
       </c>
-      <c r="W5" s="30">
+      <c r="X5" s="30">
         <v>1150</v>
       </c>
-      <c r="X5" s="30">
+      <c r="Y5" s="30">
         <v>253</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Z5" s="30">
         <v>1001</v>
       </c>
-      <c r="Z5" s="34">
+      <c r="AA5" s="34">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AA5" s="34">
+      <c r="AB5" s="34">
         <v>0.29099999999999998</v>
       </c>
-      <c r="AB5" s="34">
+      <c r="AC5" s="34">
         <v>0.27400000000000002</v>
       </c>
-      <c r="AC5" s="34">
+      <c r="AD5" s="34">
         <v>0.246</v>
       </c>
-      <c r="AD5" s="34">
+      <c r="AE5" s="34">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AE5" s="34">
+      <c r="AF5" s="34">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AF5" s="34">
+      <c r="AG5" s="34">
         <v>1.68</v>
       </c>
-      <c r="AG5" s="34">
+      <c r="AH5" s="34">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AH5" s="34">
+      <c r="AI5" s="34">
         <v>2.3849999999999998</v>
       </c>
-      <c r="AI5" s="27">
+      <c r="AJ5" s="27">
         <v>800</v>
       </c>
-      <c r="AJ5" s="30">
+      <c r="AK5" s="30">
         <v>16292</v>
       </c>
-      <c r="AK5" s="30">
+      <c r="AL5" s="30">
         <v>5258</v>
       </c>
-      <c r="AL5" s="27">
+      <c r="AM5" s="27">
         <v>7.86</v>
       </c>
-      <c r="AM5" s="27">
+      <c r="AN5" s="27">
         <v>20.66</v>
       </c>
-      <c r="AN5" s="27">
+      <c r="AO5" s="27">
         <v>20.52</v>
       </c>
-      <c r="AO5" s="27">
+      <c r="AP5" s="27">
         <v>9.75</v>
       </c>
-      <c r="AP5" s="27">
+      <c r="AQ5" s="27">
         <f>3*60+28.7</f>
         <v>208.7</v>
       </c>
-      <c r="AQ5" s="56">
-        <f>H5+I5</f>
+      <c r="AR5" s="39">
+        <f t="shared" si="0"/>
         <v>28396</v>
       </c>
-      <c r="AR5" s="57">
-        <f>1/F5</f>
-        <v>9.3993796409436985E-3</v>
-      </c>
-      <c r="AS5" s="57">
-        <f>L5</f>
+      <c r="AS5" s="40">
+        <f t="shared" ref="AS5:AS12" si="3">1/F5</f>
+        <v>1.2441060475994973E-2</v>
+      </c>
+      <c r="AT5" s="40">
+        <f t="shared" si="1"/>
         <v>3.2109999999999999</v>
       </c>
-      <c r="AT5" s="57">
-        <f t="shared" ref="AT5:AT12" si="1">AP5</f>
+      <c r="AU5" s="40">
+        <f t="shared" ref="AU5:AU12" si="4">AQ5</f>
         <v>208.7</v>
       </c>
-      <c r="AU5" s="56">
-        <f t="shared" ref="AU5:AU12" si="2">AQ5*AR5</f>
-        <v>266.90478428423728</v>
-      </c>
-      <c r="AV5" s="57">
-        <f t="shared" ref="AV5:AV12" si="3">AQ5*AT5</f>
+      <c r="AV5" s="39">
+        <f t="shared" ref="AV5:AV12" si="5">AR5*AS5</f>
+        <v>353.27635327635323</v>
+      </c>
+      <c r="AW5" s="40">
+        <f t="shared" ref="AW5:AW12" si="6">AR5*AU5</f>
         <v>5926245.1999999993</v>
       </c>
-      <c r="AW5" s="57">
-        <f t="shared" ref="AW5:AW12" si="4">AS5*AR5</f>
-        <v>3.0181408027070214E-2</v>
-      </c>
-      <c r="AX5" s="59">
-        <f t="shared" ref="AX5:AX12" si="5">AS5*AT5</f>
+      <c r="AX5" s="40">
+        <f t="shared" ref="AX5:AX12" si="7">AT5*AS5</f>
+        <v>3.9948245188419856E-2</v>
+      </c>
+      <c r="AY5" s="42">
+        <f t="shared" ref="AY5:AY12" si="8">AT5*AU5</f>
         <v>670.13569999999993</v>
       </c>
-      <c r="AY5" s="21"/>
-      <c r="AZ5" s="3"/>
+      <c r="AZ5" s="21"/>
       <c r="BA5" s="3"/>
       <c r="BB5" s="3"/>
-      <c r="BC5" s="1"/>
+      <c r="BC5" s="3"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
@@ -1999,8 +2000,9 @@
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM5" s="1"/>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
@@ -2016,156 +2018,158 @@
       <c r="E6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="33">
+        <v>80.483000000000004</v>
+      </c>
+      <c r="G6" s="33">
         <v>106.32899999999999</v>
       </c>
-      <c r="G6" s="12">
+      <c r="H6" s="12">
         <v>80</v>
       </c>
-      <c r="H6" s="12">
+      <c r="I6" s="12">
         <v>10468</v>
       </c>
-      <c r="I6" s="12">
+      <c r="J6" s="12">
         <v>17894</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <v>2.4689999999999999</v>
       </c>
-      <c r="K6" s="12">
+      <c r="L6" s="12">
         <v>0.75800000000000001</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <v>3.2269999999999999</v>
       </c>
-      <c r="M6" s="64">
-        <f t="shared" si="0"/>
-        <v>3.0349199183665791E-2</v>
-      </c>
-      <c r="N6" s="31">
+      <c r="N6" s="46">
+        <f t="shared" si="2"/>
+        <v>4.0095423878334549E-2</v>
+      </c>
+      <c r="O6" s="31">
         <v>100</v>
       </c>
-      <c r="O6" s="31">
+      <c r="P6" s="31">
         <v>117</v>
       </c>
-      <c r="P6" s="31">
+      <c r="Q6" s="31">
         <v>67</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="R6" s="31">
         <v>100</v>
       </c>
-      <c r="R6" s="31">
+      <c r="S6" s="31">
         <v>816</v>
       </c>
-      <c r="S6" s="31">
+      <c r="T6" s="31">
         <v>717</v>
       </c>
-      <c r="T6" s="31">
+      <c r="U6" s="31">
         <v>83</v>
       </c>
-      <c r="U6" s="31">
+      <c r="V6" s="31">
         <v>150</v>
       </c>
-      <c r="V6" s="31">
+      <c r="W6" s="31">
         <v>434</v>
       </c>
-      <c r="W6" s="31">
+      <c r="X6" s="31">
         <v>1150</v>
       </c>
-      <c r="X6" s="31">
+      <c r="Y6" s="31">
         <v>257</v>
       </c>
-      <c r="Y6" s="31">
+      <c r="Z6" s="31">
         <v>1006</v>
       </c>
-      <c r="Z6" s="33">
+      <c r="AA6" s="33">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AA6" s="33">
+      <c r="AB6" s="33">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AB6" s="33">
+      <c r="AC6" s="33">
         <v>0.27400000000000002</v>
       </c>
-      <c r="AC6" s="33">
+      <c r="AD6" s="33">
         <v>0.246</v>
       </c>
-      <c r="AD6" s="33">
+      <c r="AE6" s="33">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AE6" s="33">
+      <c r="AF6" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AF6" s="33">
+      <c r="AG6" s="33">
         <v>1.68</v>
       </c>
-      <c r="AG6" s="33">
+      <c r="AH6" s="33">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AH6" s="33">
+      <c r="AI6" s="33">
         <v>2.3839999999999999</v>
       </c>
-      <c r="AI6" s="26">
+      <c r="AJ6" s="26">
         <v>801</v>
       </c>
-      <c r="AJ6" s="31">
+      <c r="AK6" s="31">
         <v>16286</v>
       </c>
-      <c r="AK6" s="31">
+      <c r="AL6" s="31">
         <v>5257</v>
       </c>
-      <c r="AL6" s="26">
+      <c r="AM6" s="26">
         <v>7.86</v>
       </c>
-      <c r="AM6" s="26">
+      <c r="AN6" s="26">
         <v>20.53</v>
       </c>
-      <c r="AN6" s="26">
+      <c r="AO6" s="26">
         <v>20.41</v>
       </c>
-      <c r="AO6" s="26">
+      <c r="AP6" s="26">
         <v>9.85</v>
       </c>
-      <c r="AP6" s="26">
+      <c r="AQ6" s="26">
         <f>3*60+29.23</f>
         <v>209.23</v>
       </c>
-      <c r="AQ6" s="56">
-        <f>H6+I6</f>
+      <c r="AR6" s="39">
+        <f t="shared" si="0"/>
         <v>28362</v>
       </c>
-      <c r="AR6" s="57">
-        <f>1/F6</f>
-        <v>9.4047719813033139E-3</v>
-      </c>
-      <c r="AS6" s="57">
-        <f>L6</f>
+      <c r="AS6" s="40">
+        <f t="shared" si="3"/>
+        <v>1.2424984158145198E-2</v>
+      </c>
+      <c r="AT6" s="40">
+        <f t="shared" si="1"/>
         <v>3.2269999999999999</v>
       </c>
-      <c r="AT6" s="57">
-        <f t="shared" si="1"/>
+      <c r="AU6" s="40">
+        <f t="shared" si="4"/>
         <v>209.23</v>
       </c>
-      <c r="AU6" s="56">
-        <f t="shared" si="2"/>
-        <v>266.73814293372459</v>
-      </c>
-      <c r="AV6" s="57">
-        <f t="shared" si="3"/>
+      <c r="AV6" s="39">
+        <f t="shared" si="5"/>
+        <v>352.39740069331413</v>
+      </c>
+      <c r="AW6" s="40">
+        <f t="shared" si="6"/>
         <v>5934181.2599999998</v>
       </c>
-      <c r="AW6" s="57">
-        <f t="shared" si="4"/>
-        <v>3.0349199183665791E-2</v>
-      </c>
-      <c r="AX6" s="59">
-        <f t="shared" si="5"/>
+      <c r="AX6" s="40">
+        <f t="shared" si="7"/>
+        <v>4.0095423878334556E-2</v>
+      </c>
+      <c r="AY6" s="42">
+        <f t="shared" si="8"/>
         <v>675.18520999999998</v>
       </c>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="3"/>
+      <c r="AZ6" s="22"/>
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
-      <c r="BC6" s="1"/>
+      <c r="BC6" s="3"/>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
@@ -2175,8 +2179,9 @@
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
       <c r="BL6" s="1"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM6" s="1"/>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -2189,11 +2194,11 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="65" t="e">
-        <f t="shared" si="0"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="46" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="27"/>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
@@ -2222,43 +2227,43 @@
       <c r="AN7" s="27"/>
       <c r="AO7" s="27"/>
       <c r="AP7" s="27"/>
-      <c r="AQ7" s="56">
-        <f>H7+I7</f>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR7" s="57" t="e">
-        <f>1/F7</f>
+      <c r="AS7" s="40" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS7" s="57">
-        <f>L7</f>
-        <v>0</v>
-      </c>
-      <c r="AT7" s="57">
+      <c r="AT7" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU7" s="56" t="e">
-        <f t="shared" si="2"/>
+      <c r="AU7" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV7" s="39" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV7" s="57">
-        <f t="shared" si="3"/>
+      <c r="AW7" s="40">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AW7" s="57" t="e">
-        <f t="shared" si="4"/>
+      <c r="AX7" s="40" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX7" s="59">
-        <f t="shared" si="5"/>
+      <c r="AY7" s="42">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="3"/>
+      <c r="AZ7" s="21"/>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3"/>
-      <c r="BC7" s="1"/>
+      <c r="BC7" s="3"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
@@ -2268,8 +2273,9 @@
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM7" s="1"/>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -2282,11 +2288,11 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="65" t="e">
-        <f t="shared" si="0"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="46" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="26"/>
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
@@ -2315,43 +2321,43 @@
       <c r="AN8" s="26"/>
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
-      <c r="AQ8" s="56">
-        <f>H8+I8</f>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR8" s="57" t="e">
-        <f>1/F8</f>
+      <c r="AS8" s="40" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS8" s="57">
-        <f>L8</f>
-        <v>0</v>
-      </c>
-      <c r="AT8" s="57">
+      <c r="AT8" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU8" s="56" t="e">
-        <f t="shared" si="2"/>
+      <c r="AU8" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="39" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV8" s="57">
-        <f t="shared" si="3"/>
+      <c r="AW8" s="40">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AW8" s="57" t="e">
-        <f t="shared" si="4"/>
+      <c r="AX8" s="40" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX8" s="59">
-        <f t="shared" si="5"/>
+      <c r="AY8" s="42">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AY8" s="22"/>
-      <c r="AZ8" s="3"/>
+      <c r="AZ8" s="22"/>
       <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
-      <c r="BC8" s="1"/>
+      <c r="BC8" s="3"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
@@ -2361,8 +2367,9 @@
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM8" s="1"/>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -2375,11 +2382,11 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="65" t="e">
-        <f t="shared" si="0"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="46" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="27"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
@@ -2408,43 +2415,43 @@
       <c r="AN9" s="27"/>
       <c r="AO9" s="27"/>
       <c r="AP9" s="27"/>
-      <c r="AQ9" s="56">
-        <f>H9+I9</f>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="57" t="e">
-        <f>1/F9</f>
+      <c r="AS9" s="40" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS9" s="57">
-        <f>L9</f>
-        <v>0</v>
-      </c>
-      <c r="AT9" s="57">
+      <c r="AT9" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU9" s="56" t="e">
-        <f t="shared" si="2"/>
+      <c r="AU9" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="39" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV9" s="57">
-        <f t="shared" si="3"/>
+      <c r="AW9" s="40">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AW9" s="57" t="e">
-        <f t="shared" si="4"/>
+      <c r="AX9" s="40" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX9" s="59">
-        <f t="shared" si="5"/>
+      <c r="AY9" s="42">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="3"/>
+      <c r="AZ9" s="21"/>
       <c r="BA9" s="3"/>
       <c r="BB9" s="3"/>
-      <c r="BC9" s="1"/>
+      <c r="BC9" s="3"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
@@ -2454,8 +2461,9 @@
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM9" s="1"/>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -2468,11 +2476,11 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="65" t="e">
-        <f t="shared" si="0"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="46" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
@@ -2501,43 +2509,43 @@
       <c r="AN10" s="26"/>
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
-      <c r="AQ10" s="56">
-        <f>H10+I10</f>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR10" s="57" t="e">
-        <f>1/F10</f>
+      <c r="AS10" s="40" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="57">
-        <f>L10</f>
-        <v>0</v>
-      </c>
-      <c r="AT10" s="57">
+      <c r="AT10" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU10" s="56" t="e">
-        <f t="shared" si="2"/>
+      <c r="AU10" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="39" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV10" s="57">
-        <f t="shared" si="3"/>
+      <c r="AW10" s="40">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AW10" s="57" t="e">
-        <f t="shared" si="4"/>
+      <c r="AX10" s="40" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX10" s="59">
-        <f t="shared" si="5"/>
+      <c r="AY10" s="42">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AY10" s="22"/>
-      <c r="AZ10" s="3"/>
+      <c r="AZ10" s="22"/>
       <c r="BA10" s="3"/>
       <c r="BB10" s="3"/>
-      <c r="BC10" s="1"/>
+      <c r="BC10" s="3"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
@@ -2547,8 +2555,9 @@
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM10" s="1"/>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2561,11 +2570,11 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="65" t="e">
-        <f t="shared" si="0"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="46" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
@@ -2594,43 +2603,43 @@
       <c r="AN11" s="27"/>
       <c r="AO11" s="27"/>
       <c r="AP11" s="27"/>
-      <c r="AQ11" s="56">
-        <f>H11+I11</f>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR11" s="57" t="e">
-        <f>1/F11</f>
+      <c r="AS11" s="40" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS11" s="57">
-        <f>L11</f>
-        <v>0</v>
-      </c>
-      <c r="AT11" s="57">
+      <c r="AT11" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU11" s="56" t="e">
-        <f t="shared" si="2"/>
+      <c r="AU11" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="39" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV11" s="57">
-        <f t="shared" si="3"/>
+      <c r="AW11" s="40">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AW11" s="57" t="e">
-        <f t="shared" si="4"/>
+      <c r="AX11" s="40" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX11" s="59">
-        <f t="shared" si="5"/>
+      <c r="AY11" s="42">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="3"/>
+      <c r="AZ11" s="21"/>
       <c r="BA11" s="3"/>
       <c r="BB11" s="3"/>
-      <c r="BC11" s="1"/>
+      <c r="BC11" s="3"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
@@ -2640,8 +2649,9 @@
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM11" s="1"/>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -2654,11 +2664,11 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="66" t="e">
-        <f t="shared" si="0"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="46" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="28"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
@@ -2687,43 +2697,43 @@
       <c r="AN12" s="28"/>
       <c r="AO12" s="28"/>
       <c r="AP12" s="28"/>
-      <c r="AQ12" s="60">
-        <f>H12+I12</f>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="43">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR12" s="61" t="e">
-        <f>1/F12</f>
+      <c r="AS12" s="44" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS12" s="61">
-        <f>L12</f>
-        <v>0</v>
-      </c>
-      <c r="AT12" s="61">
+      <c r="AT12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU12" s="60" t="e">
-        <f t="shared" si="2"/>
+      <c r="AU12" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="43" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV12" s="61">
-        <f t="shared" si="3"/>
+      <c r="AW12" s="44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AW12" s="61" t="e">
-        <f t="shared" si="4"/>
+      <c r="AX12" s="44" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX12" s="62">
-        <f t="shared" si="5"/>
+      <c r="AY12" s="45">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AY12" s="23"/>
-      <c r="AZ12" s="3"/>
+      <c r="AZ12" s="23"/>
       <c r="BA12" s="3"/>
       <c r="BB12" s="3"/>
-      <c r="BC12" s="1"/>
+      <c r="BC12" s="3"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
@@ -2733,8 +2743,9 @@
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM12" s="1"/>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2789,7 +2800,7 @@
       <c r="AZ13" s="3"/>
       <c r="BA13" s="3"/>
       <c r="BB13" s="3"/>
-      <c r="BC13" s="1"/>
+      <c r="BC13" s="3"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
@@ -2799,8 +2810,9 @@
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM13" s="1"/>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2855,7 +2867,7 @@
       <c r="AZ14" s="3"/>
       <c r="BA14" s="3"/>
       <c r="BB14" s="3"/>
-      <c r="BC14" s="1"/>
+      <c r="BC14" s="3"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
@@ -2865,8 +2877,9 @@
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM14" s="1"/>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2921,7 +2934,7 @@
       <c r="AZ15" s="3"/>
       <c r="BA15" s="3"/>
       <c r="BB15" s="3"/>
-      <c r="BC15" s="1"/>
+      <c r="BC15" s="3"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
@@ -2931,8 +2944,9 @@
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM15" s="1"/>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2987,7 +3001,7 @@
       <c r="AZ16" s="3"/>
       <c r="BA16" s="3"/>
       <c r="BB16" s="3"/>
-      <c r="BC16" s="1"/>
+      <c r="BC16" s="3"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
@@ -2997,8 +3011,9 @@
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1"/>
-    </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM16" s="1"/>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3053,7 +3068,7 @@
       <c r="AZ17" s="3"/>
       <c r="BA17" s="3"/>
       <c r="BB17" s="3"/>
-      <c r="BC17" s="1"/>
+      <c r="BC17" s="3"/>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
@@ -3063,8 +3078,9 @@
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
       <c r="BL17" s="1"/>
-    </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM17" s="1"/>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3119,7 +3135,7 @@
       <c r="AZ18" s="3"/>
       <c r="BA18" s="3"/>
       <c r="BB18" s="3"/>
-      <c r="BC18" s="1"/>
+      <c r="BC18" s="3"/>
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
@@ -3129,8 +3145,9 @@
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
       <c r="BL18" s="1"/>
-    </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM18" s="1"/>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3185,7 +3202,7 @@
       <c r="AZ19" s="3"/>
       <c r="BA19" s="3"/>
       <c r="BB19" s="3"/>
-      <c r="BC19" s="1"/>
+      <c r="BC19" s="3"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
@@ -3195,8 +3212,9 @@
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
       <c r="BL19" s="1"/>
-    </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM19" s="1"/>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3251,7 +3269,7 @@
       <c r="AZ20" s="3"/>
       <c r="BA20" s="3"/>
       <c r="BB20" s="3"/>
-      <c r="BC20" s="1"/>
+      <c r="BC20" s="3"/>
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
@@ -3261,8 +3279,9 @@
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
-    </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM20" s="1"/>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3317,7 +3336,7 @@
       <c r="AZ21" s="3"/>
       <c r="BA21" s="3"/>
       <c r="BB21" s="3"/>
-      <c r="BC21" s="1"/>
+      <c r="BC21" s="3"/>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
@@ -3327,8 +3346,9 @@
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
-    </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM21" s="1"/>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3383,7 +3403,7 @@
       <c r="AZ22" s="3"/>
       <c r="BA22" s="3"/>
       <c r="BB22" s="3"/>
-      <c r="BC22" s="1"/>
+      <c r="BC22" s="3"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
@@ -3393,8 +3413,9 @@
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
       <c r="BL22" s="1"/>
-    </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM22" s="1"/>
+    </row>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3449,7 +3470,7 @@
       <c r="AZ23" s="3"/>
       <c r="BA23" s="3"/>
       <c r="BB23" s="3"/>
-      <c r="BC23" s="1"/>
+      <c r="BC23" s="3"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
@@ -3459,8 +3480,9 @@
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
       <c r="BL23" s="1"/>
-    </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM23" s="1"/>
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3515,7 +3537,7 @@
       <c r="AZ24" s="3"/>
       <c r="BA24" s="3"/>
       <c r="BB24" s="3"/>
-      <c r="BC24" s="1"/>
+      <c r="BC24" s="3"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
@@ -3525,8 +3547,9 @@
       <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
       <c r="BL24" s="1"/>
-    </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM24" s="1"/>
+    </row>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3581,7 +3604,7 @@
       <c r="AZ25" s="3"/>
       <c r="BA25" s="3"/>
       <c r="BB25" s="3"/>
-      <c r="BC25" s="1"/>
+      <c r="BC25" s="3"/>
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
@@ -3591,8 +3614,9 @@
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
       <c r="BL25" s="1"/>
-    </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM25" s="1"/>
+    </row>
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3647,7 +3671,7 @@
       <c r="AZ26" s="3"/>
       <c r="BA26" s="3"/>
       <c r="BB26" s="3"/>
-      <c r="BC26" s="1"/>
+      <c r="BC26" s="3"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
@@ -3657,8 +3681,9 @@
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
       <c r="BL26" s="1"/>
-    </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM26" s="1"/>
+    </row>
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3713,7 +3738,7 @@
       <c r="AZ27" s="3"/>
       <c r="BA27" s="3"/>
       <c r="BB27" s="3"/>
-      <c r="BC27" s="1"/>
+      <c r="BC27" s="3"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
@@ -3723,8 +3748,9 @@
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
       <c r="BL27" s="1"/>
-    </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM27" s="1"/>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3779,7 +3805,7 @@
       <c r="AZ28" s="3"/>
       <c r="BA28" s="3"/>
       <c r="BB28" s="3"/>
-      <c r="BC28" s="1"/>
+      <c r="BC28" s="3"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
@@ -3789,8 +3815,9 @@
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
       <c r="BL28" s="1"/>
-    </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM28" s="1"/>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3845,7 +3872,7 @@
       <c r="AZ29" s="3"/>
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
-      <c r="BC29" s="1"/>
+      <c r="BC29" s="3"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
@@ -3855,8 +3882,9 @@
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
       <c r="BL29" s="1"/>
-    </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM29" s="1"/>
+    </row>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3911,7 +3939,7 @@
       <c r="AZ30" s="3"/>
       <c r="BA30" s="3"/>
       <c r="BB30" s="3"/>
-      <c r="BC30" s="1"/>
+      <c r="BC30" s="3"/>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
@@ -3921,8 +3949,9 @@
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
       <c r="BL30" s="1"/>
-    </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM30" s="1"/>
+    </row>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3977,7 +4006,7 @@
       <c r="AZ31" s="3"/>
       <c r="BA31" s="3"/>
       <c r="BB31" s="3"/>
-      <c r="BC31" s="1"/>
+      <c r="BC31" s="3"/>
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
@@ -3987,8 +4016,9 @@
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
       <c r="BL31" s="1"/>
-    </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM31" s="1"/>
+    </row>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4043,7 +4073,7 @@
       <c r="AZ32" s="3"/>
       <c r="BA32" s="3"/>
       <c r="BB32" s="3"/>
-      <c r="BC32" s="1"/>
+      <c r="BC32" s="3"/>
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
@@ -4053,8 +4083,9 @@
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
       <c r="BL32" s="1"/>
-    </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM32" s="1"/>
+    </row>
+    <row r="33" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4109,7 +4140,7 @@
       <c r="AZ33" s="3"/>
       <c r="BA33" s="3"/>
       <c r="BB33" s="3"/>
-      <c r="BC33" s="1"/>
+      <c r="BC33" s="3"/>
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
@@ -4119,8 +4150,9 @@
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
       <c r="BL33" s="1"/>
-    </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM33" s="1"/>
+    </row>
+    <row r="34" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4175,7 +4207,7 @@
       <c r="AZ34" s="3"/>
       <c r="BA34" s="3"/>
       <c r="BB34" s="3"/>
-      <c r="BC34" s="1"/>
+      <c r="BC34" s="3"/>
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
@@ -4185,8 +4217,9 @@
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
       <c r="BL34" s="1"/>
-    </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM34" s="1"/>
+    </row>
+    <row r="35" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4241,7 +4274,7 @@
       <c r="AZ35" s="3"/>
       <c r="BA35" s="3"/>
       <c r="BB35" s="3"/>
-      <c r="BC35" s="1"/>
+      <c r="BC35" s="3"/>
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
@@ -4251,8 +4284,9 @@
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
       <c r="BL35" s="1"/>
-    </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM35" s="1"/>
+    </row>
+    <row r="36" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4307,7 +4341,7 @@
       <c r="AZ36" s="3"/>
       <c r="BA36" s="3"/>
       <c r="BB36" s="3"/>
-      <c r="BC36" s="1"/>
+      <c r="BC36" s="3"/>
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
@@ -4317,8 +4351,9 @@
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
       <c r="BL36" s="1"/>
-    </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM36" s="1"/>
+    </row>
+    <row r="37" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4373,7 +4408,7 @@
       <c r="AZ37" s="3"/>
       <c r="BA37" s="3"/>
       <c r="BB37" s="3"/>
-      <c r="BC37" s="1"/>
+      <c r="BC37" s="3"/>
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
@@ -4383,8 +4418,9 @@
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
       <c r="BL37" s="1"/>
-    </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM37" s="1"/>
+    </row>
+    <row r="38" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4439,7 +4475,7 @@
       <c r="AZ38" s="3"/>
       <c r="BA38" s="3"/>
       <c r="BB38" s="3"/>
-      <c r="BC38" s="1"/>
+      <c r="BC38" s="3"/>
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
@@ -4449,8 +4485,9 @@
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
       <c r="BL38" s="1"/>
-    </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM38" s="1"/>
+    </row>
+    <row r="39" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4505,7 +4542,7 @@
       <c r="AZ39" s="3"/>
       <c r="BA39" s="3"/>
       <c r="BB39" s="3"/>
-      <c r="BC39" s="1"/>
+      <c r="BC39" s="3"/>
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
@@ -4515,8 +4552,9 @@
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
       <c r="BL39" s="1"/>
-    </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM39" s="1"/>
+    </row>
+    <row r="40" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4571,7 +4609,7 @@
       <c r="AZ40" s="3"/>
       <c r="BA40" s="3"/>
       <c r="BB40" s="3"/>
-      <c r="BC40" s="1"/>
+      <c r="BC40" s="3"/>
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
       <c r="BF40" s="1"/>
@@ -4581,8 +4619,9 @@
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
       <c r="BL40" s="1"/>
-    </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM40" s="1"/>
+    </row>
+    <row r="41" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4637,7 +4676,7 @@
       <c r="AZ41" s="3"/>
       <c r="BA41" s="3"/>
       <c r="BB41" s="3"/>
-      <c r="BC41" s="1"/>
+      <c r="BC41" s="3"/>
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
@@ -4647,8 +4686,9 @@
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
       <c r="BL41" s="1"/>
-    </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM41" s="1"/>
+    </row>
+    <row r="42" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4703,7 +4743,7 @@
       <c r="AZ42" s="3"/>
       <c r="BA42" s="3"/>
       <c r="BB42" s="3"/>
-      <c r="BC42" s="1"/>
+      <c r="BC42" s="3"/>
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
       <c r="BF42" s="1"/>
@@ -4713,8 +4753,9 @@
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
       <c r="BL42" s="1"/>
-    </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM42" s="1"/>
+    </row>
+    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4769,7 +4810,7 @@
       <c r="AZ43" s="3"/>
       <c r="BA43" s="3"/>
       <c r="BB43" s="3"/>
-      <c r="BC43" s="1"/>
+      <c r="BC43" s="3"/>
       <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
@@ -4779,8 +4820,9 @@
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
       <c r="BL43" s="1"/>
-    </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM43" s="1"/>
+    </row>
+    <row r="44" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4835,7 +4877,7 @@
       <c r="AZ44" s="3"/>
       <c r="BA44" s="3"/>
       <c r="BB44" s="3"/>
-      <c r="BC44" s="1"/>
+      <c r="BC44" s="3"/>
       <c r="BD44" s="1"/>
       <c r="BE44" s="1"/>
       <c r="BF44" s="1"/>
@@ -4845,8 +4887,9 @@
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
       <c r="BL44" s="1"/>
-    </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM44" s="1"/>
+    </row>
+    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4901,7 +4944,7 @@
       <c r="AZ45" s="3"/>
       <c r="BA45" s="3"/>
       <c r="BB45" s="3"/>
-      <c r="BC45" s="1"/>
+      <c r="BC45" s="3"/>
       <c r="BD45" s="1"/>
       <c r="BE45" s="1"/>
       <c r="BF45" s="1"/>
@@ -4911,8 +4954,9 @@
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
       <c r="BL45" s="1"/>
-    </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM45" s="1"/>
+    </row>
+    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4967,7 +5011,7 @@
       <c r="AZ46" s="3"/>
       <c r="BA46" s="3"/>
       <c r="BB46" s="3"/>
-      <c r="BC46" s="1"/>
+      <c r="BC46" s="3"/>
       <c r="BD46" s="1"/>
       <c r="BE46" s="1"/>
       <c r="BF46" s="1"/>
@@ -4977,8 +5021,9 @@
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
       <c r="BL46" s="1"/>
-    </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM46" s="1"/>
+    </row>
+    <row r="47" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -5033,7 +5078,7 @@
       <c r="AZ47" s="3"/>
       <c r="BA47" s="3"/>
       <c r="BB47" s="3"/>
-      <c r="BC47" s="1"/>
+      <c r="BC47" s="3"/>
       <c r="BD47" s="1"/>
       <c r="BE47" s="1"/>
       <c r="BF47" s="1"/>
@@ -5043,8 +5088,9 @@
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
       <c r="BL47" s="1"/>
-    </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM47" s="1"/>
+    </row>
+    <row r="48" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -5099,7 +5145,7 @@
       <c r="AZ48" s="3"/>
       <c r="BA48" s="3"/>
       <c r="BB48" s="3"/>
-      <c r="BC48" s="1"/>
+      <c r="BC48" s="3"/>
       <c r="BD48" s="1"/>
       <c r="BE48" s="1"/>
       <c r="BF48" s="1"/>
@@ -5109,8 +5155,9 @@
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
       <c r="BL48" s="1"/>
-    </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM48" s="1"/>
+    </row>
+    <row r="49" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5165,7 +5212,7 @@
       <c r="AZ49" s="3"/>
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
-      <c r="BC49" s="1"/>
+      <c r="BC49" s="3"/>
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
       <c r="BF49" s="1"/>
@@ -5175,8 +5222,9 @@
       <c r="BJ49" s="1"/>
       <c r="BK49" s="1"/>
       <c r="BL49" s="1"/>
-    </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM49" s="1"/>
+    </row>
+    <row r="50" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5231,7 +5279,7 @@
       <c r="AZ50" s="3"/>
       <c r="BA50" s="3"/>
       <c r="BB50" s="3"/>
-      <c r="BC50" s="1"/>
+      <c r="BC50" s="3"/>
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
       <c r="BF50" s="1"/>
@@ -5241,8 +5289,9 @@
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
       <c r="BL50" s="1"/>
-    </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM50" s="1"/>
+    </row>
+    <row r="51" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5297,7 +5346,7 @@
       <c r="AZ51" s="3"/>
       <c r="BA51" s="3"/>
       <c r="BB51" s="3"/>
-      <c r="BC51" s="1"/>
+      <c r="BC51" s="3"/>
       <c r="BD51" s="1"/>
       <c r="BE51" s="1"/>
       <c r="BF51" s="1"/>
@@ -5307,8 +5356,9 @@
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
       <c r="BL51" s="1"/>
-    </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM51" s="1"/>
+    </row>
+    <row r="52" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5363,7 +5413,7 @@
       <c r="AZ52" s="3"/>
       <c r="BA52" s="3"/>
       <c r="BB52" s="3"/>
-      <c r="BC52" s="1"/>
+      <c r="BC52" s="3"/>
       <c r="BD52" s="1"/>
       <c r="BE52" s="1"/>
       <c r="BF52" s="1"/>
@@ -5373,8 +5423,9 @@
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
       <c r="BL52" s="1"/>
-    </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM52" s="1"/>
+    </row>
+    <row r="53" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5429,7 +5480,7 @@
       <c r="AZ53" s="3"/>
       <c r="BA53" s="3"/>
       <c r="BB53" s="3"/>
-      <c r="BC53" s="1"/>
+      <c r="BC53" s="3"/>
       <c r="BD53" s="1"/>
       <c r="BE53" s="1"/>
       <c r="BF53" s="1"/>
@@ -5439,8 +5490,9 @@
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
       <c r="BL53" s="1"/>
-    </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM53" s="1"/>
+    </row>
+    <row r="54" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5495,7 +5547,7 @@
       <c r="AZ54" s="3"/>
       <c r="BA54" s="3"/>
       <c r="BB54" s="3"/>
-      <c r="BC54" s="1"/>
+      <c r="BC54" s="3"/>
       <c r="BD54" s="1"/>
       <c r="BE54" s="1"/>
       <c r="BF54" s="1"/>
@@ -5505,8 +5557,9 @@
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
       <c r="BL54" s="1"/>
-    </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM54" s="1"/>
+    </row>
+    <row r="55" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5561,7 +5614,7 @@
       <c r="AZ55" s="3"/>
       <c r="BA55" s="3"/>
       <c r="BB55" s="3"/>
-      <c r="BC55" s="1"/>
+      <c r="BC55" s="3"/>
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
       <c r="BF55" s="1"/>
@@ -5571,8 +5624,9 @@
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1"/>
       <c r="BL55" s="1"/>
-    </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM55" s="1"/>
+    </row>
+    <row r="56" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5627,7 +5681,7 @@
       <c r="AZ56" s="3"/>
       <c r="BA56" s="3"/>
       <c r="BB56" s="3"/>
-      <c r="BC56" s="1"/>
+      <c r="BC56" s="3"/>
       <c r="BD56" s="1"/>
       <c r="BE56" s="1"/>
       <c r="BF56" s="1"/>
@@ -5637,8 +5691,9 @@
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
       <c r="BL56" s="1"/>
-    </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM56" s="1"/>
+    </row>
+    <row r="57" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5693,7 +5748,7 @@
       <c r="AZ57" s="3"/>
       <c r="BA57" s="3"/>
       <c r="BB57" s="3"/>
-      <c r="BC57" s="1"/>
+      <c r="BC57" s="3"/>
       <c r="BD57" s="1"/>
       <c r="BE57" s="1"/>
       <c r="BF57" s="1"/>
@@ -5703,8 +5758,9 @@
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
       <c r="BL57" s="1"/>
-    </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM57" s="1"/>
+    </row>
+    <row r="58" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5759,7 +5815,7 @@
       <c r="AZ58" s="3"/>
       <c r="BA58" s="3"/>
       <c r="BB58" s="3"/>
-      <c r="BC58" s="1"/>
+      <c r="BC58" s="3"/>
       <c r="BD58" s="1"/>
       <c r="BE58" s="1"/>
       <c r="BF58" s="1"/>
@@ -5769,8 +5825,9 @@
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
-    </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM58" s="1"/>
+    </row>
+    <row r="59" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5825,7 +5882,7 @@
       <c r="AZ59" s="3"/>
       <c r="BA59" s="3"/>
       <c r="BB59" s="3"/>
-      <c r="BC59" s="1"/>
+      <c r="BC59" s="3"/>
       <c r="BD59" s="1"/>
       <c r="BE59" s="1"/>
       <c r="BF59" s="1"/>
@@ -5835,8 +5892,9 @@
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
-    </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM59" s="1"/>
+    </row>
+    <row r="60" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5891,7 +5949,7 @@
       <c r="AZ60" s="3"/>
       <c r="BA60" s="3"/>
       <c r="BB60" s="3"/>
-      <c r="BC60" s="1"/>
+      <c r="BC60" s="3"/>
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
       <c r="BF60" s="1"/>
@@ -5901,8 +5959,9 @@
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
       <c r="BL60" s="1"/>
-    </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM60" s="1"/>
+    </row>
+    <row r="61" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5957,7 +6016,7 @@
       <c r="AZ61" s="3"/>
       <c r="BA61" s="3"/>
       <c r="BB61" s="3"/>
-      <c r="BC61" s="1"/>
+      <c r="BC61" s="3"/>
       <c r="BD61" s="1"/>
       <c r="BE61" s="1"/>
       <c r="BF61" s="1"/>
@@ -5967,8 +6026,9 @@
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
-    </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM61" s="1"/>
+    </row>
+    <row r="62" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -6023,7 +6083,7 @@
       <c r="AZ62" s="3"/>
       <c r="BA62" s="3"/>
       <c r="BB62" s="3"/>
-      <c r="BC62" s="1"/>
+      <c r="BC62" s="3"/>
       <c r="BD62" s="1"/>
       <c r="BE62" s="1"/>
       <c r="BF62" s="1"/>
@@ -6033,8 +6093,9 @@
       <c r="BJ62" s="1"/>
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
-    </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM62" s="1"/>
+    </row>
+    <row r="63" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -6089,7 +6150,7 @@
       <c r="AZ63" s="3"/>
       <c r="BA63" s="3"/>
       <c r="BB63" s="3"/>
-      <c r="BC63" s="1"/>
+      <c r="BC63" s="3"/>
       <c r="BD63" s="1"/>
       <c r="BE63" s="1"/>
       <c r="BF63" s="1"/>
@@ -6099,8 +6160,9 @@
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
-    </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM63" s="1"/>
+    </row>
+    <row r="64" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6155,7 +6217,7 @@
       <c r="AZ64" s="3"/>
       <c r="BA64" s="3"/>
       <c r="BB64" s="3"/>
-      <c r="BC64" s="1"/>
+      <c r="BC64" s="3"/>
       <c r="BD64" s="1"/>
       <c r="BE64" s="1"/>
       <c r="BF64" s="1"/>
@@ -6165,8 +6227,9 @@
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
-    </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM64" s="1"/>
+    </row>
+    <row r="65" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -6221,7 +6284,7 @@
       <c r="AZ65" s="3"/>
       <c r="BA65" s="3"/>
       <c r="BB65" s="3"/>
-      <c r="BC65" s="1"/>
+      <c r="BC65" s="3"/>
       <c r="BD65" s="1"/>
       <c r="BE65" s="1"/>
       <c r="BF65" s="1"/>
@@ -6231,8 +6294,9 @@
       <c r="BJ65" s="1"/>
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
-    </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM65" s="1"/>
+    </row>
+    <row r="66" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -6287,7 +6351,7 @@
       <c r="AZ66" s="3"/>
       <c r="BA66" s="3"/>
       <c r="BB66" s="3"/>
-      <c r="BC66" s="1"/>
+      <c r="BC66" s="3"/>
       <c r="BD66" s="1"/>
       <c r="BE66" s="1"/>
       <c r="BF66" s="1"/>
@@ -6297,8 +6361,9 @@
       <c r="BJ66" s="1"/>
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
-    </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM66" s="1"/>
+    </row>
+    <row r="67" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -6353,7 +6418,7 @@
       <c r="AZ67" s="3"/>
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
-      <c r="BC67" s="1"/>
+      <c r="BC67" s="3"/>
       <c r="BD67" s="1"/>
       <c r="BE67" s="1"/>
       <c r="BF67" s="1"/>
@@ -6363,8 +6428,9 @@
       <c r="BJ67" s="1"/>
       <c r="BK67" s="1"/>
       <c r="BL67" s="1"/>
-    </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM67" s="1"/>
+    </row>
+    <row r="68" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -6419,7 +6485,7 @@
       <c r="AZ68" s="3"/>
       <c r="BA68" s="3"/>
       <c r="BB68" s="3"/>
-      <c r="BC68" s="1"/>
+      <c r="BC68" s="3"/>
       <c r="BD68" s="1"/>
       <c r="BE68" s="1"/>
       <c r="BF68" s="1"/>
@@ -6429,8 +6495,9 @@
       <c r="BJ68" s="1"/>
       <c r="BK68" s="1"/>
       <c r="BL68" s="1"/>
-    </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM68" s="1"/>
+    </row>
+    <row r="69" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -6485,7 +6552,7 @@
       <c r="AZ69" s="3"/>
       <c r="BA69" s="3"/>
       <c r="BB69" s="3"/>
-      <c r="BC69" s="1"/>
+      <c r="BC69" s="3"/>
       <c r="BD69" s="1"/>
       <c r="BE69" s="1"/>
       <c r="BF69" s="1"/>
@@ -6495,8 +6562,9 @@
       <c r="BJ69" s="1"/>
       <c r="BK69" s="1"/>
       <c r="BL69" s="1"/>
-    </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM69" s="1"/>
+    </row>
+    <row r="70" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -6551,7 +6619,7 @@
       <c r="AZ70" s="3"/>
       <c r="BA70" s="3"/>
       <c r="BB70" s="3"/>
-      <c r="BC70" s="1"/>
+      <c r="BC70" s="3"/>
       <c r="BD70" s="1"/>
       <c r="BE70" s="1"/>
       <c r="BF70" s="1"/>
@@ -6561,8 +6629,9 @@
       <c r="BJ70" s="1"/>
       <c r="BK70" s="1"/>
       <c r="BL70" s="1"/>
-    </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM70" s="1"/>
+    </row>
+    <row r="71" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6617,7 +6686,7 @@
       <c r="AZ71" s="3"/>
       <c r="BA71" s="3"/>
       <c r="BB71" s="3"/>
-      <c r="BC71" s="1"/>
+      <c r="BC71" s="3"/>
       <c r="BD71" s="1"/>
       <c r="BE71" s="1"/>
       <c r="BF71" s="1"/>
@@ -6627,8 +6696,9 @@
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
       <c r="BL71" s="1"/>
-    </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM71" s="1"/>
+    </row>
+    <row r="72" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6683,7 +6753,7 @@
       <c r="AZ72" s="3"/>
       <c r="BA72" s="3"/>
       <c r="BB72" s="3"/>
-      <c r="BC72" s="1"/>
+      <c r="BC72" s="3"/>
       <c r="BD72" s="1"/>
       <c r="BE72" s="1"/>
       <c r="BF72" s="1"/>
@@ -6693,8 +6763,9 @@
       <c r="BJ72" s="1"/>
       <c r="BK72" s="1"/>
       <c r="BL72" s="1"/>
-    </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM72" s="1"/>
+    </row>
+    <row r="73" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6749,7 +6820,7 @@
       <c r="AZ73" s="3"/>
       <c r="BA73" s="3"/>
       <c r="BB73" s="3"/>
-      <c r="BC73" s="1"/>
+      <c r="BC73" s="3"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
       <c r="BF73" s="1"/>
@@ -6759,8 +6830,9 @@
       <c r="BJ73" s="1"/>
       <c r="BK73" s="1"/>
       <c r="BL73" s="1"/>
-    </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM73" s="1"/>
+    </row>
+    <row r="74" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6815,7 +6887,7 @@
       <c r="AZ74" s="3"/>
       <c r="BA74" s="3"/>
       <c r="BB74" s="3"/>
-      <c r="BC74" s="1"/>
+      <c r="BC74" s="3"/>
       <c r="BD74" s="1"/>
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
@@ -6825,8 +6897,9 @@
       <c r="BJ74" s="1"/>
       <c r="BK74" s="1"/>
       <c r="BL74" s="1"/>
-    </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM74" s="1"/>
+    </row>
+    <row r="75" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6881,7 +6954,7 @@
       <c r="AZ75" s="3"/>
       <c r="BA75" s="3"/>
       <c r="BB75" s="3"/>
-      <c r="BC75" s="1"/>
+      <c r="BC75" s="3"/>
       <c r="BD75" s="1"/>
       <c r="BE75" s="1"/>
       <c r="BF75" s="1"/>
@@ -6891,8 +6964,9 @@
       <c r="BJ75" s="1"/>
       <c r="BK75" s="1"/>
       <c r="BL75" s="1"/>
-    </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM75" s="1"/>
+    </row>
+    <row r="76" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6947,7 +7021,7 @@
       <c r="AZ76" s="3"/>
       <c r="BA76" s="3"/>
       <c r="BB76" s="3"/>
-      <c r="BC76" s="1"/>
+      <c r="BC76" s="3"/>
       <c r="BD76" s="1"/>
       <c r="BE76" s="1"/>
       <c r="BF76" s="1"/>
@@ -6957,8 +7031,9 @@
       <c r="BJ76" s="1"/>
       <c r="BK76" s="1"/>
       <c r="BL76" s="1"/>
-    </row>
-    <row r="77" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM76" s="1"/>
+    </row>
+    <row r="77" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -7013,7 +7088,7 @@
       <c r="AZ77" s="3"/>
       <c r="BA77" s="3"/>
       <c r="BB77" s="3"/>
-      <c r="BC77" s="1"/>
+      <c r="BC77" s="3"/>
       <c r="BD77" s="1"/>
       <c r="BE77" s="1"/>
       <c r="BF77" s="1"/>
@@ -7023,8 +7098,9 @@
       <c r="BJ77" s="1"/>
       <c r="BK77" s="1"/>
       <c r="BL77" s="1"/>
-    </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM77" s="1"/>
+    </row>
+    <row r="78" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -7079,7 +7155,7 @@
       <c r="AZ78" s="3"/>
       <c r="BA78" s="3"/>
       <c r="BB78" s="3"/>
-      <c r="BC78" s="1"/>
+      <c r="BC78" s="3"/>
       <c r="BD78" s="1"/>
       <c r="BE78" s="1"/>
       <c r="BF78" s="1"/>
@@ -7089,8 +7165,9 @@
       <c r="BJ78" s="1"/>
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
-    </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM78" s="1"/>
+    </row>
+    <row r="79" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -7145,7 +7222,7 @@
       <c r="AZ79" s="3"/>
       <c r="BA79" s="3"/>
       <c r="BB79" s="3"/>
-      <c r="BC79" s="1"/>
+      <c r="BC79" s="3"/>
       <c r="BD79" s="1"/>
       <c r="BE79" s="1"/>
       <c r="BF79" s="1"/>
@@ -7155,8 +7232,9 @@
       <c r="BJ79" s="1"/>
       <c r="BK79" s="1"/>
       <c r="BL79" s="1"/>
-    </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM79" s="1"/>
+    </row>
+    <row r="80" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -7211,7 +7289,7 @@
       <c r="AZ80" s="3"/>
       <c r="BA80" s="3"/>
       <c r="BB80" s="3"/>
-      <c r="BC80" s="1"/>
+      <c r="BC80" s="3"/>
       <c r="BD80" s="1"/>
       <c r="BE80" s="1"/>
       <c r="BF80" s="1"/>
@@ -7221,8 +7299,9 @@
       <c r="BJ80" s="1"/>
       <c r="BK80" s="1"/>
       <c r="BL80" s="1"/>
-    </row>
-    <row r="81" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM80" s="1"/>
+    </row>
+    <row r="81" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -7277,7 +7356,7 @@
       <c r="AZ81" s="3"/>
       <c r="BA81" s="3"/>
       <c r="BB81" s="3"/>
-      <c r="BC81" s="1"/>
+      <c r="BC81" s="3"/>
       <c r="BD81" s="1"/>
       <c r="BE81" s="1"/>
       <c r="BF81" s="1"/>
@@ -7287,8 +7366,9 @@
       <c r="BJ81" s="1"/>
       <c r="BK81" s="1"/>
       <c r="BL81" s="1"/>
-    </row>
-    <row r="82" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM81" s="1"/>
+    </row>
+    <row r="82" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -7343,7 +7423,7 @@
       <c r="AZ82" s="3"/>
       <c r="BA82" s="3"/>
       <c r="BB82" s="3"/>
-      <c r="BC82" s="1"/>
+      <c r="BC82" s="3"/>
       <c r="BD82" s="1"/>
       <c r="BE82" s="1"/>
       <c r="BF82" s="1"/>
@@ -7353,8 +7433,9 @@
       <c r="BJ82" s="1"/>
       <c r="BK82" s="1"/>
       <c r="BL82" s="1"/>
-    </row>
-    <row r="83" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM82" s="1"/>
+    </row>
+    <row r="83" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -7409,7 +7490,7 @@
       <c r="AZ83" s="3"/>
       <c r="BA83" s="3"/>
       <c r="BB83" s="3"/>
-      <c r="BC83" s="1"/>
+      <c r="BC83" s="3"/>
       <c r="BD83" s="1"/>
       <c r="BE83" s="1"/>
       <c r="BF83" s="1"/>
@@ -7419,8 +7500,9 @@
       <c r="BJ83" s="1"/>
       <c r="BK83" s="1"/>
       <c r="BL83" s="1"/>
-    </row>
-    <row r="84" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM83" s="1"/>
+    </row>
+    <row r="84" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -7475,7 +7557,7 @@
       <c r="AZ84" s="3"/>
       <c r="BA84" s="3"/>
       <c r="BB84" s="3"/>
-      <c r="BC84" s="1"/>
+      <c r="BC84" s="3"/>
       <c r="BD84" s="1"/>
       <c r="BE84" s="1"/>
       <c r="BF84" s="1"/>
@@ -7485,8 +7567,9 @@
       <c r="BJ84" s="1"/>
       <c r="BK84" s="1"/>
       <c r="BL84" s="1"/>
-    </row>
-    <row r="85" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM84" s="1"/>
+    </row>
+    <row r="85" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -7541,7 +7624,7 @@
       <c r="AZ85" s="3"/>
       <c r="BA85" s="3"/>
       <c r="BB85" s="3"/>
-      <c r="BC85" s="1"/>
+      <c r="BC85" s="3"/>
       <c r="BD85" s="1"/>
       <c r="BE85" s="1"/>
       <c r="BF85" s="1"/>
@@ -7551,8 +7634,9 @@
       <c r="BJ85" s="1"/>
       <c r="BK85" s="1"/>
       <c r="BL85" s="1"/>
-    </row>
-    <row r="86" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM85" s="1"/>
+    </row>
+    <row r="86" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -7607,7 +7691,7 @@
       <c r="AZ86" s="3"/>
       <c r="BA86" s="3"/>
       <c r="BB86" s="3"/>
-      <c r="BC86" s="1"/>
+      <c r="BC86" s="3"/>
       <c r="BD86" s="1"/>
       <c r="BE86" s="1"/>
       <c r="BF86" s="1"/>
@@ -7617,8 +7701,9 @@
       <c r="BJ86" s="1"/>
       <c r="BK86" s="1"/>
       <c r="BL86" s="1"/>
-    </row>
-    <row r="87" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM86" s="1"/>
+    </row>
+    <row r="87" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -7673,7 +7758,7 @@
       <c r="AZ87" s="3"/>
       <c r="BA87" s="3"/>
       <c r="BB87" s="3"/>
-      <c r="BC87" s="1"/>
+      <c r="BC87" s="3"/>
       <c r="BD87" s="1"/>
       <c r="BE87" s="1"/>
       <c r="BF87" s="1"/>
@@ -7683,8 +7768,9 @@
       <c r="BJ87" s="1"/>
       <c r="BK87" s="1"/>
       <c r="BL87" s="1"/>
-    </row>
-    <row r="88" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM87" s="1"/>
+    </row>
+    <row r="88" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -7739,7 +7825,7 @@
       <c r="AZ88" s="3"/>
       <c r="BA88" s="3"/>
       <c r="BB88" s="3"/>
-      <c r="BC88" s="1"/>
+      <c r="BC88" s="3"/>
       <c r="BD88" s="1"/>
       <c r="BE88" s="1"/>
       <c r="BF88" s="1"/>
@@ -7749,8 +7835,9 @@
       <c r="BJ88" s="1"/>
       <c r="BK88" s="1"/>
       <c r="BL88" s="1"/>
-    </row>
-    <row r="89" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM88" s="1"/>
+    </row>
+    <row r="89" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -7805,7 +7892,7 @@
       <c r="AZ89" s="3"/>
       <c r="BA89" s="3"/>
       <c r="BB89" s="3"/>
-      <c r="BC89" s="1"/>
+      <c r="BC89" s="3"/>
       <c r="BD89" s="1"/>
       <c r="BE89" s="1"/>
       <c r="BF89" s="1"/>
@@ -7815,8 +7902,9 @@
       <c r="BJ89" s="1"/>
       <c r="BK89" s="1"/>
       <c r="BL89" s="1"/>
-    </row>
-    <row r="90" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM89" s="1"/>
+    </row>
+    <row r="90" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -7871,7 +7959,7 @@
       <c r="AZ90" s="3"/>
       <c r="BA90" s="3"/>
       <c r="BB90" s="3"/>
-      <c r="BC90" s="1"/>
+      <c r="BC90" s="3"/>
       <c r="BD90" s="1"/>
       <c r="BE90" s="1"/>
       <c r="BF90" s="1"/>
@@ -7881,8 +7969,9 @@
       <c r="BJ90" s="1"/>
       <c r="BK90" s="1"/>
       <c r="BL90" s="1"/>
-    </row>
-    <row r="91" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM90" s="1"/>
+    </row>
+    <row r="91" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -7937,7 +8026,7 @@
       <c r="AZ91" s="3"/>
       <c r="BA91" s="3"/>
       <c r="BB91" s="3"/>
-      <c r="BC91" s="1"/>
+      <c r="BC91" s="3"/>
       <c r="BD91" s="1"/>
       <c r="BE91" s="1"/>
       <c r="BF91" s="1"/>
@@ -7947,8 +8036,9 @@
       <c r="BJ91" s="1"/>
       <c r="BK91" s="1"/>
       <c r="BL91" s="1"/>
-    </row>
-    <row r="92" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM91" s="1"/>
+    </row>
+    <row r="92" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -8003,7 +8093,7 @@
       <c r="AZ92" s="3"/>
       <c r="BA92" s="3"/>
       <c r="BB92" s="3"/>
-      <c r="BC92" s="1"/>
+      <c r="BC92" s="3"/>
       <c r="BD92" s="1"/>
       <c r="BE92" s="1"/>
       <c r="BF92" s="1"/>
@@ -8013,8 +8103,9 @@
       <c r="BJ92" s="1"/>
       <c r="BK92" s="1"/>
       <c r="BL92" s="1"/>
-    </row>
-    <row r="93" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM92" s="1"/>
+    </row>
+    <row r="93" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -8069,7 +8160,7 @@
       <c r="AZ93" s="3"/>
       <c r="BA93" s="3"/>
       <c r="BB93" s="3"/>
-      <c r="BC93" s="1"/>
+      <c r="BC93" s="3"/>
       <c r="BD93" s="1"/>
       <c r="BE93" s="1"/>
       <c r="BF93" s="1"/>
@@ -8079,8 +8170,9 @@
       <c r="BJ93" s="1"/>
       <c r="BK93" s="1"/>
       <c r="BL93" s="1"/>
-    </row>
-    <row r="94" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM93" s="1"/>
+    </row>
+    <row r="94" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -8135,7 +8227,7 @@
       <c r="AZ94" s="3"/>
       <c r="BA94" s="3"/>
       <c r="BB94" s="3"/>
-      <c r="BC94" s="1"/>
+      <c r="BC94" s="3"/>
       <c r="BD94" s="1"/>
       <c r="BE94" s="1"/>
       <c r="BF94" s="1"/>
@@ -8145,8 +8237,9 @@
       <c r="BJ94" s="1"/>
       <c r="BK94" s="1"/>
       <c r="BL94" s="1"/>
-    </row>
-    <row r="95" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM94" s="1"/>
+    </row>
+    <row r="95" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -8201,7 +8294,7 @@
       <c r="AZ95" s="3"/>
       <c r="BA95" s="3"/>
       <c r="BB95" s="3"/>
-      <c r="BC95" s="1"/>
+      <c r="BC95" s="3"/>
       <c r="BD95" s="1"/>
       <c r="BE95" s="1"/>
       <c r="BF95" s="1"/>
@@ -8211,8 +8304,9 @@
       <c r="BJ95" s="1"/>
       <c r="BK95" s="1"/>
       <c r="BL95" s="1"/>
-    </row>
-    <row r="96" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM95" s="1"/>
+    </row>
+    <row r="96" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -8267,8 +8361,9 @@
       <c r="AZ96" s="2"/>
       <c r="BA96" s="2"/>
       <c r="BB96" s="2"/>
-    </row>
-    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC96" s="2"/>
+    </row>
+    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -8323,8 +8418,9 @@
       <c r="AZ97" s="2"/>
       <c r="BA97" s="2"/>
       <c r="BB97" s="2"/>
-    </row>
-    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC97" s="2"/>
+    </row>
+    <row r="98" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -8379,8 +8475,9 @@
       <c r="AZ98" s="2"/>
       <c r="BA98" s="2"/>
       <c r="BB98" s="2"/>
-    </row>
-    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC98" s="2"/>
+    </row>
+    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -8435,8 +8532,9 @@
       <c r="AZ99" s="2"/>
       <c r="BA99" s="2"/>
       <c r="BB99" s="2"/>
-    </row>
-    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC99" s="2"/>
+    </row>
+    <row r="100" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -8491,8 +8589,9 @@
       <c r="AZ100" s="2"/>
       <c r="BA100" s="2"/>
       <c r="BB100" s="2"/>
-    </row>
-    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC100" s="2"/>
+    </row>
+    <row r="101" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -8547,8 +8646,9 @@
       <c r="AZ101" s="2"/>
       <c r="BA101" s="2"/>
       <c r="BB101" s="2"/>
-    </row>
-    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC101" s="2"/>
+    </row>
+    <row r="102" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8603,8 +8703,9 @@
       <c r="AZ102" s="2"/>
       <c r="BA102" s="2"/>
       <c r="BB102" s="2"/>
-    </row>
-    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC102" s="2"/>
+    </row>
+    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -8659,8 +8760,9 @@
       <c r="AZ103" s="2"/>
       <c r="BA103" s="2"/>
       <c r="BB103" s="2"/>
-    </row>
-    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC103" s="2"/>
+    </row>
+    <row r="104" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -8715,8 +8817,9 @@
       <c r="AZ104" s="2"/>
       <c r="BA104" s="2"/>
       <c r="BB104" s="2"/>
-    </row>
-    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC104" s="2"/>
+    </row>
+    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -8771,8 +8874,9 @@
       <c r="AZ105" s="2"/>
       <c r="BA105" s="2"/>
       <c r="BB105" s="2"/>
-    </row>
-    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC105" s="2"/>
+    </row>
+    <row r="106" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -8827,29 +8931,31 @@
       <c r="AZ106" s="2"/>
       <c r="BA106" s="2"/>
       <c r="BB106" s="2"/>
+      <c r="BC106" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="AZ1:AZ3"/>
+    <mergeCell ref="AA2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="O1:AQ1"/>
+    <mergeCell ref="AR1:AY1"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Y2"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="Z2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="N1:AP1"/>
-    <mergeCell ref="AQ1:AX1"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/result_report.xlsx
+++ b/result_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>Version</t>
   </si>
@@ -155,24 +155,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>0.454</t>
-  </si>
-  <si>
-    <t>0.291</t>
-  </si>
-  <si>
-    <t>0.274</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>0.004</t>
-  </si>
-  <si>
     <t>Non</t>
   </si>
   <si>
@@ -204,15 +186,6 @@
   </si>
   <si>
     <t>"</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>division v1</t>
-  </si>
-  <si>
-    <t>division v2</t>
   </si>
   <si>
     <t>Final Evaluation</t>
@@ -255,6 +228,27 @@
   </si>
   <si>
     <t>Mibench JPEG</t>
+  </si>
+  <si>
+    <t>Tot. Ex. Time</t>
+  </si>
+  <si>
+    <t>Local Time</t>
+  </si>
+  <si>
+    <t>User Time</t>
+  </si>
+  <si>
+    <t>Op/sec</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>Balanced Synthesis</t>
+  </si>
+  <si>
+    <t>r4</t>
   </si>
 </sst>
 </file>
@@ -364,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -640,35 +634,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +726,39 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
@@ -768,9 +769,7 @@
       <right style="thin">
         <color rgb="FF7F7F7F"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
@@ -782,9 +781,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -855,9 +854,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,7 +902,7 @@
     <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -921,19 +917,7 @@
     <xf numFmtId="11" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,43 +929,102 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1289,1530 +1332,1585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM106"/>
+  <dimension ref="A1:BS107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AU9" sqref="AU9"/>
+    <sheetView tabSelected="1" topLeftCell="AJ4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AX6" sqref="AX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="39" max="39" width="13" customWidth="1"/>
-    <col min="44" max="44" width="10.85546875" customWidth="1"/>
-    <col min="45" max="45" width="14" customWidth="1"/>
-    <col min="46" max="46" width="10.5703125" customWidth="1"/>
-    <col min="47" max="47" width="12" customWidth="1"/>
-    <col min="48" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.28515625" customWidth="1"/>
-    <col min="50" max="50" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.5703125" customWidth="1"/>
-    <col min="52" max="52" width="63.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="9.140625" customWidth="1"/>
+    <col min="44" max="44" width="13" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" customWidth="1"/>
+    <col min="51" max="51" width="14" customWidth="1"/>
+    <col min="52" max="52" width="10.5703125" customWidth="1"/>
+    <col min="53" max="53" width="12" customWidth="1"/>
+    <col min="54" max="54" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.28515625" customWidth="1"/>
+    <col min="56" max="56" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.5703125" customWidth="1"/>
+    <col min="58" max="58" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:71" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="47" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="56" t="s">
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
       <c r="BM1" s="1"/>
-    </row>
-    <row r="2" spans="1:65" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50" t="s">
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+    </row>
+    <row r="2" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="50" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="51" t="s">
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="57" t="s">
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="AN2" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ2" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR2" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="53"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
+      <c r="AY2" s="80"/>
+      <c r="AZ2" s="80"/>
+      <c r="BA2" s="81"/>
+      <c r="BB2" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="80"/>
+      <c r="BE2" s="81"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
-    </row>
-    <row r="3" spans="1:65" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS3" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT3" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU3" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV3" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW3" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX3" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY3" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+    </row>
+    <row r="3" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ3" s="79"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="82"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47"/>
+      <c r="BE3" s="48"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1"/>
       <c r="BL3" s="1"/>
       <c r="BM3" s="1"/>
-    </row>
-    <row r="4" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+    </row>
+    <row r="4" spans="1:71" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68"/>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="D4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="71"/>
+      <c r="H4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="AF4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK4" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL4" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM4" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP4" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ4" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="32">
-        <v>80.522000000000006</v>
-      </c>
-      <c r="G4" s="32">
-        <v>106.298</v>
-      </c>
-      <c r="H4" s="8">
-        <v>80</v>
-      </c>
-      <c r="I4" s="8">
-        <v>9904</v>
-      </c>
-      <c r="J4" s="8">
-        <v>16889</v>
-      </c>
-      <c r="K4" s="38">
-        <v>2.4670000000000001</v>
-      </c>
-      <c r="L4" s="38">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="M4" s="38">
-        <v>3.1880000000000002</v>
-      </c>
-      <c r="N4" s="46">
-        <f>M4/F4</f>
-        <v>3.9591664389856188E-2</v>
-      </c>
-      <c r="O4" s="29">
-        <v>100</v>
-      </c>
-      <c r="P4" s="29">
-        <v>117</v>
-      </c>
-      <c r="Q4" s="29">
-        <v>67</v>
-      </c>
-      <c r="R4" s="29">
-        <v>100</v>
-      </c>
-      <c r="S4" s="29">
-        <v>816</v>
-      </c>
-      <c r="T4" s="29">
-        <v>717</v>
-      </c>
-      <c r="U4" s="29">
-        <v>83</v>
-      </c>
-      <c r="V4" s="29">
-        <v>150</v>
-      </c>
-      <c r="W4" s="29">
-        <v>417</v>
-      </c>
-      <c r="X4" s="29">
-        <v>1150</v>
-      </c>
-      <c r="Y4" s="29">
-        <v>253</v>
-      </c>
-      <c r="Z4" s="29">
-        <v>1001</v>
-      </c>
-      <c r="AA4" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB4" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC4" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE4" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF4" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG4" s="32">
-        <v>1.6579999999999999</v>
-      </c>
-      <c r="AH4" s="32">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AI4" s="33">
-        <v>2.3849999999999998</v>
-      </c>
-      <c r="AJ4" s="25">
-        <v>801</v>
-      </c>
-      <c r="AK4" s="29">
-        <v>16286</v>
-      </c>
-      <c r="AL4" s="29">
-        <v>5257</v>
-      </c>
-      <c r="AM4" s="25">
-        <v>7.86</v>
-      </c>
-      <c r="AN4" s="25">
-        <v>20.5</v>
-      </c>
-      <c r="AO4" s="25">
-        <v>20.57</v>
-      </c>
-      <c r="AP4" s="25">
-        <v>9.84</v>
-      </c>
-      <c r="AQ4" s="25">
-        <f>3*60+29.32</f>
-        <v>209.32</v>
-      </c>
-      <c r="AR4" s="39">
-        <f t="shared" ref="AR4:AR12" si="0">I4+J4</f>
-        <v>26793</v>
-      </c>
-      <c r="AS4" s="40">
-        <f>1/F4</f>
-        <v>1.2418966245249744E-2</v>
-      </c>
-      <c r="AT4" s="40">
-        <f t="shared" ref="AT4:AT12" si="1">M4</f>
-        <v>3.1880000000000002</v>
-      </c>
-      <c r="AU4" s="40">
-        <f>AQ4</f>
-        <v>209.32</v>
-      </c>
-      <c r="AV4" s="41">
-        <f>AR4*AS4</f>
-        <v>332.74136260897637</v>
-      </c>
-      <c r="AW4" s="40">
-        <f>AR4*AU4</f>
-        <v>5608310.7599999998</v>
-      </c>
-      <c r="AX4" s="40">
-        <f>AT4*AS4</f>
-        <v>3.9591664389856188E-2</v>
-      </c>
-      <c r="AY4" s="42">
-        <f>AT4*AU4</f>
-        <v>667.31216000000006</v>
-      </c>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
+      <c r="AT4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU4" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV4" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY4" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ4" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA4" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB4" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC4" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD4" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE4" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF4" s="73"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1"/>
-    </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="10">
-        <v>18</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="34">
-        <v>80.379000000000005</v>
-      </c>
-      <c r="G5" s="34">
-        <v>106.39</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+    </row>
+    <row r="5" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="8">
+        <v>35</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="31">
+        <v>80.522000000000006</v>
+      </c>
+      <c r="G5" s="31">
+        <v>106.298</v>
+      </c>
+      <c r="H5" s="8">
         <v>80</v>
       </c>
-      <c r="I5" s="10">
-        <v>10481</v>
-      </c>
-      <c r="J5" s="10">
-        <v>17915</v>
-      </c>
-      <c r="K5" s="10">
-        <v>2.468</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="M5" s="10">
-        <v>3.2109999999999999</v>
-      </c>
-      <c r="N5" s="46">
-        <f t="shared" ref="N5:N12" si="2">M5/F5</f>
-        <v>3.9948245188419856E-2</v>
-      </c>
-      <c r="O5" s="30">
+      <c r="I5" s="8">
+        <v>9904</v>
+      </c>
+      <c r="J5" s="8">
+        <v>16889</v>
+      </c>
+      <c r="K5" s="37">
+        <v>2.4670000000000001</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="M5" s="37">
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="N5" s="45">
+        <f>M5/F5</f>
+        <v>3.9591664389856188E-2</v>
+      </c>
+      <c r="O5" s="28">
         <v>100</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="28">
         <v>117</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="28">
         <v>67</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="28">
         <v>100</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="28">
         <v>816</v>
       </c>
-      <c r="T5" s="30">
-        <v>717</v>
-      </c>
-      <c r="U5" s="30">
+      <c r="T5" s="28">
+        <v>734</v>
+      </c>
+      <c r="U5" s="28">
         <v>83</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="28">
         <v>150</v>
       </c>
-      <c r="W5" s="30">
-        <v>417</v>
-      </c>
-      <c r="X5" s="30">
-        <v>1150</v>
-      </c>
-      <c r="Y5" s="30">
-        <v>253</v>
-      </c>
-      <c r="Z5" s="30">
-        <v>1001</v>
-      </c>
-      <c r="AA5" s="34">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="AB5" s="34">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="AC5" s="34">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="AD5" s="34">
-        <v>0.246</v>
-      </c>
-      <c r="AE5" s="34">
+      <c r="W5" s="28">
+        <v>433</v>
+      </c>
+      <c r="X5" s="28">
+        <v>1183</v>
+      </c>
+      <c r="Y5" s="28">
+        <v>257</v>
+      </c>
+      <c r="Z5" s="28">
+        <v>1021</v>
+      </c>
+      <c r="AA5" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB5" s="31">
+        <v>0.442</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AE5" s="31">
+        <v>0.24</v>
+      </c>
+      <c r="AF5" s="31">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF5" s="34">
+      <c r="AG5" s="31">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AG5" s="34">
-        <v>1.68</v>
-      </c>
-      <c r="AH5" s="34">
+      <c r="AH5" s="31">
+        <v>1.615</v>
+      </c>
+      <c r="AI5" s="31">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AI5" s="34">
-        <v>2.3849999999999998</v>
-      </c>
-      <c r="AJ5" s="27">
-        <v>800</v>
-      </c>
-      <c r="AK5" s="30">
-        <v>16292</v>
-      </c>
-      <c r="AL5" s="30">
-        <v>5258</v>
-      </c>
-      <c r="AM5" s="27">
-        <v>7.86</v>
-      </c>
-      <c r="AN5" s="27">
-        <v>20.66</v>
-      </c>
-      <c r="AO5" s="27">
-        <v>20.52</v>
-      </c>
-      <c r="AP5" s="27">
-        <v>9.75</v>
-      </c>
-      <c r="AQ5" s="27">
-        <f>3*60+28.7</f>
-        <v>208.7</v>
-      </c>
-      <c r="AR5" s="39">
-        <f t="shared" si="0"/>
-        <v>28396</v>
-      </c>
-      <c r="AS5" s="40">
-        <f t="shared" ref="AS5:AS12" si="3">1/F5</f>
-        <v>1.2441060475994973E-2</v>
-      </c>
-      <c r="AT5" s="40">
-        <f t="shared" si="1"/>
-        <v>3.2109999999999999</v>
-      </c>
-      <c r="AU5" s="40">
-        <f t="shared" ref="AU5:AU12" si="4">AQ5</f>
-        <v>208.7</v>
-      </c>
-      <c r="AV5" s="39">
-        <f t="shared" ref="AV5:AV12" si="5">AR5*AS5</f>
-        <v>353.27635327635323</v>
-      </c>
-      <c r="AW5" s="40">
-        <f t="shared" ref="AW5:AW12" si="6">AR5*AU5</f>
-        <v>5926245.1999999993</v>
-      </c>
-      <c r="AX5" s="40">
-        <f t="shared" ref="AX5:AX12" si="7">AT5*AS5</f>
-        <v>3.9948245188419856E-2</v>
-      </c>
-      <c r="AY5" s="42">
-        <f t="shared" ref="AY5:AY12" si="8">AT5*AU5</f>
-        <v>670.13569999999993</v>
-      </c>
-      <c r="AZ5" s="21"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
+      <c r="AJ5" s="32">
+        <v>2.31</v>
+      </c>
+      <c r="AK5" s="32">
+        <f>60+56.2</f>
+        <v>116.2</v>
+      </c>
+      <c r="AL5" s="28">
+        <v>781</v>
+      </c>
+      <c r="AM5" s="24">
+        <v>13.48</v>
+      </c>
+      <c r="AN5" s="28">
+        <v>15876</v>
+      </c>
+      <c r="AO5" s="24">
+        <v>10.84</v>
+      </c>
+      <c r="AP5" s="28">
+        <v>5123</v>
+      </c>
+      <c r="AQ5" s="24">
+        <v>10.58</v>
+      </c>
+      <c r="AR5" s="25">
+        <v>8.06</v>
+      </c>
+      <c r="AS5" s="24">
+        <v>25.28</v>
+      </c>
+      <c r="AT5" s="24">
+        <v>21.15</v>
+      </c>
+      <c r="AU5" s="28">
+        <v>7536</v>
+      </c>
+      <c r="AV5" s="24">
+        <v>10.59</v>
+      </c>
+      <c r="AW5" s="24">
+        <f>3*60+39.28</f>
+        <v>219.28</v>
+      </c>
+      <c r="AX5" s="38">
+        <f t="shared" ref="AX5:AX13" si="0">I5+J5</f>
+        <v>26793</v>
+      </c>
+      <c r="AY5" s="39">
+        <f>1/F5</f>
+        <v>1.2418966245249744E-2</v>
+      </c>
+      <c r="AZ5" s="39">
+        <f t="shared" ref="AZ5:AZ13" si="1">M5</f>
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="BA5" s="39">
+        <f>AW5</f>
+        <v>219.28</v>
+      </c>
+      <c r="BB5" s="40">
+        <f>AX5*AY5</f>
+        <v>332.74136260897637</v>
+      </c>
+      <c r="BC5" s="39">
+        <f>AX5*BA5</f>
+        <v>5875169.04</v>
+      </c>
+      <c r="BD5" s="39">
+        <f>AZ5*AY5</f>
+        <v>3.9591664389856188E-2</v>
+      </c>
+      <c r="BE5" s="41">
+        <f>AZ5*BA5</f>
+        <v>699.06464000000005</v>
+      </c>
+      <c r="BF5" s="20"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1"/>
-    </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+    </row>
+    <row r="6" spans="1:71" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="10">
         <v>19</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>60</v>
+      <c r="E6" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="F6" s="33">
-        <v>80.483000000000004</v>
+        <v>80.340999999999994</v>
       </c>
       <c r="G6" s="33">
         <v>106.32899999999999</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>80</v>
       </c>
-      <c r="I6" s="12">
-        <v>10468</v>
-      </c>
-      <c r="J6" s="12">
-        <v>17894</v>
-      </c>
-      <c r="K6" s="12">
-        <v>2.4689999999999999</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="M6" s="12">
-        <v>3.2269999999999999</v>
-      </c>
-      <c r="N6" s="46">
-        <f t="shared" si="2"/>
-        <v>4.0095423878334549E-2</v>
-      </c>
-      <c r="O6" s="31">
+      <c r="I6" s="10">
+        <v>10478</v>
+      </c>
+      <c r="J6" s="10">
+        <v>17866</v>
+      </c>
+      <c r="K6" s="58">
+        <v>2.468</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="M6" s="10">
+        <v>3.2120000000000002</v>
+      </c>
+      <c r="N6" s="45">
+        <f t="shared" ref="N6:N8" si="2">M6/F6</f>
+        <v>3.9979587010368307E-2</v>
+      </c>
+      <c r="O6" s="29">
         <v>100</v>
       </c>
-      <c r="P6" s="31">
-        <v>117</v>
-      </c>
-      <c r="Q6" s="31">
+      <c r="P6" s="29">
+        <v>116</v>
+      </c>
+      <c r="Q6" s="29">
         <v>67</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="29">
         <v>100</v>
       </c>
-      <c r="S6" s="31">
-        <v>816</v>
-      </c>
-      <c r="T6" s="31">
-        <v>717</v>
-      </c>
-      <c r="U6" s="31">
-        <v>83</v>
-      </c>
-      <c r="V6" s="31">
-        <v>150</v>
-      </c>
-      <c r="W6" s="31">
-        <v>434</v>
-      </c>
-      <c r="X6" s="31">
+      <c r="S6" s="29">
+        <v>800</v>
+      </c>
+      <c r="T6" s="29">
+        <v>733</v>
+      </c>
+      <c r="U6" s="29">
+        <v>84</v>
+      </c>
+      <c r="V6" s="29">
+        <v>133</v>
+      </c>
+      <c r="W6" s="29">
+        <v>450</v>
+      </c>
+      <c r="X6" s="29">
         <v>1150</v>
       </c>
-      <c r="Y6" s="31">
-        <v>257</v>
-      </c>
-      <c r="Z6" s="31">
-        <v>1006</v>
-      </c>
-      <c r="AA6" s="33">
+      <c r="Y6" s="29">
+        <v>259</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>1003</v>
+      </c>
+      <c r="AA6" s="26">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AB6" s="33">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AB6" s="33">
-        <v>0.28999999999999998</v>
-      </c>
       <c r="AC6" s="33">
-        <v>0.27400000000000002</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="AD6" s="33">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AE6" s="33">
         <v>0.246</v>
       </c>
-      <c r="AE6" s="33">
+      <c r="AF6" s="33">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AF6" s="33">
+      <c r="AG6" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AG6" s="33">
-        <v>1.68</v>
-      </c>
       <c r="AH6" s="33">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="AI6" s="33">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AI6" s="33">
+      <c r="AJ6" s="33">
         <v>2.3839999999999999</v>
       </c>
-      <c r="AJ6" s="26">
-        <v>801</v>
-      </c>
-      <c r="AK6" s="31">
-        <v>16286</v>
-      </c>
-      <c r="AL6" s="31">
-        <v>5257</v>
+      <c r="AK6" s="33">
+        <f>60+53.22</f>
+        <v>113.22</v>
+      </c>
+      <c r="AL6" s="29">
+        <v>800</v>
       </c>
       <c r="AM6" s="26">
-        <v>7.86</v>
-      </c>
-      <c r="AN6" s="26">
-        <v>20.53</v>
+        <v>13.14</v>
+      </c>
+      <c r="AN6" s="29">
+        <v>16335</v>
       </c>
       <c r="AO6" s="26">
-        <v>20.41</v>
-      </c>
-      <c r="AP6" s="26">
-        <v>9.85</v>
+        <v>10.54</v>
+      </c>
+      <c r="AP6" s="29">
+        <v>5284</v>
       </c>
       <c r="AQ6" s="26">
-        <f>3*60+29.23</f>
-        <v>209.23</v>
-      </c>
-      <c r="AR6" s="39">
-        <f t="shared" si="0"/>
-        <v>28362</v>
-      </c>
-      <c r="AS6" s="40">
-        <f t="shared" si="3"/>
-        <v>1.2424984158145198E-2</v>
-      </c>
-      <c r="AT6" s="40">
-        <f t="shared" si="1"/>
-        <v>3.2269999999999999</v>
-      </c>
-      <c r="AU6" s="40">
-        <f t="shared" si="4"/>
-        <v>209.23</v>
-      </c>
-      <c r="AV6" s="39">
-        <f t="shared" si="5"/>
-        <v>352.39740069331413</v>
-      </c>
-      <c r="AW6" s="40">
-        <f t="shared" si="6"/>
-        <v>5934181.2599999998</v>
-      </c>
-      <c r="AX6" s="40">
-        <f t="shared" si="7"/>
-        <v>4.0095423878334556E-2</v>
-      </c>
-      <c r="AY6" s="42">
-        <f t="shared" si="8"/>
-        <v>675.18520999999998</v>
-      </c>
-      <c r="AZ6" s="22"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
-      <c r="BG6" s="1"/>
-      <c r="BH6" s="1"/>
-      <c r="BI6" s="1"/>
-      <c r="BJ6" s="1"/>
-      <c r="BK6" s="1"/>
-      <c r="BL6" s="1"/>
-      <c r="BM6" s="1"/>
-    </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="46" t="e">
+        <v>10.51</v>
+      </c>
+      <c r="AR6" s="26">
+        <v>7.66</v>
+      </c>
+      <c r="AS6" s="26">
+        <v>24.41</v>
+      </c>
+      <c r="AT6" s="26">
+        <v>20.3</v>
+      </c>
+      <c r="AU6" s="29">
+        <v>7345</v>
+      </c>
+      <c r="AV6" s="26">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AW6" s="26">
+        <f>3*60+33.06</f>
+        <v>213.06</v>
+      </c>
+      <c r="AX6" s="38">
+        <f t="shared" ref="AX6:AX7" si="3">I6+J6</f>
+        <v>28344</v>
+      </c>
+      <c r="AY6" s="39">
+        <f t="shared" ref="AY6:AY7" si="4">1/F6</f>
+        <v>1.244694489737494E-2</v>
+      </c>
+      <c r="AZ6" s="39">
+        <f t="shared" ref="AZ6:AZ7" si="5">M6</f>
+        <v>3.2120000000000002</v>
+      </c>
+      <c r="BA6" s="39">
+        <f t="shared" ref="BA6:BA7" si="6">AW6</f>
+        <v>213.06</v>
+      </c>
+      <c r="BB6" s="38">
+        <f t="shared" ref="BB6:BB7" si="7">AX6*AY6</f>
+        <v>352.79620617119531</v>
+      </c>
+      <c r="BC6" s="39">
+        <f t="shared" ref="BC6:BC7" si="8">AX6*BA6</f>
+        <v>6038972.6399999997</v>
+      </c>
+      <c r="BD6" s="39">
+        <f t="shared" ref="BD6:BD7" si="9">AZ6*AY6</f>
+        <v>3.9979587010368307E-2</v>
+      </c>
+      <c r="BE6" s="41">
+        <f t="shared" ref="BE6:BE7" si="10">AZ6*BA6</f>
+        <v>684.34872000000007</v>
+      </c>
+      <c r="BF6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG6" s="64"/>
+      <c r="BH6" s="64"/>
+      <c r="BI6" s="64"/>
+      <c r="BJ6" s="65"/>
+      <c r="BK6" s="65"/>
+      <c r="BL6" s="65"/>
+      <c r="BM6" s="65"/>
+      <c r="BN6" s="65"/>
+      <c r="BO6" s="65"/>
+      <c r="BP6" s="65"/>
+      <c r="BQ6" s="65"/>
+      <c r="BR6" s="65"/>
+      <c r="BS6" s="65"/>
+    </row>
+    <row r="7" spans="1:71" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="27"/>
-      <c r="AR7" s="39">
-        <f t="shared" si="0"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="38">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AS7" s="40" t="e">
-        <f t="shared" si="3"/>
+      <c r="AY7" s="39" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT7" s="40">
-        <f t="shared" si="1"/>
+      <c r="AZ7" s="39">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AU7" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AV7" s="39" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW7" s="40">
+      <c r="BA7" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AX7" s="40" t="e">
+      <c r="BB7" s="38" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY7" s="42">
+      <c r="BC7" s="39">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
-      <c r="BL7" s="1"/>
-      <c r="BM7" s="1"/>
-    </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="46" t="e">
+      <c r="BD7" s="39" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE7" s="41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BF7" s="22"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="62"/>
+      <c r="BK7" s="62"/>
+      <c r="BL7" s="62"/>
+      <c r="BM7" s="62"/>
+      <c r="BN7" s="62"/>
+      <c r="BO7" s="62"/>
+      <c r="BP7" s="62"/>
+      <c r="BQ7" s="62"/>
+      <c r="BR7" s="62"/>
+      <c r="BS7" s="62"/>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
       <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="29"/>
       <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
+      <c r="AN8" s="29"/>
       <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
+      <c r="AP8" s="29"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="39">
-        <f t="shared" si="0"/>
+      <c r="AR8" s="26"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="26"/>
+      <c r="AW8" s="26"/>
+      <c r="AX8" s="38">
+        <f t="shared" ref="AX8" si="11">I8+J8</f>
         <v>0</v>
       </c>
-      <c r="AS8" s="40" t="e">
-        <f t="shared" si="3"/>
+      <c r="AY8" s="39" t="e">
+        <f t="shared" ref="AY8" si="12">1/F8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT8" s="40">
-        <f t="shared" si="1"/>
+      <c r="AZ8" s="39">
+        <f t="shared" ref="AZ8" si="13">M8</f>
         <v>0</v>
       </c>
-      <c r="AU8" s="40">
-        <f t="shared" si="4"/>
+      <c r="BA8" s="39">
+        <f t="shared" ref="BA8" si="14">AW8</f>
         <v>0</v>
       </c>
-      <c r="AV8" s="39" t="e">
-        <f t="shared" si="5"/>
+      <c r="BB8" s="38" t="e">
+        <f t="shared" ref="BB8" si="15">AX8*AY8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW8" s="40">
-        <f t="shared" si="6"/>
+      <c r="BC8" s="39">
+        <f t="shared" ref="BC8" si="16">AX8*BA8</f>
         <v>0</v>
       </c>
-      <c r="AX8" s="40" t="e">
-        <f t="shared" si="7"/>
+      <c r="BD8" s="39" t="e">
+        <f t="shared" ref="BD8" si="17">AZ8*AY8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY8" s="42">
-        <f t="shared" si="8"/>
+      <c r="BE8" s="41">
+        <f t="shared" ref="BE8" si="18">AZ8*BA8</f>
         <v>0</v>
       </c>
-      <c r="AZ8" s="22"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
-      <c r="BI8" s="1"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
       <c r="BM8" s="1"/>
-    </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="46" t="e">
-        <f t="shared" si="2"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="45" t="e">
+        <f t="shared" ref="N9:N13" si="19">M9/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="39">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS9" s="40" t="e">
-        <f t="shared" si="3"/>
+      <c r="AY9" s="39" t="e">
+        <f t="shared" ref="AY9:AY13" si="20">1/F9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT9" s="40">
+      <c r="AZ9" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU9" s="40">
-        <f t="shared" si="4"/>
+      <c r="BA9" s="39">
+        <f t="shared" ref="BA9:BA13" si="21">AW9</f>
         <v>0</v>
       </c>
-      <c r="AV9" s="39" t="e">
-        <f t="shared" si="5"/>
+      <c r="BB9" s="38" t="e">
+        <f t="shared" ref="BB9:BB13" si="22">AX9*AY9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW9" s="40">
-        <f t="shared" si="6"/>
+      <c r="BC9" s="39">
+        <f t="shared" ref="BC9:BC13" si="23">AX9*BA9</f>
         <v>0</v>
       </c>
-      <c r="AX9" s="40" t="e">
-        <f t="shared" si="7"/>
+      <c r="BD9" s="39" t="e">
+        <f t="shared" ref="BD9:BD13" si="24">AZ9*AY9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY9" s="42">
-        <f t="shared" si="8"/>
+      <c r="BE9" s="41">
+        <f t="shared" ref="BE9:BE13" si="25">AZ9*BA9</f>
         <v>0</v>
       </c>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
+      <c r="BF9" s="22"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
       <c r="BM9" s="1"/>
-    </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="46" t="e">
-        <f t="shared" si="2"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="45" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
       <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="33"/>
       <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
+      <c r="AN10" s="29"/>
       <c r="AO10" s="26"/>
-      <c r="AP10" s="26"/>
+      <c r="AP10" s="29"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="39">
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="29"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS10" s="40" t="e">
-        <f t="shared" si="3"/>
+      <c r="AY10" s="39" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT10" s="40">
+      <c r="AZ10" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU10" s="40">
-        <f t="shared" si="4"/>
+      <c r="BA10" s="39">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AV10" s="39" t="e">
-        <f t="shared" si="5"/>
+      <c r="BB10" s="38" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW10" s="40">
-        <f t="shared" si="6"/>
+      <c r="BC10" s="39">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AX10" s="40" t="e">
-        <f t="shared" si="7"/>
+      <c r="BD10" s="39" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY10" s="42">
-        <f t="shared" si="8"/>
+      <c r="BE10" s="41">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AZ10" s="22"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
       <c r="BM10" s="1"/>
-    </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="46" t="e">
-        <f t="shared" si="2"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+    </row>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="45" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="27"/>
-      <c r="AR11" s="39">
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="25"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS11" s="40" t="e">
-        <f t="shared" si="3"/>
+      <c r="AY11" s="39" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT11" s="40">
+      <c r="AZ11" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU11" s="40">
-        <f t="shared" si="4"/>
+      <c r="BA11" s="39">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AV11" s="39" t="e">
-        <f t="shared" si="5"/>
+      <c r="BB11" s="38" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW11" s="40">
-        <f t="shared" si="6"/>
+      <c r="BC11" s="39">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AX11" s="40" t="e">
-        <f t="shared" si="7"/>
+      <c r="BD11" s="39" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY11" s="42">
-        <f t="shared" si="8"/>
+      <c r="BE11" s="41">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
+      <c r="BF11" s="22"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
       <c r="BM11" s="1"/>
-    </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="46" t="e">
-        <f t="shared" si="2"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="45" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="28"/>
-      <c r="AR12" s="43">
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS12" s="44" t="e">
-        <f t="shared" si="3"/>
+      <c r="AY12" s="39" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT12" s="44">
+      <c r="AZ12" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AU12" s="44">
-        <f t="shared" si="4"/>
+      <c r="BA12" s="39">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AV12" s="43" t="e">
-        <f t="shared" si="5"/>
+      <c r="BB12" s="38" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW12" s="44">
-        <f t="shared" si="6"/>
+      <c r="BC12" s="39">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AX12" s="44" t="e">
-        <f t="shared" si="7"/>
+      <c r="BD12" s="39" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AY12" s="45">
-        <f t="shared" si="8"/>
+      <c r="BE12" s="41">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AZ12" s="23"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
+      <c r="BF12" s="21"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
       <c r="BM12" s="1"/>
-    </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+    </row>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="45" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="27"/>
+      <c r="AW13" s="27"/>
+      <c r="AX13" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="43" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ13" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="43">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="42" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC13" s="43">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="43" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE13" s="44">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BF13" s="23"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
       <c r="BM13" s="1"/>
-    </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2868,18 +2966,24 @@
       <c r="BA14" s="3"/>
       <c r="BB14" s="3"/>
       <c r="BC14" s="3"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
       <c r="BM14" s="1"/>
-    </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+    </row>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2935,18 +3039,24 @@
       <c r="BA15" s="3"/>
       <c r="BB15" s="3"/>
       <c r="BC15" s="3"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
       <c r="BM15" s="1"/>
-    </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+    </row>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3002,18 +3112,24 @@
       <c r="BA16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BC16" s="3"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1"/>
       <c r="BM16" s="1"/>
-    </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+    </row>
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3069,18 +3185,24 @@
       <c r="BA17" s="3"/>
       <c r="BB17" s="3"/>
       <c r="BC17" s="3"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
       <c r="BL17" s="1"/>
       <c r="BM17" s="1"/>
-    </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+    </row>
+    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3136,18 +3258,24 @@
       <c r="BA18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BC18" s="3"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
       <c r="BL18" s="1"/>
       <c r="BM18" s="1"/>
-    </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+    </row>
+    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3203,18 +3331,24 @@
       <c r="BA19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BC19" s="3"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
       <c r="BL19" s="1"/>
       <c r="BM19" s="1"/>
-    </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+    </row>
+    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3270,18 +3404,24 @@
       <c r="BA20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BC20" s="3"/>
-      <c r="BD20" s="1"/>
-      <c r="BE20" s="1"/>
-      <c r="BF20" s="1"/>
-      <c r="BG20" s="1"/>
-      <c r="BH20" s="1"/>
-      <c r="BI20" s="1"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
       <c r="BM20" s="1"/>
-    </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+    </row>
+    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3337,18 +3477,24 @@
       <c r="BA21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BC21" s="3"/>
-      <c r="BD21" s="1"/>
-      <c r="BE21" s="1"/>
-      <c r="BF21" s="1"/>
-      <c r="BG21" s="1"/>
-      <c r="BH21" s="1"/>
-      <c r="BI21" s="1"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
       <c r="BM21" s="1"/>
-    </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+    </row>
+    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3404,18 +3550,24 @@
       <c r="BA22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BC22" s="3"/>
-      <c r="BD22" s="1"/>
-      <c r="BE22" s="1"/>
-      <c r="BF22" s="1"/>
-      <c r="BG22" s="1"/>
-      <c r="BH22" s="1"/>
-      <c r="BI22" s="1"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
       <c r="BL22" s="1"/>
       <c r="BM22" s="1"/>
-    </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+    </row>
+    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3471,18 +3623,24 @@
       <c r="BA23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BC23" s="3"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1"/>
-      <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
-      <c r="BI23" s="1"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
       <c r="BL23" s="1"/>
       <c r="BM23" s="1"/>
-    </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+    </row>
+    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3538,18 +3696,24 @@
       <c r="BA24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BC24" s="3"/>
-      <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
-      <c r="BF24" s="1"/>
-      <c r="BG24" s="1"/>
-      <c r="BH24" s="1"/>
-      <c r="BI24" s="1"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
       <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
       <c r="BL24" s="1"/>
       <c r="BM24" s="1"/>
-    </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+    </row>
+    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3605,18 +3769,24 @@
       <c r="BA25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BC25" s="3"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="1"/>
-      <c r="BG25" s="1"/>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
       <c r="BL25" s="1"/>
       <c r="BM25" s="1"/>
-    </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+    </row>
+    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3672,18 +3842,24 @@
       <c r="BA26" s="3"/>
       <c r="BB26" s="3"/>
       <c r="BC26" s="3"/>
-      <c r="BD26" s="1"/>
-      <c r="BE26" s="1"/>
-      <c r="BF26" s="1"/>
-      <c r="BG26" s="1"/>
-      <c r="BH26" s="1"/>
-      <c r="BI26" s="1"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
       <c r="BL26" s="1"/>
       <c r="BM26" s="1"/>
-    </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+    </row>
+    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3739,18 +3915,24 @@
       <c r="BA27" s="3"/>
       <c r="BB27" s="3"/>
       <c r="BC27" s="3"/>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="1"/>
-      <c r="BF27" s="1"/>
-      <c r="BG27" s="1"/>
-      <c r="BH27" s="1"/>
-      <c r="BI27" s="1"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
       <c r="BL27" s="1"/>
       <c r="BM27" s="1"/>
-    </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+    </row>
+    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3806,18 +3988,24 @@
       <c r="BA28" s="3"/>
       <c r="BB28" s="3"/>
       <c r="BC28" s="3"/>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="1"/>
-      <c r="BF28" s="1"/>
-      <c r="BG28" s="1"/>
-      <c r="BH28" s="1"/>
-      <c r="BI28" s="1"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
       <c r="BL28" s="1"/>
       <c r="BM28" s="1"/>
-    </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+    </row>
+    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3873,18 +4061,24 @@
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
       <c r="BC29" s="3"/>
-      <c r="BD29" s="1"/>
-      <c r="BE29" s="1"/>
-      <c r="BF29" s="1"/>
-      <c r="BG29" s="1"/>
-      <c r="BH29" s="1"/>
-      <c r="BI29" s="1"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
       <c r="BL29" s="1"/>
       <c r="BM29" s="1"/>
-    </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+    </row>
+    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3940,18 +4134,24 @@
       <c r="BA30" s="3"/>
       <c r="BB30" s="3"/>
       <c r="BC30" s="3"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
-      <c r="BF30" s="1"/>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
-      <c r="BI30" s="1"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
       <c r="BL30" s="1"/>
       <c r="BM30" s="1"/>
-    </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+    </row>
+    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4007,18 +4207,24 @@
       <c r="BA31" s="3"/>
       <c r="BB31" s="3"/>
       <c r="BC31" s="3"/>
-      <c r="BD31" s="1"/>
-      <c r="BE31" s="1"/>
-      <c r="BF31" s="1"/>
-      <c r="BG31" s="1"/>
-      <c r="BH31" s="1"/>
-      <c r="BI31" s="1"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
       <c r="BL31" s="1"/>
       <c r="BM31" s="1"/>
-    </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+    </row>
+    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4074,18 +4280,24 @@
       <c r="BA32" s="3"/>
       <c r="BB32" s="3"/>
       <c r="BC32" s="3"/>
-      <c r="BD32" s="1"/>
-      <c r="BE32" s="1"/>
-      <c r="BF32" s="1"/>
-      <c r="BG32" s="1"/>
-      <c r="BH32" s="1"/>
-      <c r="BI32" s="1"/>
+      <c r="BD32" s="3"/>
+      <c r="BE32" s="3"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
+      <c r="BH32" s="3"/>
+      <c r="BI32" s="3"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
       <c r="BL32" s="1"/>
       <c r="BM32" s="1"/>
-    </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+    </row>
+    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4141,18 +4353,24 @@
       <c r="BA33" s="3"/>
       <c r="BB33" s="3"/>
       <c r="BC33" s="3"/>
-      <c r="BD33" s="1"/>
-      <c r="BE33" s="1"/>
-      <c r="BF33" s="1"/>
-      <c r="BG33" s="1"/>
-      <c r="BH33" s="1"/>
-      <c r="BI33" s="1"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
       <c r="BL33" s="1"/>
       <c r="BM33" s="1"/>
-    </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+    </row>
+    <row r="34" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4208,18 +4426,24 @@
       <c r="BA34" s="3"/>
       <c r="BB34" s="3"/>
       <c r="BC34" s="3"/>
-      <c r="BD34" s="1"/>
-      <c r="BE34" s="1"/>
-      <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
-      <c r="BH34" s="1"/>
-      <c r="BI34" s="1"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
       <c r="BL34" s="1"/>
       <c r="BM34" s="1"/>
-    </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+    </row>
+    <row r="35" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4275,18 +4499,24 @@
       <c r="BA35" s="3"/>
       <c r="BB35" s="3"/>
       <c r="BC35" s="3"/>
-      <c r="BD35" s="1"/>
-      <c r="BE35" s="1"/>
-      <c r="BF35" s="1"/>
-      <c r="BG35" s="1"/>
-      <c r="BH35" s="1"/>
-      <c r="BI35" s="1"/>
+      <c r="BD35" s="3"/>
+      <c r="BE35" s="3"/>
+      <c r="BF35" s="3"/>
+      <c r="BG35" s="3"/>
+      <c r="BH35" s="3"/>
+      <c r="BI35" s="3"/>
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
       <c r="BL35" s="1"/>
       <c r="BM35" s="1"/>
-    </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+    </row>
+    <row r="36" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4342,18 +4572,24 @@
       <c r="BA36" s="3"/>
       <c r="BB36" s="3"/>
       <c r="BC36" s="3"/>
-      <c r="BD36" s="1"/>
-      <c r="BE36" s="1"/>
-      <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
-      <c r="BH36" s="1"/>
-      <c r="BI36" s="1"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="3"/>
+      <c r="BI36" s="3"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
       <c r="BL36" s="1"/>
       <c r="BM36" s="1"/>
-    </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+    </row>
+    <row r="37" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4409,18 +4645,24 @@
       <c r="BA37" s="3"/>
       <c r="BB37" s="3"/>
       <c r="BC37" s="3"/>
-      <c r="BD37" s="1"/>
-      <c r="BE37" s="1"/>
-      <c r="BF37" s="1"/>
-      <c r="BG37" s="1"/>
-      <c r="BH37" s="1"/>
-      <c r="BI37" s="1"/>
+      <c r="BD37" s="3"/>
+      <c r="BE37" s="3"/>
+      <c r="BF37" s="3"/>
+      <c r="BG37" s="3"/>
+      <c r="BH37" s="3"/>
+      <c r="BI37" s="3"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
       <c r="BL37" s="1"/>
       <c r="BM37" s="1"/>
-    </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+    </row>
+    <row r="38" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4476,18 +4718,24 @@
       <c r="BA38" s="3"/>
       <c r="BB38" s="3"/>
       <c r="BC38" s="3"/>
-      <c r="BD38" s="1"/>
-      <c r="BE38" s="1"/>
-      <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
-      <c r="BH38" s="1"/>
-      <c r="BI38" s="1"/>
+      <c r="BD38" s="3"/>
+      <c r="BE38" s="3"/>
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="3"/>
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
       <c r="BL38" s="1"/>
       <c r="BM38" s="1"/>
-    </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+    </row>
+    <row r="39" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4543,18 +4791,24 @@
       <c r="BA39" s="3"/>
       <c r="BB39" s="3"/>
       <c r="BC39" s="3"/>
-      <c r="BD39" s="1"/>
-      <c r="BE39" s="1"/>
-      <c r="BF39" s="1"/>
-      <c r="BG39" s="1"/>
-      <c r="BH39" s="1"/>
-      <c r="BI39" s="1"/>
+      <c r="BD39" s="3"/>
+      <c r="BE39" s="3"/>
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="3"/>
+      <c r="BH39" s="3"/>
+      <c r="BI39" s="3"/>
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
       <c r="BL39" s="1"/>
       <c r="BM39" s="1"/>
-    </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+    </row>
+    <row r="40" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4610,18 +4864,24 @@
       <c r="BA40" s="3"/>
       <c r="BB40" s="3"/>
       <c r="BC40" s="3"/>
-      <c r="BD40" s="1"/>
-      <c r="BE40" s="1"/>
-      <c r="BF40" s="1"/>
-      <c r="BG40" s="1"/>
-      <c r="BH40" s="1"/>
-      <c r="BI40" s="1"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
       <c r="BL40" s="1"/>
       <c r="BM40" s="1"/>
-    </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+    </row>
+    <row r="41" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4677,18 +4937,24 @@
       <c r="BA41" s="3"/>
       <c r="BB41" s="3"/>
       <c r="BC41" s="3"/>
-      <c r="BD41" s="1"/>
-      <c r="BE41" s="1"/>
-      <c r="BF41" s="1"/>
-      <c r="BG41" s="1"/>
-      <c r="BH41" s="1"/>
-      <c r="BI41" s="1"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
       <c r="BL41" s="1"/>
       <c r="BM41" s="1"/>
-    </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+    </row>
+    <row r="42" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4744,18 +5010,24 @@
       <c r="BA42" s="3"/>
       <c r="BB42" s="3"/>
       <c r="BC42" s="3"/>
-      <c r="BD42" s="1"/>
-      <c r="BE42" s="1"/>
-      <c r="BF42" s="1"/>
-      <c r="BG42" s="1"/>
-      <c r="BH42" s="1"/>
-      <c r="BI42" s="1"/>
+      <c r="BD42" s="3"/>
+      <c r="BE42" s="3"/>
+      <c r="BF42" s="3"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
+      <c r="BI42" s="3"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
       <c r="BL42" s="1"/>
       <c r="BM42" s="1"/>
-    </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
+    </row>
+    <row r="43" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4811,18 +5083,24 @@
       <c r="BA43" s="3"/>
       <c r="BB43" s="3"/>
       <c r="BC43" s="3"/>
-      <c r="BD43" s="1"/>
-      <c r="BE43" s="1"/>
-      <c r="BF43" s="1"/>
-      <c r="BG43" s="1"/>
-      <c r="BH43" s="1"/>
-      <c r="BI43" s="1"/>
+      <c r="BD43" s="3"/>
+      <c r="BE43" s="3"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3"/>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
       <c r="BL43" s="1"/>
       <c r="BM43" s="1"/>
-    </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+    </row>
+    <row r="44" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4878,18 +5156,24 @@
       <c r="BA44" s="3"/>
       <c r="BB44" s="3"/>
       <c r="BC44" s="3"/>
-      <c r="BD44" s="1"/>
-      <c r="BE44" s="1"/>
-      <c r="BF44" s="1"/>
-      <c r="BG44" s="1"/>
-      <c r="BH44" s="1"/>
-      <c r="BI44" s="1"/>
+      <c r="BD44" s="3"/>
+      <c r="BE44" s="3"/>
+      <c r="BF44" s="3"/>
+      <c r="BG44" s="3"/>
+      <c r="BH44" s="3"/>
+      <c r="BI44" s="3"/>
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
       <c r="BL44" s="1"/>
       <c r="BM44" s="1"/>
-    </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+    </row>
+    <row r="45" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4945,18 +5229,24 @@
       <c r="BA45" s="3"/>
       <c r="BB45" s="3"/>
       <c r="BC45" s="3"/>
-      <c r="BD45" s="1"/>
-      <c r="BE45" s="1"/>
-      <c r="BF45" s="1"/>
-      <c r="BG45" s="1"/>
-      <c r="BH45" s="1"/>
-      <c r="BI45" s="1"/>
+      <c r="BD45" s="3"/>
+      <c r="BE45" s="3"/>
+      <c r="BF45" s="3"/>
+      <c r="BG45" s="3"/>
+      <c r="BH45" s="3"/>
+      <c r="BI45" s="3"/>
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
       <c r="BL45" s="1"/>
       <c r="BM45" s="1"/>
-    </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+    </row>
+    <row r="46" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5012,18 +5302,24 @@
       <c r="BA46" s="3"/>
       <c r="BB46" s="3"/>
       <c r="BC46" s="3"/>
-      <c r="BD46" s="1"/>
-      <c r="BE46" s="1"/>
-      <c r="BF46" s="1"/>
-      <c r="BG46" s="1"/>
-      <c r="BH46" s="1"/>
-      <c r="BI46" s="1"/>
+      <c r="BD46" s="3"/>
+      <c r="BE46" s="3"/>
+      <c r="BF46" s="3"/>
+      <c r="BG46" s="3"/>
+      <c r="BH46" s="3"/>
+      <c r="BI46" s="3"/>
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
       <c r="BL46" s="1"/>
       <c r="BM46" s="1"/>
-    </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="1"/>
+      <c r="BP46" s="1"/>
+      <c r="BQ46" s="1"/>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="1"/>
+    </row>
+    <row r="47" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -5079,18 +5375,24 @@
       <c r="BA47" s="3"/>
       <c r="BB47" s="3"/>
       <c r="BC47" s="3"/>
-      <c r="BD47" s="1"/>
-      <c r="BE47" s="1"/>
-      <c r="BF47" s="1"/>
-      <c r="BG47" s="1"/>
-      <c r="BH47" s="1"/>
-      <c r="BI47" s="1"/>
+      <c r="BD47" s="3"/>
+      <c r="BE47" s="3"/>
+      <c r="BF47" s="3"/>
+      <c r="BG47" s="3"/>
+      <c r="BH47" s="3"/>
+      <c r="BI47" s="3"/>
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
       <c r="BL47" s="1"/>
       <c r="BM47" s="1"/>
-    </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="1"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="1"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="1"/>
+    </row>
+    <row r="48" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -5146,18 +5448,24 @@
       <c r="BA48" s="3"/>
       <c r="BB48" s="3"/>
       <c r="BC48" s="3"/>
-      <c r="BD48" s="1"/>
-      <c r="BE48" s="1"/>
-      <c r="BF48" s="1"/>
-      <c r="BG48" s="1"/>
-      <c r="BH48" s="1"/>
-      <c r="BI48" s="1"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="3"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+      <c r="BI48" s="3"/>
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
       <c r="BL48" s="1"/>
       <c r="BM48" s="1"/>
-    </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
+      <c r="BP48" s="1"/>
+      <c r="BQ48" s="1"/>
+      <c r="BR48" s="1"/>
+      <c r="BS48" s="1"/>
+    </row>
+    <row r="49" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5213,18 +5521,24 @@
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
       <c r="BC49" s="3"/>
-      <c r="BD49" s="1"/>
-      <c r="BE49" s="1"/>
-      <c r="BF49" s="1"/>
-      <c r="BG49" s="1"/>
-      <c r="BH49" s="1"/>
-      <c r="BI49" s="1"/>
+      <c r="BD49" s="3"/>
+      <c r="BE49" s="3"/>
+      <c r="BF49" s="3"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+      <c r="BI49" s="3"/>
       <c r="BJ49" s="1"/>
       <c r="BK49" s="1"/>
       <c r="BL49" s="1"/>
       <c r="BM49" s="1"/>
-    </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+    </row>
+    <row r="50" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5280,18 +5594,24 @@
       <c r="BA50" s="3"/>
       <c r="BB50" s="3"/>
       <c r="BC50" s="3"/>
-      <c r="BD50" s="1"/>
-      <c r="BE50" s="1"/>
-      <c r="BF50" s="1"/>
-      <c r="BG50" s="1"/>
-      <c r="BH50" s="1"/>
-      <c r="BI50" s="1"/>
+      <c r="BD50" s="3"/>
+      <c r="BE50" s="3"/>
+      <c r="BF50" s="3"/>
+      <c r="BG50" s="3"/>
+      <c r="BH50" s="3"/>
+      <c r="BI50" s="3"/>
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
       <c r="BL50" s="1"/>
       <c r="BM50" s="1"/>
-    </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+    </row>
+    <row r="51" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5347,18 +5667,24 @@
       <c r="BA51" s="3"/>
       <c r="BB51" s="3"/>
       <c r="BC51" s="3"/>
-      <c r="BD51" s="1"/>
-      <c r="BE51" s="1"/>
-      <c r="BF51" s="1"/>
-      <c r="BG51" s="1"/>
-      <c r="BH51" s="1"/>
-      <c r="BI51" s="1"/>
+      <c r="BD51" s="3"/>
+      <c r="BE51" s="3"/>
+      <c r="BF51" s="3"/>
+      <c r="BG51" s="3"/>
+      <c r="BH51" s="3"/>
+      <c r="BI51" s="3"/>
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
       <c r="BL51" s="1"/>
       <c r="BM51" s="1"/>
-    </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="1"/>
+    </row>
+    <row r="52" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5414,18 +5740,24 @@
       <c r="BA52" s="3"/>
       <c r="BB52" s="3"/>
       <c r="BC52" s="3"/>
-      <c r="BD52" s="1"/>
-      <c r="BE52" s="1"/>
-      <c r="BF52" s="1"/>
-      <c r="BG52" s="1"/>
-      <c r="BH52" s="1"/>
-      <c r="BI52" s="1"/>
+      <c r="BD52" s="3"/>
+      <c r="BE52" s="3"/>
+      <c r="BF52" s="3"/>
+      <c r="BG52" s="3"/>
+      <c r="BH52" s="3"/>
+      <c r="BI52" s="3"/>
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
       <c r="BL52" s="1"/>
       <c r="BM52" s="1"/>
-    </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+    </row>
+    <row r="53" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5481,18 +5813,24 @@
       <c r="BA53" s="3"/>
       <c r="BB53" s="3"/>
       <c r="BC53" s="3"/>
-      <c r="BD53" s="1"/>
-      <c r="BE53" s="1"/>
-      <c r="BF53" s="1"/>
-      <c r="BG53" s="1"/>
-      <c r="BH53" s="1"/>
-      <c r="BI53" s="1"/>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="3"/>
+      <c r="BG53" s="3"/>
+      <c r="BH53" s="3"/>
+      <c r="BI53" s="3"/>
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
       <c r="BL53" s="1"/>
       <c r="BM53" s="1"/>
-    </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN53" s="1"/>
+      <c r="BO53" s="1"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="1"/>
+      <c r="BR53" s="1"/>
+      <c r="BS53" s="1"/>
+    </row>
+    <row r="54" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5548,18 +5886,24 @@
       <c r="BA54" s="3"/>
       <c r="BB54" s="3"/>
       <c r="BC54" s="3"/>
-      <c r="BD54" s="1"/>
-      <c r="BE54" s="1"/>
-      <c r="BF54" s="1"/>
-      <c r="BG54" s="1"/>
-      <c r="BH54" s="1"/>
-      <c r="BI54" s="1"/>
+      <c r="BD54" s="3"/>
+      <c r="BE54" s="3"/>
+      <c r="BF54" s="3"/>
+      <c r="BG54" s="3"/>
+      <c r="BH54" s="3"/>
+      <c r="BI54" s="3"/>
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
       <c r="BL54" s="1"/>
       <c r="BM54" s="1"/>
-    </row>
-    <row r="55" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN54" s="1"/>
+      <c r="BO54" s="1"/>
+      <c r="BP54" s="1"/>
+      <c r="BQ54" s="1"/>
+      <c r="BR54" s="1"/>
+      <c r="BS54" s="1"/>
+    </row>
+    <row r="55" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5615,18 +5959,24 @@
       <c r="BA55" s="3"/>
       <c r="BB55" s="3"/>
       <c r="BC55" s="3"/>
-      <c r="BD55" s="1"/>
-      <c r="BE55" s="1"/>
-      <c r="BF55" s="1"/>
-      <c r="BG55" s="1"/>
-      <c r="BH55" s="1"/>
-      <c r="BI55" s="1"/>
+      <c r="BD55" s="3"/>
+      <c r="BE55" s="3"/>
+      <c r="BF55" s="3"/>
+      <c r="BG55" s="3"/>
+      <c r="BH55" s="3"/>
+      <c r="BI55" s="3"/>
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1"/>
       <c r="BL55" s="1"/>
       <c r="BM55" s="1"/>
-    </row>
-    <row r="56" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
+    </row>
+    <row r="56" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5682,18 +6032,24 @@
       <c r="BA56" s="3"/>
       <c r="BB56" s="3"/>
       <c r="BC56" s="3"/>
-      <c r="BD56" s="1"/>
-      <c r="BE56" s="1"/>
-      <c r="BF56" s="1"/>
-      <c r="BG56" s="1"/>
-      <c r="BH56" s="1"/>
-      <c r="BI56" s="1"/>
+      <c r="BD56" s="3"/>
+      <c r="BE56" s="3"/>
+      <c r="BF56" s="3"/>
+      <c r="BG56" s="3"/>
+      <c r="BH56" s="3"/>
+      <c r="BI56" s="3"/>
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
       <c r="BL56" s="1"/>
       <c r="BM56" s="1"/>
-    </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN56" s="1"/>
+      <c r="BO56" s="1"/>
+      <c r="BP56" s="1"/>
+      <c r="BQ56" s="1"/>
+      <c r="BR56" s="1"/>
+      <c r="BS56" s="1"/>
+    </row>
+    <row r="57" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5749,18 +6105,24 @@
       <c r="BA57" s="3"/>
       <c r="BB57" s="3"/>
       <c r="BC57" s="3"/>
-      <c r="BD57" s="1"/>
-      <c r="BE57" s="1"/>
-      <c r="BF57" s="1"/>
-      <c r="BG57" s="1"/>
-      <c r="BH57" s="1"/>
-      <c r="BI57" s="1"/>
+      <c r="BD57" s="3"/>
+      <c r="BE57" s="3"/>
+      <c r="BF57" s="3"/>
+      <c r="BG57" s="3"/>
+      <c r="BH57" s="3"/>
+      <c r="BI57" s="3"/>
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
       <c r="BL57" s="1"/>
       <c r="BM57" s="1"/>
-    </row>
-    <row r="58" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN57" s="1"/>
+      <c r="BO57" s="1"/>
+      <c r="BP57" s="1"/>
+      <c r="BQ57" s="1"/>
+      <c r="BR57" s="1"/>
+      <c r="BS57" s="1"/>
+    </row>
+    <row r="58" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5816,18 +6178,24 @@
       <c r="BA58" s="3"/>
       <c r="BB58" s="3"/>
       <c r="BC58" s="3"/>
-      <c r="BD58" s="1"/>
-      <c r="BE58" s="1"/>
-      <c r="BF58" s="1"/>
-      <c r="BG58" s="1"/>
-      <c r="BH58" s="1"/>
-      <c r="BI58" s="1"/>
+      <c r="BD58" s="3"/>
+      <c r="BE58" s="3"/>
+      <c r="BF58" s="3"/>
+      <c r="BG58" s="3"/>
+      <c r="BH58" s="3"/>
+      <c r="BI58" s="3"/>
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
       <c r="BM58" s="1"/>
-    </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN58" s="1"/>
+      <c r="BO58" s="1"/>
+      <c r="BP58" s="1"/>
+      <c r="BQ58" s="1"/>
+      <c r="BR58" s="1"/>
+      <c r="BS58" s="1"/>
+    </row>
+    <row r="59" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5883,18 +6251,24 @@
       <c r="BA59" s="3"/>
       <c r="BB59" s="3"/>
       <c r="BC59" s="3"/>
-      <c r="BD59" s="1"/>
-      <c r="BE59" s="1"/>
-      <c r="BF59" s="1"/>
-      <c r="BG59" s="1"/>
-      <c r="BH59" s="1"/>
-      <c r="BI59" s="1"/>
+      <c r="BD59" s="3"/>
+      <c r="BE59" s="3"/>
+      <c r="BF59" s="3"/>
+      <c r="BG59" s="3"/>
+      <c r="BH59" s="3"/>
+      <c r="BI59" s="3"/>
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
       <c r="BM59" s="1"/>
-    </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN59" s="1"/>
+      <c r="BO59" s="1"/>
+      <c r="BP59" s="1"/>
+      <c r="BQ59" s="1"/>
+      <c r="BR59" s="1"/>
+      <c r="BS59" s="1"/>
+    </row>
+    <row r="60" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5950,18 +6324,24 @@
       <c r="BA60" s="3"/>
       <c r="BB60" s="3"/>
       <c r="BC60" s="3"/>
-      <c r="BD60" s="1"/>
-      <c r="BE60" s="1"/>
-      <c r="BF60" s="1"/>
-      <c r="BG60" s="1"/>
-      <c r="BH60" s="1"/>
-      <c r="BI60" s="1"/>
+      <c r="BD60" s="3"/>
+      <c r="BE60" s="3"/>
+      <c r="BF60" s="3"/>
+      <c r="BG60" s="3"/>
+      <c r="BH60" s="3"/>
+      <c r="BI60" s="3"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
       <c r="BL60" s="1"/>
       <c r="BM60" s="1"/>
-    </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN60" s="1"/>
+      <c r="BO60" s="1"/>
+      <c r="BP60" s="1"/>
+      <c r="BQ60" s="1"/>
+      <c r="BR60" s="1"/>
+      <c r="BS60" s="1"/>
+    </row>
+    <row r="61" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -6017,18 +6397,24 @@
       <c r="BA61" s="3"/>
       <c r="BB61" s="3"/>
       <c r="BC61" s="3"/>
-      <c r="BD61" s="1"/>
-      <c r="BE61" s="1"/>
-      <c r="BF61" s="1"/>
-      <c r="BG61" s="1"/>
-      <c r="BH61" s="1"/>
-      <c r="BI61" s="1"/>
+      <c r="BD61" s="3"/>
+      <c r="BE61" s="3"/>
+      <c r="BF61" s="3"/>
+      <c r="BG61" s="3"/>
+      <c r="BH61" s="3"/>
+      <c r="BI61" s="3"/>
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
       <c r="BM61" s="1"/>
-    </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN61" s="1"/>
+      <c r="BO61" s="1"/>
+      <c r="BP61" s="1"/>
+      <c r="BQ61" s="1"/>
+      <c r="BR61" s="1"/>
+      <c r="BS61" s="1"/>
+    </row>
+    <row r="62" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -6084,18 +6470,24 @@
       <c r="BA62" s="3"/>
       <c r="BB62" s="3"/>
       <c r="BC62" s="3"/>
-      <c r="BD62" s="1"/>
-      <c r="BE62" s="1"/>
-      <c r="BF62" s="1"/>
-      <c r="BG62" s="1"/>
-      <c r="BH62" s="1"/>
-      <c r="BI62" s="1"/>
+      <c r="BD62" s="3"/>
+      <c r="BE62" s="3"/>
+      <c r="BF62" s="3"/>
+      <c r="BG62" s="3"/>
+      <c r="BH62" s="3"/>
+      <c r="BI62" s="3"/>
       <c r="BJ62" s="1"/>
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
       <c r="BM62" s="1"/>
-    </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN62" s="1"/>
+      <c r="BO62" s="1"/>
+      <c r="BP62" s="1"/>
+      <c r="BQ62" s="1"/>
+      <c r="BR62" s="1"/>
+      <c r="BS62" s="1"/>
+    </row>
+    <row r="63" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -6151,18 +6543,24 @@
       <c r="BA63" s="3"/>
       <c r="BB63" s="3"/>
       <c r="BC63" s="3"/>
-      <c r="BD63" s="1"/>
-      <c r="BE63" s="1"/>
-      <c r="BF63" s="1"/>
-      <c r="BG63" s="1"/>
-      <c r="BH63" s="1"/>
-      <c r="BI63" s="1"/>
+      <c r="BD63" s="3"/>
+      <c r="BE63" s="3"/>
+      <c r="BF63" s="3"/>
+      <c r="BG63" s="3"/>
+      <c r="BH63" s="3"/>
+      <c r="BI63" s="3"/>
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
       <c r="BM63" s="1"/>
-    </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="1"/>
+      <c r="BQ63" s="1"/>
+      <c r="BR63" s="1"/>
+      <c r="BS63" s="1"/>
+    </row>
+    <row r="64" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6218,18 +6616,24 @@
       <c r="BA64" s="3"/>
       <c r="BB64" s="3"/>
       <c r="BC64" s="3"/>
-      <c r="BD64" s="1"/>
-      <c r="BE64" s="1"/>
-      <c r="BF64" s="1"/>
-      <c r="BG64" s="1"/>
-      <c r="BH64" s="1"/>
-      <c r="BI64" s="1"/>
+      <c r="BD64" s="3"/>
+      <c r="BE64" s="3"/>
+      <c r="BF64" s="3"/>
+      <c r="BG64" s="3"/>
+      <c r="BH64" s="3"/>
+      <c r="BI64" s="3"/>
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
-    </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN64" s="1"/>
+      <c r="BO64" s="1"/>
+      <c r="BP64" s="1"/>
+      <c r="BQ64" s="1"/>
+      <c r="BR64" s="1"/>
+      <c r="BS64" s="1"/>
+    </row>
+    <row r="65" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -6285,18 +6689,24 @@
       <c r="BA65" s="3"/>
       <c r="BB65" s="3"/>
       <c r="BC65" s="3"/>
-      <c r="BD65" s="1"/>
-      <c r="BE65" s="1"/>
-      <c r="BF65" s="1"/>
-      <c r="BG65" s="1"/>
-      <c r="BH65" s="1"/>
-      <c r="BI65" s="1"/>
+      <c r="BD65" s="3"/>
+      <c r="BE65" s="3"/>
+      <c r="BF65" s="3"/>
+      <c r="BG65" s="3"/>
+      <c r="BH65" s="3"/>
+      <c r="BI65" s="3"/>
       <c r="BJ65" s="1"/>
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
       <c r="BM65" s="1"/>
-    </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN65" s="1"/>
+      <c r="BO65" s="1"/>
+      <c r="BP65" s="1"/>
+      <c r="BQ65" s="1"/>
+      <c r="BR65" s="1"/>
+      <c r="BS65" s="1"/>
+    </row>
+    <row r="66" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -6352,18 +6762,24 @@
       <c r="BA66" s="3"/>
       <c r="BB66" s="3"/>
       <c r="BC66" s="3"/>
-      <c r="BD66" s="1"/>
-      <c r="BE66" s="1"/>
-      <c r="BF66" s="1"/>
-      <c r="BG66" s="1"/>
-      <c r="BH66" s="1"/>
-      <c r="BI66" s="1"/>
+      <c r="BD66" s="3"/>
+      <c r="BE66" s="3"/>
+      <c r="BF66" s="3"/>
+      <c r="BG66" s="3"/>
+      <c r="BH66" s="3"/>
+      <c r="BI66" s="3"/>
       <c r="BJ66" s="1"/>
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
       <c r="BM66" s="1"/>
-    </row>
-    <row r="67" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN66" s="1"/>
+      <c r="BO66" s="1"/>
+      <c r="BP66" s="1"/>
+      <c r="BQ66" s="1"/>
+      <c r="BR66" s="1"/>
+      <c r="BS66" s="1"/>
+    </row>
+    <row r="67" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -6419,18 +6835,24 @@
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
       <c r="BC67" s="3"/>
-      <c r="BD67" s="1"/>
-      <c r="BE67" s="1"/>
-      <c r="BF67" s="1"/>
-      <c r="BG67" s="1"/>
-      <c r="BH67" s="1"/>
-      <c r="BI67" s="1"/>
+      <c r="BD67" s="3"/>
+      <c r="BE67" s="3"/>
+      <c r="BF67" s="3"/>
+      <c r="BG67" s="3"/>
+      <c r="BH67" s="3"/>
+      <c r="BI67" s="3"/>
       <c r="BJ67" s="1"/>
       <c r="BK67" s="1"/>
       <c r="BL67" s="1"/>
       <c r="BM67" s="1"/>
-    </row>
-    <row r="68" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="1"/>
+      <c r="BP67" s="1"/>
+      <c r="BQ67" s="1"/>
+      <c r="BR67" s="1"/>
+      <c r="BS67" s="1"/>
+    </row>
+    <row r="68" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -6486,18 +6908,24 @@
       <c r="BA68" s="3"/>
       <c r="BB68" s="3"/>
       <c r="BC68" s="3"/>
-      <c r="BD68" s="1"/>
-      <c r="BE68" s="1"/>
-      <c r="BF68" s="1"/>
-      <c r="BG68" s="1"/>
-      <c r="BH68" s="1"/>
-      <c r="BI68" s="1"/>
+      <c r="BD68" s="3"/>
+      <c r="BE68" s="3"/>
+      <c r="BF68" s="3"/>
+      <c r="BG68" s="3"/>
+      <c r="BH68" s="3"/>
+      <c r="BI68" s="3"/>
       <c r="BJ68" s="1"/>
       <c r="BK68" s="1"/>
       <c r="BL68" s="1"/>
       <c r="BM68" s="1"/>
-    </row>
-    <row r="69" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN68" s="1"/>
+      <c r="BO68" s="1"/>
+      <c r="BP68" s="1"/>
+      <c r="BQ68" s="1"/>
+      <c r="BR68" s="1"/>
+      <c r="BS68" s="1"/>
+    </row>
+    <row r="69" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -6553,18 +6981,24 @@
       <c r="BA69" s="3"/>
       <c r="BB69" s="3"/>
       <c r="BC69" s="3"/>
-      <c r="BD69" s="1"/>
-      <c r="BE69" s="1"/>
-      <c r="BF69" s="1"/>
-      <c r="BG69" s="1"/>
-      <c r="BH69" s="1"/>
-      <c r="BI69" s="1"/>
+      <c r="BD69" s="3"/>
+      <c r="BE69" s="3"/>
+      <c r="BF69" s="3"/>
+      <c r="BG69" s="3"/>
+      <c r="BH69" s="3"/>
+      <c r="BI69" s="3"/>
       <c r="BJ69" s="1"/>
       <c r="BK69" s="1"/>
       <c r="BL69" s="1"/>
       <c r="BM69" s="1"/>
-    </row>
-    <row r="70" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="1"/>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="1"/>
+    </row>
+    <row r="70" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -6620,18 +7054,24 @@
       <c r="BA70" s="3"/>
       <c r="BB70" s="3"/>
       <c r="BC70" s="3"/>
-      <c r="BD70" s="1"/>
-      <c r="BE70" s="1"/>
-      <c r="BF70" s="1"/>
-      <c r="BG70" s="1"/>
-      <c r="BH70" s="1"/>
-      <c r="BI70" s="1"/>
+      <c r="BD70" s="3"/>
+      <c r="BE70" s="3"/>
+      <c r="BF70" s="3"/>
+      <c r="BG70" s="3"/>
+      <c r="BH70" s="3"/>
+      <c r="BI70" s="3"/>
       <c r="BJ70" s="1"/>
       <c r="BK70" s="1"/>
       <c r="BL70" s="1"/>
       <c r="BM70" s="1"/>
-    </row>
-    <row r="71" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="1"/>
+      <c r="BR70" s="1"/>
+      <c r="BS70" s="1"/>
+    </row>
+    <row r="71" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6687,18 +7127,24 @@
       <c r="BA71" s="3"/>
       <c r="BB71" s="3"/>
       <c r="BC71" s="3"/>
-      <c r="BD71" s="1"/>
-      <c r="BE71" s="1"/>
-      <c r="BF71" s="1"/>
-      <c r="BG71" s="1"/>
-      <c r="BH71" s="1"/>
-      <c r="BI71" s="1"/>
+      <c r="BD71" s="3"/>
+      <c r="BE71" s="3"/>
+      <c r="BF71" s="3"/>
+      <c r="BG71" s="3"/>
+      <c r="BH71" s="3"/>
+      <c r="BI71" s="3"/>
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
       <c r="BL71" s="1"/>
       <c r="BM71" s="1"/>
-    </row>
-    <row r="72" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="1"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="1"/>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="1"/>
+    </row>
+    <row r="72" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6754,18 +7200,24 @@
       <c r="BA72" s="3"/>
       <c r="BB72" s="3"/>
       <c r="BC72" s="3"/>
-      <c r="BD72" s="1"/>
-      <c r="BE72" s="1"/>
-      <c r="BF72" s="1"/>
-      <c r="BG72" s="1"/>
-      <c r="BH72" s="1"/>
-      <c r="BI72" s="1"/>
+      <c r="BD72" s="3"/>
+      <c r="BE72" s="3"/>
+      <c r="BF72" s="3"/>
+      <c r="BG72" s="3"/>
+      <c r="BH72" s="3"/>
+      <c r="BI72" s="3"/>
       <c r="BJ72" s="1"/>
       <c r="BK72" s="1"/>
       <c r="BL72" s="1"/>
       <c r="BM72" s="1"/>
-    </row>
-    <row r="73" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN72" s="1"/>
+      <c r="BO72" s="1"/>
+      <c r="BP72" s="1"/>
+      <c r="BQ72" s="1"/>
+      <c r="BR72" s="1"/>
+      <c r="BS72" s="1"/>
+    </row>
+    <row r="73" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6821,18 +7273,24 @@
       <c r="BA73" s="3"/>
       <c r="BB73" s="3"/>
       <c r="BC73" s="3"/>
-      <c r="BD73" s="1"/>
-      <c r="BE73" s="1"/>
-      <c r="BF73" s="1"/>
-      <c r="BG73" s="1"/>
-      <c r="BH73" s="1"/>
-      <c r="BI73" s="1"/>
+      <c r="BD73" s="3"/>
+      <c r="BE73" s="3"/>
+      <c r="BF73" s="3"/>
+      <c r="BG73" s="3"/>
+      <c r="BH73" s="3"/>
+      <c r="BI73" s="3"/>
       <c r="BJ73" s="1"/>
       <c r="BK73" s="1"/>
       <c r="BL73" s="1"/>
       <c r="BM73" s="1"/>
-    </row>
-    <row r="74" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN73" s="1"/>
+      <c r="BO73" s="1"/>
+      <c r="BP73" s="1"/>
+      <c r="BQ73" s="1"/>
+      <c r="BR73" s="1"/>
+      <c r="BS73" s="1"/>
+    </row>
+    <row r="74" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6888,18 +7346,24 @@
       <c r="BA74" s="3"/>
       <c r="BB74" s="3"/>
       <c r="BC74" s="3"/>
-      <c r="BD74" s="1"/>
-      <c r="BE74" s="1"/>
-      <c r="BF74" s="1"/>
-      <c r="BG74" s="1"/>
-      <c r="BH74" s="1"/>
-      <c r="BI74" s="1"/>
+      <c r="BD74" s="3"/>
+      <c r="BE74" s="3"/>
+      <c r="BF74" s="3"/>
+      <c r="BG74" s="3"/>
+      <c r="BH74" s="3"/>
+      <c r="BI74" s="3"/>
       <c r="BJ74" s="1"/>
       <c r="BK74" s="1"/>
       <c r="BL74" s="1"/>
       <c r="BM74" s="1"/>
-    </row>
-    <row r="75" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN74" s="1"/>
+      <c r="BO74" s="1"/>
+      <c r="BP74" s="1"/>
+      <c r="BQ74" s="1"/>
+      <c r="BR74" s="1"/>
+      <c r="BS74" s="1"/>
+    </row>
+    <row r="75" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6955,18 +7419,24 @@
       <c r="BA75" s="3"/>
       <c r="BB75" s="3"/>
       <c r="BC75" s="3"/>
-      <c r="BD75" s="1"/>
-      <c r="BE75" s="1"/>
-      <c r="BF75" s="1"/>
-      <c r="BG75" s="1"/>
-      <c r="BH75" s="1"/>
-      <c r="BI75" s="1"/>
+      <c r="BD75" s="3"/>
+      <c r="BE75" s="3"/>
+      <c r="BF75" s="3"/>
+      <c r="BG75" s="3"/>
+      <c r="BH75" s="3"/>
+      <c r="BI75" s="3"/>
       <c r="BJ75" s="1"/>
       <c r="BK75" s="1"/>
       <c r="BL75" s="1"/>
       <c r="BM75" s="1"/>
-    </row>
-    <row r="76" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN75" s="1"/>
+      <c r="BO75" s="1"/>
+      <c r="BP75" s="1"/>
+      <c r="BQ75" s="1"/>
+      <c r="BR75" s="1"/>
+      <c r="BS75" s="1"/>
+    </row>
+    <row r="76" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -7022,18 +7492,24 @@
       <c r="BA76" s="3"/>
       <c r="BB76" s="3"/>
       <c r="BC76" s="3"/>
-      <c r="BD76" s="1"/>
-      <c r="BE76" s="1"/>
-      <c r="BF76" s="1"/>
-      <c r="BG76" s="1"/>
-      <c r="BH76" s="1"/>
-      <c r="BI76" s="1"/>
+      <c r="BD76" s="3"/>
+      <c r="BE76" s="3"/>
+      <c r="BF76" s="3"/>
+      <c r="BG76" s="3"/>
+      <c r="BH76" s="3"/>
+      <c r="BI76" s="3"/>
       <c r="BJ76" s="1"/>
       <c r="BK76" s="1"/>
       <c r="BL76" s="1"/>
       <c r="BM76" s="1"/>
-    </row>
-    <row r="77" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN76" s="1"/>
+      <c r="BO76" s="1"/>
+      <c r="BP76" s="1"/>
+      <c r="BQ76" s="1"/>
+      <c r="BR76" s="1"/>
+      <c r="BS76" s="1"/>
+    </row>
+    <row r="77" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -7089,18 +7565,24 @@
       <c r="BA77" s="3"/>
       <c r="BB77" s="3"/>
       <c r="BC77" s="3"/>
-      <c r="BD77" s="1"/>
-      <c r="BE77" s="1"/>
-      <c r="BF77" s="1"/>
-      <c r="BG77" s="1"/>
-      <c r="BH77" s="1"/>
-      <c r="BI77" s="1"/>
+      <c r="BD77" s="3"/>
+      <c r="BE77" s="3"/>
+      <c r="BF77" s="3"/>
+      <c r="BG77" s="3"/>
+      <c r="BH77" s="3"/>
+      <c r="BI77" s="3"/>
       <c r="BJ77" s="1"/>
       <c r="BK77" s="1"/>
       <c r="BL77" s="1"/>
       <c r="BM77" s="1"/>
-    </row>
-    <row r="78" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="1"/>
+      <c r="BP77" s="1"/>
+      <c r="BQ77" s="1"/>
+      <c r="BR77" s="1"/>
+      <c r="BS77" s="1"/>
+    </row>
+    <row r="78" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -7156,18 +7638,24 @@
       <c r="BA78" s="3"/>
       <c r="BB78" s="3"/>
       <c r="BC78" s="3"/>
-      <c r="BD78" s="1"/>
-      <c r="BE78" s="1"/>
-      <c r="BF78" s="1"/>
-      <c r="BG78" s="1"/>
-      <c r="BH78" s="1"/>
-      <c r="BI78" s="1"/>
+      <c r="BD78" s="3"/>
+      <c r="BE78" s="3"/>
+      <c r="BF78" s="3"/>
+      <c r="BG78" s="3"/>
+      <c r="BH78" s="3"/>
+      <c r="BI78" s="3"/>
       <c r="BJ78" s="1"/>
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
       <c r="BM78" s="1"/>
-    </row>
-    <row r="79" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN78" s="1"/>
+      <c r="BO78" s="1"/>
+      <c r="BP78" s="1"/>
+      <c r="BQ78" s="1"/>
+      <c r="BR78" s="1"/>
+      <c r="BS78" s="1"/>
+    </row>
+    <row r="79" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -7223,18 +7711,24 @@
       <c r="BA79" s="3"/>
       <c r="BB79" s="3"/>
       <c r="BC79" s="3"/>
-      <c r="BD79" s="1"/>
-      <c r="BE79" s="1"/>
-      <c r="BF79" s="1"/>
-      <c r="BG79" s="1"/>
-      <c r="BH79" s="1"/>
-      <c r="BI79" s="1"/>
+      <c r="BD79" s="3"/>
+      <c r="BE79" s="3"/>
+      <c r="BF79" s="3"/>
+      <c r="BG79" s="3"/>
+      <c r="BH79" s="3"/>
+      <c r="BI79" s="3"/>
       <c r="BJ79" s="1"/>
       <c r="BK79" s="1"/>
       <c r="BL79" s="1"/>
       <c r="BM79" s="1"/>
-    </row>
-    <row r="80" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN79" s="1"/>
+      <c r="BO79" s="1"/>
+      <c r="BP79" s="1"/>
+      <c r="BQ79" s="1"/>
+      <c r="BR79" s="1"/>
+      <c r="BS79" s="1"/>
+    </row>
+    <row r="80" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -7290,18 +7784,24 @@
       <c r="BA80" s="3"/>
       <c r="BB80" s="3"/>
       <c r="BC80" s="3"/>
-      <c r="BD80" s="1"/>
-      <c r="BE80" s="1"/>
-      <c r="BF80" s="1"/>
-      <c r="BG80" s="1"/>
-      <c r="BH80" s="1"/>
-      <c r="BI80" s="1"/>
+      <c r="BD80" s="3"/>
+      <c r="BE80" s="3"/>
+      <c r="BF80" s="3"/>
+      <c r="BG80" s="3"/>
+      <c r="BH80" s="3"/>
+      <c r="BI80" s="3"/>
       <c r="BJ80" s="1"/>
       <c r="BK80" s="1"/>
       <c r="BL80" s="1"/>
       <c r="BM80" s="1"/>
-    </row>
-    <row r="81" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN80" s="1"/>
+      <c r="BO80" s="1"/>
+      <c r="BP80" s="1"/>
+      <c r="BQ80" s="1"/>
+      <c r="BR80" s="1"/>
+      <c r="BS80" s="1"/>
+    </row>
+    <row r="81" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -7357,18 +7857,24 @@
       <c r="BA81" s="3"/>
       <c r="BB81" s="3"/>
       <c r="BC81" s="3"/>
-      <c r="BD81" s="1"/>
-      <c r="BE81" s="1"/>
-      <c r="BF81" s="1"/>
-      <c r="BG81" s="1"/>
-      <c r="BH81" s="1"/>
-      <c r="BI81" s="1"/>
+      <c r="BD81" s="3"/>
+      <c r="BE81" s="3"/>
+      <c r="BF81" s="3"/>
+      <c r="BG81" s="3"/>
+      <c r="BH81" s="3"/>
+      <c r="BI81" s="3"/>
       <c r="BJ81" s="1"/>
       <c r="BK81" s="1"/>
       <c r="BL81" s="1"/>
       <c r="BM81" s="1"/>
-    </row>
-    <row r="82" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN81" s="1"/>
+      <c r="BO81" s="1"/>
+      <c r="BP81" s="1"/>
+      <c r="BQ81" s="1"/>
+      <c r="BR81" s="1"/>
+      <c r="BS81" s="1"/>
+    </row>
+    <row r="82" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -7424,18 +7930,24 @@
       <c r="BA82" s="3"/>
       <c r="BB82" s="3"/>
       <c r="BC82" s="3"/>
-      <c r="BD82" s="1"/>
-      <c r="BE82" s="1"/>
-      <c r="BF82" s="1"/>
-      <c r="BG82" s="1"/>
-      <c r="BH82" s="1"/>
-      <c r="BI82" s="1"/>
+      <c r="BD82" s="3"/>
+      <c r="BE82" s="3"/>
+      <c r="BF82" s="3"/>
+      <c r="BG82" s="3"/>
+      <c r="BH82" s="3"/>
+      <c r="BI82" s="3"/>
       <c r="BJ82" s="1"/>
       <c r="BK82" s="1"/>
       <c r="BL82" s="1"/>
       <c r="BM82" s="1"/>
-    </row>
-    <row r="83" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="1"/>
+      <c r="BQ82" s="1"/>
+      <c r="BR82" s="1"/>
+      <c r="BS82" s="1"/>
+    </row>
+    <row r="83" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -7491,18 +8003,24 @@
       <c r="BA83" s="3"/>
       <c r="BB83" s="3"/>
       <c r="BC83" s="3"/>
-      <c r="BD83" s="1"/>
-      <c r="BE83" s="1"/>
-      <c r="BF83" s="1"/>
-      <c r="BG83" s="1"/>
-      <c r="BH83" s="1"/>
-      <c r="BI83" s="1"/>
+      <c r="BD83" s="3"/>
+      <c r="BE83" s="3"/>
+      <c r="BF83" s="3"/>
+      <c r="BG83" s="3"/>
+      <c r="BH83" s="3"/>
+      <c r="BI83" s="3"/>
       <c r="BJ83" s="1"/>
       <c r="BK83" s="1"/>
       <c r="BL83" s="1"/>
       <c r="BM83" s="1"/>
-    </row>
-    <row r="84" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN83" s="1"/>
+      <c r="BO83" s="1"/>
+      <c r="BP83" s="1"/>
+      <c r="BQ83" s="1"/>
+      <c r="BR83" s="1"/>
+      <c r="BS83" s="1"/>
+    </row>
+    <row r="84" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -7558,18 +8076,24 @@
       <c r="BA84" s="3"/>
       <c r="BB84" s="3"/>
       <c r="BC84" s="3"/>
-      <c r="BD84" s="1"/>
-      <c r="BE84" s="1"/>
-      <c r="BF84" s="1"/>
-      <c r="BG84" s="1"/>
-      <c r="BH84" s="1"/>
-      <c r="BI84" s="1"/>
+      <c r="BD84" s="3"/>
+      <c r="BE84" s="3"/>
+      <c r="BF84" s="3"/>
+      <c r="BG84" s="3"/>
+      <c r="BH84" s="3"/>
+      <c r="BI84" s="3"/>
       <c r="BJ84" s="1"/>
       <c r="BK84" s="1"/>
       <c r="BL84" s="1"/>
       <c r="BM84" s="1"/>
-    </row>
-    <row r="85" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN84" s="1"/>
+      <c r="BO84" s="1"/>
+      <c r="BP84" s="1"/>
+      <c r="BQ84" s="1"/>
+      <c r="BR84" s="1"/>
+      <c r="BS84" s="1"/>
+    </row>
+    <row r="85" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -7625,18 +8149,24 @@
       <c r="BA85" s="3"/>
       <c r="BB85" s="3"/>
       <c r="BC85" s="3"/>
-      <c r="BD85" s="1"/>
-      <c r="BE85" s="1"/>
-      <c r="BF85" s="1"/>
-      <c r="BG85" s="1"/>
-      <c r="BH85" s="1"/>
-      <c r="BI85" s="1"/>
+      <c r="BD85" s="3"/>
+      <c r="BE85" s="3"/>
+      <c r="BF85" s="3"/>
+      <c r="BG85" s="3"/>
+      <c r="BH85" s="3"/>
+      <c r="BI85" s="3"/>
       <c r="BJ85" s="1"/>
       <c r="BK85" s="1"/>
       <c r="BL85" s="1"/>
       <c r="BM85" s="1"/>
-    </row>
-    <row r="86" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN85" s="1"/>
+      <c r="BO85" s="1"/>
+      <c r="BP85" s="1"/>
+      <c r="BQ85" s="1"/>
+      <c r="BR85" s="1"/>
+      <c r="BS85" s="1"/>
+    </row>
+    <row r="86" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -7692,18 +8222,24 @@
       <c r="BA86" s="3"/>
       <c r="BB86" s="3"/>
       <c r="BC86" s="3"/>
-      <c r="BD86" s="1"/>
-      <c r="BE86" s="1"/>
-      <c r="BF86" s="1"/>
-      <c r="BG86" s="1"/>
-      <c r="BH86" s="1"/>
-      <c r="BI86" s="1"/>
+      <c r="BD86" s="3"/>
+      <c r="BE86" s="3"/>
+      <c r="BF86" s="3"/>
+      <c r="BG86" s="3"/>
+      <c r="BH86" s="3"/>
+      <c r="BI86" s="3"/>
       <c r="BJ86" s="1"/>
       <c r="BK86" s="1"/>
       <c r="BL86" s="1"/>
       <c r="BM86" s="1"/>
-    </row>
-    <row r="87" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN86" s="1"/>
+      <c r="BO86" s="1"/>
+      <c r="BP86" s="1"/>
+      <c r="BQ86" s="1"/>
+      <c r="BR86" s="1"/>
+      <c r="BS86" s="1"/>
+    </row>
+    <row r="87" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -7759,18 +8295,24 @@
       <c r="BA87" s="3"/>
       <c r="BB87" s="3"/>
       <c r="BC87" s="3"/>
-      <c r="BD87" s="1"/>
-      <c r="BE87" s="1"/>
-      <c r="BF87" s="1"/>
-      <c r="BG87" s="1"/>
-      <c r="BH87" s="1"/>
-      <c r="BI87" s="1"/>
+      <c r="BD87" s="3"/>
+      <c r="BE87" s="3"/>
+      <c r="BF87" s="3"/>
+      <c r="BG87" s="3"/>
+      <c r="BH87" s="3"/>
+      <c r="BI87" s="3"/>
       <c r="BJ87" s="1"/>
       <c r="BK87" s="1"/>
       <c r="BL87" s="1"/>
       <c r="BM87" s="1"/>
-    </row>
-    <row r="88" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN87" s="1"/>
+      <c r="BO87" s="1"/>
+      <c r="BP87" s="1"/>
+      <c r="BQ87" s="1"/>
+      <c r="BR87" s="1"/>
+      <c r="BS87" s="1"/>
+    </row>
+    <row r="88" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -7826,18 +8368,24 @@
       <c r="BA88" s="3"/>
       <c r="BB88" s="3"/>
       <c r="BC88" s="3"/>
-      <c r="BD88" s="1"/>
-      <c r="BE88" s="1"/>
-      <c r="BF88" s="1"/>
-      <c r="BG88" s="1"/>
-      <c r="BH88" s="1"/>
-      <c r="BI88" s="1"/>
+      <c r="BD88" s="3"/>
+      <c r="BE88" s="3"/>
+      <c r="BF88" s="3"/>
+      <c r="BG88" s="3"/>
+      <c r="BH88" s="3"/>
+      <c r="BI88" s="3"/>
       <c r="BJ88" s="1"/>
       <c r="BK88" s="1"/>
       <c r="BL88" s="1"/>
       <c r="BM88" s="1"/>
-    </row>
-    <row r="89" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN88" s="1"/>
+      <c r="BO88" s="1"/>
+      <c r="BP88" s="1"/>
+      <c r="BQ88" s="1"/>
+      <c r="BR88" s="1"/>
+      <c r="BS88" s="1"/>
+    </row>
+    <row r="89" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -7893,18 +8441,24 @@
       <c r="BA89" s="3"/>
       <c r="BB89" s="3"/>
       <c r="BC89" s="3"/>
-      <c r="BD89" s="1"/>
-      <c r="BE89" s="1"/>
-      <c r="BF89" s="1"/>
-      <c r="BG89" s="1"/>
-      <c r="BH89" s="1"/>
-      <c r="BI89" s="1"/>
+      <c r="BD89" s="3"/>
+      <c r="BE89" s="3"/>
+      <c r="BF89" s="3"/>
+      <c r="BG89" s="3"/>
+      <c r="BH89" s="3"/>
+      <c r="BI89" s="3"/>
       <c r="BJ89" s="1"/>
       <c r="BK89" s="1"/>
       <c r="BL89" s="1"/>
       <c r="BM89" s="1"/>
-    </row>
-    <row r="90" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN89" s="1"/>
+      <c r="BO89" s="1"/>
+      <c r="BP89" s="1"/>
+      <c r="BQ89" s="1"/>
+      <c r="BR89" s="1"/>
+      <c r="BS89" s="1"/>
+    </row>
+    <row r="90" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -7960,18 +8514,24 @@
       <c r="BA90" s="3"/>
       <c r="BB90" s="3"/>
       <c r="BC90" s="3"/>
-      <c r="BD90" s="1"/>
-      <c r="BE90" s="1"/>
-      <c r="BF90" s="1"/>
-      <c r="BG90" s="1"/>
-      <c r="BH90" s="1"/>
-      <c r="BI90" s="1"/>
+      <c r="BD90" s="3"/>
+      <c r="BE90" s="3"/>
+      <c r="BF90" s="3"/>
+      <c r="BG90" s="3"/>
+      <c r="BH90" s="3"/>
+      <c r="BI90" s="3"/>
       <c r="BJ90" s="1"/>
       <c r="BK90" s="1"/>
       <c r="BL90" s="1"/>
       <c r="BM90" s="1"/>
-    </row>
-    <row r="91" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN90" s="1"/>
+      <c r="BO90" s="1"/>
+      <c r="BP90" s="1"/>
+      <c r="BQ90" s="1"/>
+      <c r="BR90" s="1"/>
+      <c r="BS90" s="1"/>
+    </row>
+    <row r="91" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -8027,18 +8587,24 @@
       <c r="BA91" s="3"/>
       <c r="BB91" s="3"/>
       <c r="BC91" s="3"/>
-      <c r="BD91" s="1"/>
-      <c r="BE91" s="1"/>
-      <c r="BF91" s="1"/>
-      <c r="BG91" s="1"/>
-      <c r="BH91" s="1"/>
-      <c r="BI91" s="1"/>
+      <c r="BD91" s="3"/>
+      <c r="BE91" s="3"/>
+      <c r="BF91" s="3"/>
+      <c r="BG91" s="3"/>
+      <c r="BH91" s="3"/>
+      <c r="BI91" s="3"/>
       <c r="BJ91" s="1"/>
       <c r="BK91" s="1"/>
       <c r="BL91" s="1"/>
       <c r="BM91" s="1"/>
-    </row>
-    <row r="92" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN91" s="1"/>
+      <c r="BO91" s="1"/>
+      <c r="BP91" s="1"/>
+      <c r="BQ91" s="1"/>
+      <c r="BR91" s="1"/>
+      <c r="BS91" s="1"/>
+    </row>
+    <row r="92" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -8094,18 +8660,24 @@
       <c r="BA92" s="3"/>
       <c r="BB92" s="3"/>
       <c r="BC92" s="3"/>
-      <c r="BD92" s="1"/>
-      <c r="BE92" s="1"/>
-      <c r="BF92" s="1"/>
-      <c r="BG92" s="1"/>
-      <c r="BH92" s="1"/>
-      <c r="BI92" s="1"/>
+      <c r="BD92" s="3"/>
+      <c r="BE92" s="3"/>
+      <c r="BF92" s="3"/>
+      <c r="BG92" s="3"/>
+      <c r="BH92" s="3"/>
+      <c r="BI92" s="3"/>
       <c r="BJ92" s="1"/>
       <c r="BK92" s="1"/>
       <c r="BL92" s="1"/>
       <c r="BM92" s="1"/>
-    </row>
-    <row r="93" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN92" s="1"/>
+      <c r="BO92" s="1"/>
+      <c r="BP92" s="1"/>
+      <c r="BQ92" s="1"/>
+      <c r="BR92" s="1"/>
+      <c r="BS92" s="1"/>
+    </row>
+    <row r="93" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -8161,18 +8733,24 @@
       <c r="BA93" s="3"/>
       <c r="BB93" s="3"/>
       <c r="BC93" s="3"/>
-      <c r="BD93" s="1"/>
-      <c r="BE93" s="1"/>
-      <c r="BF93" s="1"/>
-      <c r="BG93" s="1"/>
-      <c r="BH93" s="1"/>
-      <c r="BI93" s="1"/>
+      <c r="BD93" s="3"/>
+      <c r="BE93" s="3"/>
+      <c r="BF93" s="3"/>
+      <c r="BG93" s="3"/>
+      <c r="BH93" s="3"/>
+      <c r="BI93" s="3"/>
       <c r="BJ93" s="1"/>
       <c r="BK93" s="1"/>
       <c r="BL93" s="1"/>
       <c r="BM93" s="1"/>
-    </row>
-    <row r="94" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN93" s="1"/>
+      <c r="BO93" s="1"/>
+      <c r="BP93" s="1"/>
+      <c r="BQ93" s="1"/>
+      <c r="BR93" s="1"/>
+      <c r="BS93" s="1"/>
+    </row>
+    <row r="94" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -8228,18 +8806,24 @@
       <c r="BA94" s="3"/>
       <c r="BB94" s="3"/>
       <c r="BC94" s="3"/>
-      <c r="BD94" s="1"/>
-      <c r="BE94" s="1"/>
-      <c r="BF94" s="1"/>
-      <c r="BG94" s="1"/>
-      <c r="BH94" s="1"/>
-      <c r="BI94" s="1"/>
+      <c r="BD94" s="3"/>
+      <c r="BE94" s="3"/>
+      <c r="BF94" s="3"/>
+      <c r="BG94" s="3"/>
+      <c r="BH94" s="3"/>
+      <c r="BI94" s="3"/>
       <c r="BJ94" s="1"/>
       <c r="BK94" s="1"/>
       <c r="BL94" s="1"/>
       <c r="BM94" s="1"/>
-    </row>
-    <row r="95" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BN94" s="1"/>
+      <c r="BO94" s="1"/>
+      <c r="BP94" s="1"/>
+      <c r="BQ94" s="1"/>
+      <c r="BR94" s="1"/>
+      <c r="BS94" s="1"/>
+    </row>
+    <row r="95" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -8295,75 +8879,97 @@
       <c r="BA95" s="3"/>
       <c r="BB95" s="3"/>
       <c r="BC95" s="3"/>
-      <c r="BD95" s="1"/>
-      <c r="BE95" s="1"/>
-      <c r="BF95" s="1"/>
-      <c r="BG95" s="1"/>
-      <c r="BH95" s="1"/>
-      <c r="BI95" s="1"/>
+      <c r="BD95" s="3"/>
+      <c r="BE95" s="3"/>
+      <c r="BF95" s="3"/>
+      <c r="BG95" s="3"/>
+      <c r="BH95" s="3"/>
+      <c r="BI95" s="3"/>
       <c r="BJ95" s="1"/>
       <c r="BK95" s="1"/>
       <c r="BL95" s="1"/>
       <c r="BM95" s="1"/>
-    </row>
-    <row r="96" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
-      <c r="AA96" s="2"/>
-      <c r="AB96" s="2"/>
-      <c r="AC96" s="2"/>
-      <c r="AD96" s="2"/>
-      <c r="AE96" s="2"/>
-      <c r="AF96" s="2"/>
-      <c r="AG96" s="2"/>
-      <c r="AH96" s="2"/>
-      <c r="AI96" s="2"/>
-      <c r="AJ96" s="2"/>
-      <c r="AK96" s="2"/>
-      <c r="AL96" s="2"/>
-      <c r="AM96" s="2"/>
-      <c r="AN96" s="2"/>
-      <c r="AO96" s="2"/>
-      <c r="AP96" s="2"/>
-      <c r="AQ96" s="2"/>
-      <c r="AR96" s="2"/>
-      <c r="AS96" s="2"/>
-      <c r="AT96" s="2"/>
-      <c r="AU96" s="2"/>
-      <c r="AV96" s="2"/>
-      <c r="AW96" s="2"/>
-      <c r="AX96" s="2"/>
-      <c r="AY96" s="2"/>
-      <c r="AZ96" s="2"/>
-      <c r="BA96" s="2"/>
-      <c r="BB96" s="2"/>
-      <c r="BC96" s="2"/>
-    </row>
-    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BN95" s="1"/>
+      <c r="BO95" s="1"/>
+      <c r="BP95" s="1"/>
+      <c r="BQ95" s="1"/>
+      <c r="BR95" s="1"/>
+      <c r="BS95" s="1"/>
+    </row>
+    <row r="96" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
+      <c r="AD96" s="3"/>
+      <c r="AE96" s="3"/>
+      <c r="AF96" s="3"/>
+      <c r="AG96" s="3"/>
+      <c r="AH96" s="3"/>
+      <c r="AI96" s="3"/>
+      <c r="AJ96" s="3"/>
+      <c r="AK96" s="3"/>
+      <c r="AL96" s="3"/>
+      <c r="AM96" s="3"/>
+      <c r="AN96" s="3"/>
+      <c r="AO96" s="3"/>
+      <c r="AP96" s="3"/>
+      <c r="AQ96" s="3"/>
+      <c r="AR96" s="3"/>
+      <c r="AS96" s="3"/>
+      <c r="AT96" s="3"/>
+      <c r="AU96" s="3"/>
+      <c r="AV96" s="3"/>
+      <c r="AW96" s="3"/>
+      <c r="AX96" s="3"/>
+      <c r="AY96" s="3"/>
+      <c r="AZ96" s="3"/>
+      <c r="BA96" s="3"/>
+      <c r="BB96" s="3"/>
+      <c r="BC96" s="3"/>
+      <c r="BD96" s="3"/>
+      <c r="BE96" s="3"/>
+      <c r="BF96" s="3"/>
+      <c r="BG96" s="3"/>
+      <c r="BH96" s="3"/>
+      <c r="BI96" s="3"/>
+      <c r="BJ96" s="1"/>
+      <c r="BK96" s="1"/>
+      <c r="BL96" s="1"/>
+      <c r="BM96" s="1"/>
+      <c r="BN96" s="1"/>
+      <c r="BO96" s="1"/>
+      <c r="BP96" s="1"/>
+      <c r="BQ96" s="1"/>
+      <c r="BR96" s="1"/>
+      <c r="BS96" s="1"/>
+    </row>
+    <row r="97" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -8419,8 +9025,14 @@
       <c r="BA97" s="2"/>
       <c r="BB97" s="2"/>
       <c r="BC97" s="2"/>
-    </row>
-    <row r="98" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD97" s="2"/>
+      <c r="BE97" s="2"/>
+      <c r="BF97" s="2"/>
+      <c r="BG97" s="2"/>
+      <c r="BH97" s="2"/>
+      <c r="BI97" s="2"/>
+    </row>
+    <row r="98" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -8476,8 +9088,14 @@
       <c r="BA98" s="2"/>
       <c r="BB98" s="2"/>
       <c r="BC98" s="2"/>
-    </row>
-    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD98" s="2"/>
+      <c r="BE98" s="2"/>
+      <c r="BF98" s="2"/>
+      <c r="BG98" s="2"/>
+      <c r="BH98" s="2"/>
+      <c r="BI98" s="2"/>
+    </row>
+    <row r="99" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -8533,8 +9151,14 @@
       <c r="BA99" s="2"/>
       <c r="BB99" s="2"/>
       <c r="BC99" s="2"/>
-    </row>
-    <row r="100" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD99" s="2"/>
+      <c r="BE99" s="2"/>
+      <c r="BF99" s="2"/>
+      <c r="BG99" s="2"/>
+      <c r="BH99" s="2"/>
+      <c r="BI99" s="2"/>
+    </row>
+    <row r="100" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -8590,8 +9214,14 @@
       <c r="BA100" s="2"/>
       <c r="BB100" s="2"/>
       <c r="BC100" s="2"/>
-    </row>
-    <row r="101" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD100" s="2"/>
+      <c r="BE100" s="2"/>
+      <c r="BF100" s="2"/>
+      <c r="BG100" s="2"/>
+      <c r="BH100" s="2"/>
+      <c r="BI100" s="2"/>
+    </row>
+    <row r="101" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -8647,8 +9277,14 @@
       <c r="BA101" s="2"/>
       <c r="BB101" s="2"/>
       <c r="BC101" s="2"/>
-    </row>
-    <row r="102" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD101" s="2"/>
+      <c r="BE101" s="2"/>
+      <c r="BF101" s="2"/>
+      <c r="BG101" s="2"/>
+      <c r="BH101" s="2"/>
+      <c r="BI101" s="2"/>
+    </row>
+    <row r="102" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8704,8 +9340,14 @@
       <c r="BA102" s="2"/>
       <c r="BB102" s="2"/>
       <c r="BC102" s="2"/>
-    </row>
-    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD102" s="2"/>
+      <c r="BE102" s="2"/>
+      <c r="BF102" s="2"/>
+      <c r="BG102" s="2"/>
+      <c r="BH102" s="2"/>
+      <c r="BI102" s="2"/>
+    </row>
+    <row r="103" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -8761,8 +9403,14 @@
       <c r="BA103" s="2"/>
       <c r="BB103" s="2"/>
       <c r="BC103" s="2"/>
-    </row>
-    <row r="104" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD103" s="2"/>
+      <c r="BE103" s="2"/>
+      <c r="BF103" s="2"/>
+      <c r="BG103" s="2"/>
+      <c r="BH103" s="2"/>
+      <c r="BI103" s="2"/>
+    </row>
+    <row r="104" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -8818,8 +9466,14 @@
       <c r="BA104" s="2"/>
       <c r="BB104" s="2"/>
       <c r="BC104" s="2"/>
-    </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD104" s="2"/>
+      <c r="BE104" s="2"/>
+      <c r="BF104" s="2"/>
+      <c r="BG104" s="2"/>
+      <c r="BH104" s="2"/>
+      <c r="BI104" s="2"/>
+    </row>
+    <row r="105" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -8875,8 +9529,14 @@
       <c r="BA105" s="2"/>
       <c r="BB105" s="2"/>
       <c r="BC105" s="2"/>
-    </row>
-    <row r="106" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD105" s="2"/>
+      <c r="BE105" s="2"/>
+      <c r="BF105" s="2"/>
+      <c r="BG105" s="2"/>
+      <c r="BH105" s="2"/>
+      <c r="BI105" s="2"/>
+    </row>
+    <row r="106" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -8932,30 +9592,102 @@
       <c r="BA106" s="2"/>
       <c r="BB106" s="2"/>
       <c r="BC106" s="2"/>
+      <c r="BD106" s="2"/>
+      <c r="BE106" s="2"/>
+      <c r="BF106" s="2"/>
+      <c r="BG106" s="2"/>
+      <c r="BH106" s="2"/>
+      <c r="BI106" s="2"/>
+    </row>
+    <row r="107" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+      <c r="AF107" s="2"/>
+      <c r="AG107" s="2"/>
+      <c r="AH107" s="2"/>
+      <c r="AI107" s="2"/>
+      <c r="AJ107" s="2"/>
+      <c r="AK107" s="2"/>
+      <c r="AL107" s="2"/>
+      <c r="AM107" s="2"/>
+      <c r="AN107" s="2"/>
+      <c r="AO107" s="2"/>
+      <c r="AP107" s="2"/>
+      <c r="AQ107" s="2"/>
+      <c r="AR107" s="2"/>
+      <c r="AS107" s="2"/>
+      <c r="AT107" s="2"/>
+      <c r="AU107" s="2"/>
+      <c r="AV107" s="2"/>
+      <c r="AW107" s="2"/>
+      <c r="AX107" s="2"/>
+      <c r="AY107" s="2"/>
+      <c r="AZ107" s="2"/>
+      <c r="BA107" s="2"/>
+      <c r="BB107" s="2"/>
+      <c r="BC107" s="2"/>
+      <c r="BD107" s="2"/>
+      <c r="BE107" s="2"/>
+      <c r="BF107" s="2"/>
+      <c r="BG107" s="2"/>
+      <c r="BH107" s="2"/>
+      <c r="BI107" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AZ1:AZ3"/>
-    <mergeCell ref="AA2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="O1:AQ1"/>
-    <mergeCell ref="AR1:AY1"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AP2:AP3"/>
+  <mergeCells count="24">
+    <mergeCell ref="BF1:BF4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="O1:AW1"/>
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="AX2:BA2"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="O2:AA3"/>
+    <mergeCell ref="AB2:AK3"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AS2:AT3"/>
+    <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A1:A4"/>
     <mergeCell ref="G1:N1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/result_report.xlsx
+++ b/result_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>Version</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>r4</t>
+  </si>
+  <si>
+    <t>division corr</t>
+  </si>
+  <si>
+    <t>In qSelector all "XXX" replaced by "---"</t>
   </si>
 </sst>
 </file>
@@ -979,25 +985,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,6 +1017,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1334,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AX6" sqref="AX6"/>
+    <sheetView tabSelected="1" topLeftCell="AI4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="BF7" sqref="BF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,74 +1375,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="77" t="s">
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="78" t="s">
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="73" t="s">
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="67" t="s">
         <v>41</v>
       </c>
       <c r="BG1" s="3"/>
@@ -1454,92 +1460,92 @@
       <c r="BS1" s="1"/>
     </row>
     <row r="2" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72" t="s">
+      <c r="J2" s="68"/>
+      <c r="K2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72" t="s">
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72" t="s">
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="72" t="s">
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="82" t="s">
+      <c r="AS2" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="72" t="s">
+      <c r="AT2" s="77"/>
+      <c r="AU2" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="74" t="s">
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="AX2" s="79" t="s">
+      <c r="AX2" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="80"/>
-      <c r="BA2" s="81"/>
-      <c r="BB2" s="79" t="s">
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="81"/>
-      <c r="BF2" s="73"/>
+      <c r="BC2" s="75"/>
+      <c r="BD2" s="75"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="67"/>
       <c r="BG2" s="3"/>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
@@ -1555,61 +1561,61 @@
       <c r="BS2" s="1"/>
     </row>
     <row r="3" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72" t="s">
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72" t="s">
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="75"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="70"/>
       <c r="AX3" s="46"/>
       <c r="AY3" s="47"/>
       <c r="AZ3" s="47"/>
@@ -1618,7 +1624,7 @@
       <c r="BC3" s="47"/>
       <c r="BD3" s="47"/>
       <c r="BE3" s="48"/>
-      <c r="BF3" s="73"/>
+      <c r="BF3" s="67"/>
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
@@ -1634,7 +1640,7 @@
       <c r="BS3" s="1"/>
     </row>
     <row r="4" spans="1:71" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
@@ -1647,10 +1653,10 @@
       <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
@@ -1759,7 +1765,7 @@
       <c r="AQ4" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AR4" s="72"/>
+      <c r="AR4" s="68"/>
       <c r="AS4" s="57" t="s">
         <v>50</v>
       </c>
@@ -1772,7 +1778,7 @@
       <c r="AV4" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="AW4" s="76"/>
+      <c r="AW4" s="71"/>
       <c r="AX4" s="35" t="s">
         <v>57</v>
       </c>
@@ -1797,7 +1803,7 @@
       <c r="BE4" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="BF4" s="73"/>
+      <c r="BF4" s="67"/>
       <c r="BG4" s="3"/>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
@@ -2211,91 +2217,191 @@
       <c r="BS6" s="65"/>
     </row>
     <row r="7" spans="1:71" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="45" t="e">
+      <c r="A7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="12">
+        <v>80.534999999999997</v>
+      </c>
+      <c r="G7" s="32">
+        <v>106.32899999999999</v>
+      </c>
+      <c r="H7" s="12">
+        <v>80</v>
+      </c>
+      <c r="I7" s="12">
+        <v>10479</v>
+      </c>
+      <c r="J7" s="12">
+        <v>17865</v>
+      </c>
+      <c r="K7" s="59">
+        <v>2.468</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="M7" s="12">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="N7" s="45">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="30"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
+        <v>3.9870863599677162E-2</v>
+      </c>
+      <c r="O7" s="30">
+        <v>100</v>
+      </c>
+      <c r="P7" s="30">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>83</v>
+      </c>
+      <c r="R7" s="30">
+        <v>84</v>
+      </c>
+      <c r="S7" s="30">
+        <v>800</v>
+      </c>
+      <c r="T7" s="30">
+        <v>717</v>
+      </c>
+      <c r="U7" s="30">
+        <v>83</v>
+      </c>
+      <c r="V7" s="30">
+        <v>150</v>
+      </c>
+      <c r="W7" s="30">
+        <v>434</v>
+      </c>
+      <c r="X7" s="30">
+        <v>1150</v>
+      </c>
+      <c r="Y7" s="30">
+        <v>257</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>1002</v>
+      </c>
+      <c r="AA7" s="25">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AB7" s="32">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AC7" s="32">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AD7" s="32">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AE7" s="32">
+        <v>0.246</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AG7" s="32">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="AI7" s="32">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AJ7" s="32">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="AK7" s="32">
+        <f>60+53.25</f>
+        <v>113.25</v>
+      </c>
+      <c r="AL7" s="30">
+        <v>801</v>
+      </c>
+      <c r="AM7" s="25">
+        <v>13.13</v>
+      </c>
+      <c r="AN7" s="30">
+        <v>16335</v>
+      </c>
+      <c r="AO7" s="25">
+        <v>10.53</v>
+      </c>
+      <c r="AP7" s="30">
+        <v>5284</v>
+      </c>
+      <c r="AQ7" s="25">
+        <v>10.5</v>
+      </c>
+      <c r="AR7" s="25">
+        <v>7.65</v>
+      </c>
+      <c r="AS7" s="25">
+        <v>24.31</v>
+      </c>
+      <c r="AT7" s="25">
+        <v>20.62</v>
+      </c>
+      <c r="AU7" s="30">
+        <v>7345</v>
+      </c>
+      <c r="AV7" s="25">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="AW7" s="25">
+        <f>3*60+33.3</f>
+        <v>213.3</v>
+      </c>
       <c r="AX7" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AY7" s="39" t="e">
+        <v>28344</v>
+      </c>
+      <c r="AY7" s="39">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.2416961569503943E-2</v>
       </c>
       <c r="AZ7" s="39">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.2109999999999999</v>
       </c>
       <c r="BA7" s="39">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BB7" s="38" t="e">
+        <v>213.3</v>
+      </c>
+      <c r="BB7" s="38">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>351.94635872601975</v>
       </c>
       <c r="BC7" s="39">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BD7" s="39" t="e">
+        <v>6045775.2000000002</v>
+      </c>
+      <c r="BD7" s="39">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>3.9870863599677162E-2</v>
       </c>
       <c r="BE7" s="41">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BF7" s="22"/>
+        <v>684.90629999999999</v>
+      </c>
+      <c r="BF7" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="BG7" s="61"/>
       <c r="BH7" s="61"/>
       <c r="BI7" s="61"/>
@@ -9664,6 +9770,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:N3"/>
     <mergeCell ref="BF1:BF4"/>
     <mergeCell ref="AR2:AR4"/>
     <mergeCell ref="AW2:AW4"/>
@@ -9679,15 +9794,6 @@
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AS2:AT3"/>
     <mergeCell ref="AU2:AV3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/result_report.xlsx
+++ b/result_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>Version</t>
   </si>
@@ -240,12 +240,6 @@
   </si>
   <si>
     <t>Op/sec</t>
-  </si>
-  <si>
-    <t>division</t>
-  </si>
-  <si>
-    <t>Balanced Synthesis</t>
   </si>
   <si>
     <t>r4</t>
@@ -789,7 +783,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -978,17 +972,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,21 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1338,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS107"/>
+  <dimension ref="A1:BS106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BF7" sqref="BF7"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,74 +1362,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="72" t="s">
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="72"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="72"/>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="73" t="s">
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="73"/>
-      <c r="BF1" s="67" t="s">
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="75"/>
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
+      <c r="BF1" s="70" t="s">
         <v>41</v>
       </c>
       <c r="BG1" s="3"/>
@@ -1460,92 +1447,92 @@
       <c r="BS1" s="1"/>
     </row>
     <row r="2" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="68" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68" t="s">
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68" t="s">
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68" t="s">
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="68" t="s">
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="77" t="s">
+      <c r="AS2" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="AT2" s="77"/>
-      <c r="AU2" s="68" t="s">
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="AX2" s="74" t="s">
+      <c r="AX2" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="AY2" s="75"/>
-      <c r="AZ2" s="75"/>
-      <c r="BA2" s="76"/>
-      <c r="BB2" s="74" t="s">
+      <c r="AY2" s="77"/>
+      <c r="AZ2" s="77"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="75"/>
-      <c r="BD2" s="75"/>
-      <c r="BE2" s="76"/>
-      <c r="BF2" s="67"/>
+      <c r="BC2" s="77"/>
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="70"/>
       <c r="BG2" s="3"/>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
@@ -1561,61 +1548,61 @@
       <c r="BS2" s="1"/>
     </row>
     <row r="3" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68" t="s">
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68" t="s">
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="77"/>
-      <c r="AT3" s="77"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="70"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="79"/>
+      <c r="AT3" s="79"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="72"/>
       <c r="AX3" s="46"/>
       <c r="AY3" s="47"/>
       <c r="AZ3" s="47"/>
@@ -1624,7 +1611,7 @@
       <c r="BC3" s="47"/>
       <c r="BD3" s="47"/>
       <c r="BE3" s="48"/>
-      <c r="BF3" s="67"/>
+      <c r="BF3" s="70"/>
       <c r="BG3" s="3"/>
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
@@ -1640,7 +1627,7 @@
       <c r="BS3" s="1"/>
     </row>
     <row r="4" spans="1:71" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
@@ -1653,10 +1640,10 @@
       <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="82"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1752,7 @@
       <c r="AQ4" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="AR4" s="68"/>
+      <c r="AR4" s="69"/>
       <c r="AS4" s="57" t="s">
         <v>50</v>
       </c>
@@ -1778,7 +1765,7 @@
       <c r="AV4" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="AW4" s="71"/>
+      <c r="AW4" s="73"/>
       <c r="AX4" s="35" t="s">
         <v>57</v>
       </c>
@@ -1803,7 +1790,7 @@
       <c r="BE4" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="BF4" s="67"/>
+      <c r="BF4" s="70"/>
       <c r="BG4" s="3"/>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
@@ -1970,7 +1957,7 @@
         <v>219.28</v>
       </c>
       <c r="AX5" s="38">
-        <f t="shared" ref="AX5:AX13" si="0">I5+J5</f>
+        <f t="shared" ref="AX5:AX12" si="0">I5+J5</f>
         <v>26793</v>
       </c>
       <c r="AY5" s="39">
@@ -1978,7 +1965,7 @@
         <v>1.2418966245249744E-2</v>
       </c>
       <c r="AZ5" s="39">
-        <f t="shared" ref="AZ5:AZ13" si="1">M5</f>
+        <f t="shared" ref="AZ5:AZ12" si="1">M5</f>
         <v>3.1880000000000002</v>
       </c>
       <c r="BA5" s="39">
@@ -2016,492 +2003,392 @@
       <c r="BR5" s="1"/>
       <c r="BS5" s="1"/>
     </row>
-    <row r="6" spans="1:71" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:71" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="12">
+        <v>19</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="10">
-        <v>19</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="33">
-        <v>80.340999999999994</v>
-      </c>
-      <c r="G6" s="33">
+      <c r="F6" s="12">
+        <v>80.534999999999997</v>
+      </c>
+      <c r="G6" s="32">
         <v>106.32899999999999</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="12">
         <v>80</v>
       </c>
-      <c r="I6" s="10">
-        <v>10478</v>
-      </c>
-      <c r="J6" s="10">
-        <v>17866</v>
-      </c>
-      <c r="K6" s="58">
+      <c r="I6" s="12">
+        <v>10479</v>
+      </c>
+      <c r="J6" s="12">
+        <v>17865</v>
+      </c>
+      <c r="K6" s="59">
         <v>2.468</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="12">
         <v>0.74299999999999999</v>
       </c>
-      <c r="M6" s="10">
-        <v>3.2120000000000002</v>
+      <c r="M6" s="12">
+        <v>3.2109999999999999</v>
       </c>
       <c r="N6" s="45">
-        <f t="shared" ref="N6:N8" si="2">M6/F6</f>
-        <v>3.9979587010368307E-2</v>
-      </c>
-      <c r="O6" s="29">
+        <f t="shared" ref="N6:N7" si="2">M6/F6</f>
+        <v>3.9870863599677162E-2</v>
+      </c>
+      <c r="O6" s="30">
         <v>100</v>
       </c>
-      <c r="P6" s="29">
-        <v>116</v>
-      </c>
-      <c r="Q6" s="29">
-        <v>67</v>
-      </c>
-      <c r="R6" s="29">
-        <v>100</v>
-      </c>
-      <c r="S6" s="29">
+      <c r="P6" s="30">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>83</v>
+      </c>
+      <c r="R6" s="30">
+        <v>84</v>
+      </c>
+      <c r="S6" s="30">
         <v>800</v>
       </c>
-      <c r="T6" s="29">
-        <v>733</v>
-      </c>
-      <c r="U6" s="29">
-        <v>84</v>
-      </c>
-      <c r="V6" s="29">
-        <v>133</v>
-      </c>
-      <c r="W6" s="29">
-        <v>450</v>
-      </c>
-      <c r="X6" s="29">
+      <c r="T6" s="30">
+        <v>717</v>
+      </c>
+      <c r="U6" s="30">
+        <v>83</v>
+      </c>
+      <c r="V6" s="30">
+        <v>150</v>
+      </c>
+      <c r="W6" s="30">
+        <v>434</v>
+      </c>
+      <c r="X6" s="30">
         <v>1150</v>
       </c>
-      <c r="Y6" s="29">
-        <v>259</v>
-      </c>
-      <c r="Z6" s="29">
-        <v>1003</v>
-      </c>
-      <c r="AA6" s="26">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="AB6" s="33">
+      <c r="Y6" s="30">
+        <v>257</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>1002</v>
+      </c>
+      <c r="AA6" s="25">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AB6" s="32">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AC6" s="33">
+      <c r="AC6" s="32">
         <v>0.29099999999999998</v>
       </c>
-      <c r="AD6" s="33">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="AE6" s="33">
+      <c r="AD6" s="32">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AE6" s="32">
         <v>0.246</v>
       </c>
-      <c r="AF6" s="33">
+      <c r="AF6" s="32">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AG6" s="33">
+      <c r="AG6" s="32">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AH6" s="33">
+      <c r="AH6" s="32">
         <v>1.6579999999999999</v>
       </c>
-      <c r="AI6" s="33">
+      <c r="AI6" s="32">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AJ6" s="33">
+      <c r="AJ6" s="32">
         <v>2.3839999999999999</v>
       </c>
-      <c r="AK6" s="33">
-        <f>60+53.22</f>
-        <v>113.22</v>
-      </c>
-      <c r="AL6" s="29">
-        <v>800</v>
-      </c>
-      <c r="AM6" s="26">
-        <v>13.14</v>
-      </c>
-      <c r="AN6" s="29">
-        <v>16335</v>
-      </c>
-      <c r="AO6" s="26">
-        <v>10.54</v>
-      </c>
-      <c r="AP6" s="29">
-        <v>5284</v>
-      </c>
-      <c r="AQ6" s="26">
-        <v>10.51</v>
-      </c>
-      <c r="AR6" s="26">
-        <v>7.66</v>
-      </c>
-      <c r="AS6" s="26">
-        <v>24.41</v>
-      </c>
-      <c r="AT6" s="26">
-        <v>20.3</v>
-      </c>
-      <c r="AU6" s="29">
-        <v>7345</v>
-      </c>
-      <c r="AV6" s="26">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AW6" s="26">
-        <f>3*60+33.06</f>
-        <v>213.06</v>
-      </c>
-      <c r="AX6" s="38">
-        <f t="shared" ref="AX6:AX7" si="3">I6+J6</f>
-        <v>28344</v>
-      </c>
-      <c r="AY6" s="39">
-        <f t="shared" ref="AY6:AY7" si="4">1/F6</f>
-        <v>1.244694489737494E-2</v>
-      </c>
-      <c r="AZ6" s="39">
-        <f t="shared" ref="AZ6:AZ7" si="5">M6</f>
-        <v>3.2120000000000002</v>
-      </c>
-      <c r="BA6" s="39">
-        <f t="shared" ref="BA6:BA7" si="6">AW6</f>
-        <v>213.06</v>
-      </c>
-      <c r="BB6" s="38">
-        <f t="shared" ref="BB6:BB7" si="7">AX6*AY6</f>
-        <v>352.79620617119531</v>
-      </c>
-      <c r="BC6" s="39">
-        <f t="shared" ref="BC6:BC7" si="8">AX6*BA6</f>
-        <v>6038972.6399999997</v>
-      </c>
-      <c r="BD6" s="39">
-        <f t="shared" ref="BD6:BD7" si="9">AZ6*AY6</f>
-        <v>3.9979587010368307E-2</v>
-      </c>
-      <c r="BE6" s="41">
-        <f t="shared" ref="BE6:BE7" si="10">AZ6*BA6</f>
-        <v>684.34872000000007</v>
-      </c>
-      <c r="BF6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="65"/>
-      <c r="BK6" s="65"/>
-      <c r="BL6" s="65"/>
-      <c r="BM6" s="65"/>
-      <c r="BN6" s="65"/>
-      <c r="BO6" s="65"/>
-      <c r="BP6" s="65"/>
-      <c r="BQ6" s="65"/>
-      <c r="BR6" s="65"/>
-      <c r="BS6" s="65"/>
-    </row>
-    <row r="7" spans="1:71" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="12">
-        <v>80.534999999999997</v>
-      </c>
-      <c r="G7" s="32">
-        <v>106.32899999999999</v>
-      </c>
-      <c r="H7" s="12">
-        <v>80</v>
-      </c>
-      <c r="I7" s="12">
-        <v>10479</v>
-      </c>
-      <c r="J7" s="12">
-        <v>17865</v>
-      </c>
-      <c r="K7" s="59">
-        <v>2.468</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="M7" s="12">
-        <v>3.2109999999999999</v>
-      </c>
-      <c r="N7" s="45">
-        <f t="shared" si="2"/>
-        <v>3.9870863599677162E-2</v>
-      </c>
-      <c r="O7" s="30">
-        <v>100</v>
-      </c>
-      <c r="P7" s="30">
-        <v>117</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>83</v>
-      </c>
-      <c r="R7" s="30">
-        <v>84</v>
-      </c>
-      <c r="S7" s="30">
-        <v>800</v>
-      </c>
-      <c r="T7" s="30">
-        <v>717</v>
-      </c>
-      <c r="U7" s="30">
-        <v>83</v>
-      </c>
-      <c r="V7" s="30">
-        <v>150</v>
-      </c>
-      <c r="W7" s="30">
-        <v>434</v>
-      </c>
-      <c r="X7" s="30">
-        <v>1150</v>
-      </c>
-      <c r="Y7" s="30">
-        <v>257</v>
-      </c>
-      <c r="Z7" s="30">
-        <v>1002</v>
-      </c>
-      <c r="AA7" s="25">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="AB7" s="32">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="AC7" s="32">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="AD7" s="32">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="AE7" s="32">
-        <v>0.246</v>
-      </c>
-      <c r="AF7" s="32">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AG7" s="32">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AH7" s="32">
-        <v>1.6579999999999999</v>
-      </c>
-      <c r="AI7" s="32">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AJ7" s="32">
-        <v>2.3839999999999999</v>
-      </c>
-      <c r="AK7" s="32">
+      <c r="AK6" s="32">
         <f>60+53.25</f>
         <v>113.25</v>
       </c>
-      <c r="AL7" s="30">
+      <c r="AL6" s="30">
         <v>801</v>
       </c>
-      <c r="AM7" s="25">
+      <c r="AM6" s="25">
         <v>13.13</v>
       </c>
-      <c r="AN7" s="30">
+      <c r="AN6" s="30">
         <v>16335</v>
       </c>
-      <c r="AO7" s="25">
+      <c r="AO6" s="25">
         <v>10.53</v>
       </c>
-      <c r="AP7" s="30">
+      <c r="AP6" s="30">
         <v>5284</v>
       </c>
-      <c r="AQ7" s="25">
+      <c r="AQ6" s="25">
         <v>10.5</v>
       </c>
-      <c r="AR7" s="25">
+      <c r="AR6" s="25">
         <v>7.65</v>
       </c>
-      <c r="AS7" s="25">
+      <c r="AS6" s="25">
         <v>24.31</v>
       </c>
-      <c r="AT7" s="25">
+      <c r="AT6" s="25">
         <v>20.62</v>
       </c>
-      <c r="AU7" s="30">
+      <c r="AU6" s="30">
         <v>7345</v>
       </c>
-      <c r="AV7" s="25">
+      <c r="AV6" s="25">
         <v>10.210000000000001</v>
       </c>
-      <c r="AW7" s="25">
+      <c r="AW6" s="25">
         <f>3*60+33.3</f>
         <v>213.3</v>
       </c>
-      <c r="AX7" s="38">
-        <f t="shared" si="3"/>
+      <c r="AX6" s="38">
+        <f t="shared" ref="AX6" si="3">I6+J6</f>
         <v>28344</v>
       </c>
-      <c r="AY7" s="39">
-        <f t="shared" si="4"/>
+      <c r="AY6" s="39">
+        <f t="shared" ref="AY6" si="4">1/F6</f>
         <v>1.2416961569503943E-2</v>
       </c>
-      <c r="AZ7" s="39">
-        <f t="shared" si="5"/>
+      <c r="AZ6" s="39">
+        <f t="shared" ref="AZ6" si="5">M6</f>
         <v>3.2109999999999999</v>
       </c>
-      <c r="BA7" s="39">
-        <f t="shared" si="6"/>
+      <c r="BA6" s="39">
+        <f t="shared" ref="BA6" si="6">AW6</f>
         <v>213.3</v>
       </c>
-      <c r="BB7" s="38">
-        <f t="shared" si="7"/>
+      <c r="BB6" s="38">
+        <f t="shared" ref="BB6" si="7">AX6*AY6</f>
         <v>351.94635872601975</v>
       </c>
-      <c r="BC7" s="39">
-        <f t="shared" si="8"/>
+      <c r="BC6" s="39">
+        <f t="shared" ref="BC6" si="8">AX6*BA6</f>
         <v>6045775.2000000002</v>
       </c>
-      <c r="BD7" s="39">
-        <f t="shared" si="9"/>
+      <c r="BD6" s="39">
+        <f t="shared" ref="BD6" si="9">AZ6*AY6</f>
         <v>3.9870863599677162E-2</v>
       </c>
-      <c r="BE7" s="41">
-        <f t="shared" si="10"/>
+      <c r="BE6" s="41">
+        <f t="shared" ref="BE6" si="10">AZ6*BA6</f>
         <v>684.90629999999999</v>
       </c>
-      <c r="BF7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="61"/>
-      <c r="BJ7" s="62"/>
-      <c r="BK7" s="62"/>
-      <c r="BL7" s="62"/>
-      <c r="BM7" s="62"/>
-      <c r="BN7" s="62"/>
-      <c r="BO7" s="62"/>
-      <c r="BP7" s="62"/>
-      <c r="BQ7" s="62"/>
-      <c r="BR7" s="62"/>
-      <c r="BS7" s="62"/>
-    </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="45" t="e">
+      <c r="BF6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG6" s="61"/>
+      <c r="BH6" s="61"/>
+      <c r="BI6" s="61"/>
+      <c r="BJ6" s="62"/>
+      <c r="BK6" s="62"/>
+      <c r="BL6" s="62"/>
+      <c r="BM6" s="62"/>
+      <c r="BN6" s="62"/>
+      <c r="BO6" s="62"/>
+      <c r="BP6" s="62"/>
+      <c r="BQ6" s="62"/>
+      <c r="BR6" s="62"/>
+      <c r="BS6" s="62"/>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="45" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="26"/>
-      <c r="AR8" s="26"/>
-      <c r="AS8" s="26"/>
-      <c r="AT8" s="26"/>
-      <c r="AU8" s="29"/>
-      <c r="AV8" s="26"/>
-      <c r="AW8" s="26"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="26"/>
+      <c r="AX7" s="38">
+        <f t="shared" ref="AX7" si="11">I7+J7</f>
+        <v>0</v>
+      </c>
+      <c r="AY7" s="39" t="e">
+        <f t="shared" ref="AY7" si="12">1/F7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ7" s="39">
+        <f t="shared" ref="AZ7" si="13">M7</f>
+        <v>0</v>
+      </c>
+      <c r="BA7" s="39">
+        <f t="shared" ref="BA7" si="14">AW7</f>
+        <v>0</v>
+      </c>
+      <c r="BB7" s="38" t="e">
+        <f t="shared" ref="BB7" si="15">AX7*AY7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC7" s="39">
+        <f t="shared" ref="BC7" si="16">AX7*BA7</f>
+        <v>0</v>
+      </c>
+      <c r="BD7" s="39" t="e">
+        <f t="shared" ref="BD7" si="17">AZ7*AY7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE7" s="41">
+        <f t="shared" ref="BE7" si="18">AZ7*BA7</f>
+        <v>0</v>
+      </c>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="45" t="e">
+        <f t="shared" ref="N8:N12" si="19">M8/F8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="25"/>
+      <c r="AW8" s="25"/>
       <c r="AX8" s="38">
-        <f t="shared" ref="AX8" si="11">I8+J8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY8" s="39" t="e">
-        <f t="shared" ref="AY8" si="12">1/F8</f>
+        <f t="shared" ref="AY8:AY12" si="20">1/F8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ8" s="39">
-        <f t="shared" ref="AZ8" si="13">M8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BA8" s="39">
-        <f t="shared" ref="BA8" si="14">AW8</f>
+        <f t="shared" ref="BA8:BA12" si="21">AW8</f>
         <v>0</v>
       </c>
       <c r="BB8" s="38" t="e">
-        <f t="shared" ref="BB8" si="15">AX8*AY8</f>
+        <f t="shared" ref="BB8:BB12" si="22">AX8*AY8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BC8" s="39">
-        <f t="shared" ref="BC8" si="16">AX8*BA8</f>
+        <f t="shared" ref="BC8:BC12" si="23">AX8*BA8</f>
         <v>0</v>
       </c>
       <c r="BD8" s="39" t="e">
-        <f t="shared" ref="BD8" si="17">AZ8*AY8</f>
+        <f t="shared" ref="BD8:BD12" si="24">AZ8*AY8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE8" s="41">
-        <f t="shared" ref="BE8" si="18">AZ8*BA8</f>
+        <f t="shared" ref="BE8:BE12" si="25">AZ8*BA8</f>
         <v>0</v>
       </c>
-      <c r="BF8" s="21"/>
+      <c r="BF8" s="22"/>
       <c r="BG8" s="3"/>
       <c r="BH8" s="3"/>
       <c r="BI8" s="3"/>
@@ -2517,64 +2404,64 @@
       <c r="BS8" s="1"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="45" t="e">
-        <f t="shared" ref="N9:N13" si="19">M9/F9</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
       <c r="AX9" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY9" s="39" t="e">
-        <f t="shared" ref="AY9:AY13" si="20">1/F9</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ9" s="39">
@@ -2582,26 +2469,26 @@
         <v>0</v>
       </c>
       <c r="BA9" s="39">
-        <f t="shared" ref="BA9:BA13" si="21">AW9</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BB9" s="38" t="e">
-        <f t="shared" ref="BB9:BB13" si="22">AX9*AY9</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC9" s="39">
-        <f t="shared" ref="BC9:BC13" si="23">AX9*BA9</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BD9" s="39" t="e">
-        <f t="shared" ref="BD9:BD13" si="24">AZ9*AY9</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE9" s="41">
-        <f t="shared" ref="BE9:BE13" si="25">AZ9*BA9</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BF9" s="22"/>
+      <c r="BF9" s="21"/>
       <c r="BG9" s="3"/>
       <c r="BH9" s="3"/>
       <c r="BI9" s="3"/>
@@ -2617,58 +2504,58 @@
       <c r="BS9" s="1"/>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="45" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="26"/>
-      <c r="AR10" s="26"/>
-      <c r="AS10" s="26"/>
-      <c r="AT10" s="26"/>
-      <c r="AU10" s="29"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="26"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="25"/>
+      <c r="AW10" s="25"/>
       <c r="AX10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2701,7 +2588,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BF10" s="21"/>
+      <c r="BF10" s="22"/>
       <c r="BG10" s="3"/>
       <c r="BH10" s="3"/>
       <c r="BI10" s="3"/>
@@ -2717,58 +2604,58 @@
       <c r="BS10" s="1"/>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="45" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="25"/>
-      <c r="AW11" s="25"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="26"/>
       <c r="AX11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2801,7 +2688,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BF11" s="22"/>
+      <c r="BF11" s="21"/>
       <c r="BG11" s="3"/>
       <c r="BH11" s="3"/>
       <c r="BI11" s="3"/>
@@ -2817,91 +2704,91 @@
       <c r="BS11" s="1"/>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
       <c r="N12" s="45" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="26"/>
-      <c r="AS12" s="26"/>
-      <c r="AT12" s="26"/>
-      <c r="AU12" s="29"/>
-      <c r="AV12" s="26"/>
-      <c r="AW12" s="26"/>
-      <c r="AX12" s="38">
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="50"/>
+      <c r="AV12" s="27"/>
+      <c r="AW12" s="27"/>
+      <c r="AX12" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AY12" s="39" t="e">
+      <c r="AY12" s="43" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AZ12" s="39">
+      <c r="AZ12" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BA12" s="39">
+      <c r="BA12" s="43">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BB12" s="38" t="e">
+      <c r="BB12" s="42" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC12" s="39">
+      <c r="BC12" s="43">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BD12" s="39" t="e">
+      <c r="BD12" s="43" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BE12" s="41">
+      <c r="BE12" s="44">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BF12" s="21"/>
+      <c r="BF12" s="23"/>
       <c r="BG12" s="3"/>
       <c r="BH12" s="3"/>
       <c r="BI12" s="3"/>
@@ -2917,91 +2804,64 @@
       <c r="BS12" s="1"/>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="45" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY13" s="43" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ13" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BA13" s="43">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BB13" s="42" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC13" s="43">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BD13" s="43" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BE13" s="44">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BF13" s="23"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
       <c r="BG13" s="3"/>
       <c r="BH13" s="3"/>
       <c r="BI13" s="3"/>
@@ -9003,77 +8863,67 @@
       <c r="BS95" s="1"/>
     </row>
     <row r="96" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="3"/>
-      <c r="V96" s="3"/>
-      <c r="W96" s="3"/>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-      <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
-      <c r="AC96" s="3"/>
-      <c r="AD96" s="3"/>
-      <c r="AE96" s="3"/>
-      <c r="AF96" s="3"/>
-      <c r="AG96" s="3"/>
-      <c r="AH96" s="3"/>
-      <c r="AI96" s="3"/>
-      <c r="AJ96" s="3"/>
-      <c r="AK96" s="3"/>
-      <c r="AL96" s="3"/>
-      <c r="AM96" s="3"/>
-      <c r="AN96" s="3"/>
-      <c r="AO96" s="3"/>
-      <c r="AP96" s="3"/>
-      <c r="AQ96" s="3"/>
-      <c r="AR96" s="3"/>
-      <c r="AS96" s="3"/>
-      <c r="AT96" s="3"/>
-      <c r="AU96" s="3"/>
-      <c r="AV96" s="3"/>
-      <c r="AW96" s="3"/>
-      <c r="AX96" s="3"/>
-      <c r="AY96" s="3"/>
-      <c r="AZ96" s="3"/>
-      <c r="BA96" s="3"/>
-      <c r="BB96" s="3"/>
-      <c r="BC96" s="3"/>
-      <c r="BD96" s="3"/>
-      <c r="BE96" s="3"/>
-      <c r="BF96" s="3"/>
-      <c r="BG96" s="3"/>
-      <c r="BH96" s="3"/>
-      <c r="BI96" s="3"/>
-      <c r="BJ96" s="1"/>
-      <c r="BK96" s="1"/>
-      <c r="BL96" s="1"/>
-      <c r="BM96" s="1"/>
-      <c r="BN96" s="1"/>
-      <c r="BO96" s="1"/>
-      <c r="BP96" s="1"/>
-      <c r="BQ96" s="1"/>
-      <c r="BR96" s="1"/>
-      <c r="BS96" s="1"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
+      <c r="AF96" s="2"/>
+      <c r="AG96" s="2"/>
+      <c r="AH96" s="2"/>
+      <c r="AI96" s="2"/>
+      <c r="AJ96" s="2"/>
+      <c r="AK96" s="2"/>
+      <c r="AL96" s="2"/>
+      <c r="AM96" s="2"/>
+      <c r="AN96" s="2"/>
+      <c r="AO96" s="2"/>
+      <c r="AP96" s="2"/>
+      <c r="AQ96" s="2"/>
+      <c r="AR96" s="2"/>
+      <c r="AS96" s="2"/>
+      <c r="AT96" s="2"/>
+      <c r="AU96" s="2"/>
+      <c r="AV96" s="2"/>
+      <c r="AW96" s="2"/>
+      <c r="AX96" s="2"/>
+      <c r="AY96" s="2"/>
+      <c r="AZ96" s="2"/>
+      <c r="BA96" s="2"/>
+      <c r="BB96" s="2"/>
+      <c r="BC96" s="2"/>
+      <c r="BD96" s="2"/>
+      <c r="BE96" s="2"/>
+      <c r="BF96" s="2"/>
+      <c r="BG96" s="2"/>
+      <c r="BH96" s="2"/>
+      <c r="BI96" s="2"/>
     </row>
     <row r="97" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
@@ -9705,80 +9555,8 @@
       <c r="BH106" s="2"/>
       <c r="BI106" s="2"/>
     </row>
-    <row r="107" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
-      <c r="V107" s="2"/>
-      <c r="W107" s="2"/>
-      <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
-      <c r="Z107" s="2"/>
-      <c r="AA107" s="2"/>
-      <c r="AB107" s="2"/>
-      <c r="AC107" s="2"/>
-      <c r="AD107" s="2"/>
-      <c r="AE107" s="2"/>
-      <c r="AF107" s="2"/>
-      <c r="AG107" s="2"/>
-      <c r="AH107" s="2"/>
-      <c r="AI107" s="2"/>
-      <c r="AJ107" s="2"/>
-      <c r="AK107" s="2"/>
-      <c r="AL107" s="2"/>
-      <c r="AM107" s="2"/>
-      <c r="AN107" s="2"/>
-      <c r="AO107" s="2"/>
-      <c r="AP107" s="2"/>
-      <c r="AQ107" s="2"/>
-      <c r="AR107" s="2"/>
-      <c r="AS107" s="2"/>
-      <c r="AT107" s="2"/>
-      <c r="AU107" s="2"/>
-      <c r="AV107" s="2"/>
-      <c r="AW107" s="2"/>
-      <c r="AX107" s="2"/>
-      <c r="AY107" s="2"/>
-      <c r="AZ107" s="2"/>
-      <c r="BA107" s="2"/>
-      <c r="BB107" s="2"/>
-      <c r="BC107" s="2"/>
-      <c r="BD107" s="2"/>
-      <c r="BE107" s="2"/>
-      <c r="BF107" s="2"/>
-      <c r="BG107" s="2"/>
-      <c r="BH107" s="2"/>
-      <c r="BI107" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:N3"/>
     <mergeCell ref="BF1:BF4"/>
     <mergeCell ref="AR2:AR4"/>
     <mergeCell ref="AW2:AW4"/>
@@ -9794,6 +9572,15 @@
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AS2:AT3"/>
     <mergeCell ref="AU2:AV3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
